--- a/model/Single Motor/pos.xlsx
+++ b/model/Single Motor/pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF902C-B289-4F4A-9681-5BE02990FE32}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22514D-5598-45B0-89F2-563B39AC76A9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{EE367AE8-C5DF-4C87-AD96-5308D999D090}"/>
   </bookViews>
@@ -1589,1204 +1589,1204 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.13985327953705701</v>
+        <v>0.13807877696798809</v>
       </c>
       <c r="C2">
-        <v>0.55100363816604137</v>
+        <v>0.54755657668291668</v>
       </c>
       <c r="D2">
-        <v>1.2081004660690104</v>
+        <v>1.2031574158426803</v>
       </c>
       <c r="E2">
-        <v>2.0853301880233333</v>
+        <v>2.079023658675466</v>
       </c>
       <c r="F2">
-        <v>3.1559339680481151</v>
+        <v>3.0478151704008507</v>
       </c>
       <c r="G2">
-        <v>4.3918269384677373</v>
+        <v>4.0085343375978706</v>
       </c>
       <c r="H2">
-        <v>5.7636347880056054</v>
+        <v>4.9612484221545587</v>
       </c>
       <c r="I2">
-        <v>7.2406945418788871</v>
+        <v>5.906024125506951</v>
       </c>
       <c r="J2">
-        <v>8.7903384789377768</v>
+        <v>6.8429275933089952</v>
       </c>
       <c r="K2">
-        <v>10.378150435147576</v>
+        <v>7.7720244200635253</v>
       </c>
       <c r="L2">
-        <v>11.968204689154764</v>
+        <v>8.6933796537146932</v>
       </c>
       <c r="M2">
-        <v>13.523640605008463</v>
+        <v>9.6070578002020852</v>
       </c>
       <c r="N2">
-        <v>15.007264235895653</v>
+        <v>10.51312282797692</v>
       </c>
       <c r="O2">
-        <v>16.382960993365078</v>
+        <v>11.41163817248062</v>
       </c>
       <c r="P2">
-        <v>17.616572057844493</v>
+        <v>12.302666740586027</v>
       </c>
       <c r="Q2">
-        <v>18.677905365555446</v>
+        <v>13.18627091500165</v>
       </c>
       <c r="R2">
-        <v>19.542611259369366</v>
+        <v>14.062512558639234</v>
       </c>
       <c r="S2">
-        <v>20.193477399157135</v>
+        <v>14.931453018944879</v>
       </c>
       <c r="T2">
-        <v>20.621292319015424</v>
+        <v>15.793153132194091</v>
       </c>
       <c r="U2">
-        <v>20.82531614111133</v>
+        <v>16.647673227751078</v>
       </c>
       <c r="V2">
-        <v>20.818023132256464</v>
+        <v>17.49507313229249</v>
       </c>
       <c r="W2">
-        <v>20.615670074645763</v>
+        <v>18.335412173996062</v>
       </c>
       <c r="X2">
-        <v>20.237887674675193</v>
+        <v>19.168749186694257</v>
       </c>
       <c r="Y2">
-        <v>19.713781911561387</v>
+        <v>19.925286186331739</v>
       </c>
       <c r="Z2">
-        <v>19.075147972338033</v>
+        <v>20.46417766953844</v>
       </c>
       <c r="AA2">
-        <v>18.355152534322869</v>
+        <v>20.777493045605212</v>
       </c>
       <c r="AB2">
-        <v>17.586299210263711</v>
+        <v>20.871573581299288</v>
       </c>
       <c r="AC2">
-        <v>16.799583979128691</v>
+        <v>20.853932335004647</v>
       </c>
       <c r="AD2">
-        <v>16.022820278716321</v>
+        <v>20.836288820335895</v>
       </c>
       <c r="AE2">
-        <v>15.280191280814073</v>
+        <v>20.818792318235833</v>
       </c>
       <c r="AF2">
-        <v>14.591980362445714</v>
+        <v>20.801441603739075</v>
       </c>
       <c r="AG2">
-        <v>13.97430083038963</v>
+        <v>20.784235462086947</v>
       </c>
       <c r="AH2">
-        <v>13.439233725889716</v>
+        <v>20.767172688642741</v>
       </c>
       <c r="AI2">
-        <v>12.994997909819963</v>
+        <v>20.750252088806899</v>
       </c>
       <c r="AJ2">
-        <v>12.646367651894828</v>
+        <v>20.733472477934033</v>
       </c>
       <c r="AK2">
-        <v>12.394994008215063</v>
+        <v>20.716832681249901</v>
       </c>
       <c r="AL2">
-        <v>12.240038701615834</v>
+        <v>20.700331533768786</v>
       </c>
       <c r="AM2">
-        <v>12.177877276224299</v>
+        <v>20.683967880212137</v>
       </c>
       <c r="AN2">
-        <v>12.201371222903196</v>
+        <v>20.66774057492761</v>
       </c>
       <c r="AO2">
-        <v>12.303930982040663</v>
+        <v>20.65164848180876</v>
       </c>
       <c r="AP2">
-        <v>12.478851134856633</v>
+        <v>20.635690474215615</v>
       </c>
       <c r="AQ2">
-        <v>12.714732462447056</v>
+        <v>20.6198654348959</v>
       </c>
       <c r="AR2">
-        <v>13.001526907539271</v>
+        <v>20.60417225590675</v>
       </c>
       <c r="AS2">
-        <v>13.327872559189048</v>
+        <v>20.588609838536684</v>
       </c>
       <c r="AT2">
-        <v>13.682128452561914</v>
+        <v>20.573177093229415</v>
       </c>
       <c r="AU2">
-        <v>14.052534928996886</v>
+        <v>20.557872939507522</v>
       </c>
       <c r="AV2">
-        <v>14.427673251046617</v>
+        <v>20.542696305897081</v>
       </c>
       <c r="AW2">
-        <v>14.796698593247461</v>
+        <v>20.527646129851345</v>
       </c>
       <c r="AX2">
-        <v>15.149449761065339</v>
+        <v>20.512721357677108</v>
       </c>
       <c r="AY2">
-        <v>15.476794169430688</v>
+        <v>20.497920944460972</v>
       </c>
       <c r="AZ2">
-        <v>15.770808384593517</v>
+        <v>20.483243853996107</v>
       </c>
       <c r="BA2">
-        <v>16.025127449519378</v>
+        <v>20.468689058709803</v>
       </c>
       <c r="BB2">
-        <v>16.235030492351118</v>
+        <v>20.454255539591447</v>
       </c>
       <c r="BC2">
-        <v>16.396248191788981</v>
+        <v>20.439942286121244</v>
       </c>
       <c r="BD2">
-        <v>16.509897622129916</v>
+        <v>20.425748296199419</v>
       </c>
       <c r="BE2">
-        <v>16.57268122441609</v>
+        <v>20.4116725760761</v>
       </c>
       <c r="BF2">
-        <v>16.585591109102673</v>
+        <v>20.397714140281703</v>
       </c>
       <c r="BG2">
-        <v>16.552464136872995</v>
+        <v>20.383872011557983</v>
       </c>
       <c r="BH2">
-        <v>16.476871630041611</v>
+        <v>20.370145220789542</v>
       </c>
       <c r="BI2">
-        <v>16.367925350530879</v>
+        <v>20.356532806936066</v>
       </c>
       <c r="BJ2">
-        <v>16.232484950282085</v>
+        <v>20.343033816964976</v>
       </c>
       <c r="BK2">
-        <v>16.074394044956879</v>
+        <v>20.329647305784732</v>
       </c>
       <c r="BL2">
-        <v>15.90276995563323</v>
+        <v>20.316372336178699</v>
       </c>
       <c r="BM2">
-        <v>15.72215957835432</v>
+        <v>20.30320797873943</v>
       </c>
       <c r="BN2">
-        <v>15.540007514400816</v>
+        <v>20.290153311803696</v>
       </c>
       <c r="BO2">
-        <v>15.361680205250927</v>
+        <v>20.277207421387914</v>
       </c>
       <c r="BP2">
-        <v>15.191791890075635</v>
+        <v>20.264369401124171</v>
       </c>
       <c r="BQ2">
-        <v>15.036030399929155</v>
+        <v>20.25163835219676</v>
       </c>
       <c r="BR2">
-        <v>14.896253781241004</v>
+        <v>20.239013383279246</v>
       </c>
       <c r="BS2">
-        <v>14.776945179268109</v>
+        <v>20.226493610472058</v>
       </c>
       <c r="BT2">
-        <v>14.679978758745065</v>
+        <v>20.21407815724065</v>
       </c>
       <c r="BU2">
-        <v>14.603635640936819</v>
+        <v>20.201766154354072</v>
       </c>
       <c r="BV2">
-        <v>14.550348187074835</v>
+        <v>20.189556739824159</v>
       </c>
       <c r="BW2">
-        <v>14.523368224649493</v>
+        <v>20.177449058845152</v>
       </c>
       <c r="BX2">
-        <v>14.520691216351318</v>
+        <v>20.165442263733866</v>
       </c>
       <c r="BY2">
-        <v>14.540447515280935</v>
+        <v>20.153535513870334</v>
       </c>
       <c r="BZ2">
-        <v>14.580911291058044</v>
+        <v>20.141727975638986</v>
       </c>
       <c r="CA2">
-        <v>14.638693638981399</v>
+        <v>20.130018822370218</v>
       </c>
       <c r="CB2">
-        <v>14.705822921409338</v>
+        <v>20.118407234282579</v>
       </c>
       <c r="CC2">
-        <v>14.780951538219663</v>
+        <v>20.106892398425352</v>
       </c>
       <c r="CD2">
-        <v>14.863464072611235</v>
+        <v>20.095473508621644</v>
       </c>
       <c r="CE2">
-        <v>14.952009407649568</v>
+        <v>20.084149765411922</v>
       </c>
       <c r="CF2">
-        <v>15.039259013491062</v>
+        <v>20.072920375998073</v>
       </c>
       <c r="CG2">
-        <v>15.123718089969843</v>
+        <v>20.061784554187888</v>
       </c>
       <c r="CH2">
-        <v>15.20560129954646</v>
+        <v>20.050741520339994</v>
       </c>
       <c r="CI2">
-        <v>15.282832049925764</v>
+        <v>20.039790501309295</v>
       </c>
       <c r="CJ2">
-        <v>15.349067201484939</v>
+        <v>20.028930730392858</v>
       </c>
       <c r="CK2">
-        <v>15.404705917376836</v>
+        <v>20.018161447276196</v>
       </c>
       <c r="CL2">
-        <v>15.45056330181216</v>
+        <v>20.007481897980057</v>
       </c>
       <c r="CM2">
-        <v>15.487391923300708</v>
+        <v>19.996891334807643</v>
       </c>
       <c r="CN2">
-        <v>15.515886340330647</v>
+        <v>19.98638901629225</v>
       </c>
       <c r="CO2">
-        <v>15.536687712822438</v>
+        <v>19.975974207145356</v>
       </c>
       <c r="CP2">
-        <v>15.548776727861858</v>
+        <v>19.965646178205155</v>
       </c>
       <c r="CQ2">
-        <v>15.545683742759564</v>
+        <v>19.955404206385492</v>
       </c>
       <c r="CR2">
-        <v>15.530642033242666</v>
+        <v>19.945247574625256</v>
       </c>
       <c r="CS2">
-        <v>15.511014724909927</v>
+        <v>19.935175571838155</v>
       </c>
       <c r="CT2">
-        <v>15.487396427586498</v>
+        <v>19.925187492862943</v>
       </c>
       <c r="CU2">
-        <v>15.460094142668117</v>
+        <v>19.915282638414048</v>
       </c>
       <c r="CV2">
-        <v>15.429391297672446</v>
+        <v>19.905460315032617</v>
       </c>
       <c r="CW2">
-        <v>15.39554951068156</v>
+        <v>19.895719835037966</v>
       </c>
       <c r="CX2">
-        <v>15.358810235836316</v>
+        <v>19.886060516479443</v>
       </c>
       <c r="CY2">
-        <v>15.319396403689357</v>
+        <v>19.876481683088631</v>
       </c>
       <c r="CZ2">
-        <v>15.277513760536923</v>
+        <v>19.866982664232093</v>
       </c>
       <c r="DA2">
-        <v>15.233352234994832</v>
+        <v>19.857562794864347</v>
       </c>
       <c r="DB2">
-        <v>15.190676786493215</v>
+        <v>19.848221415481312</v>
       </c>
       <c r="DC2">
-        <v>15.15512494398266</v>
+        <v>19.838957872074165</v>
       </c>
       <c r="DD2">
-        <v>15.126229760871968</v>
+        <v>19.829771516083543</v>
       </c>
       <c r="DE2">
-        <v>15.103479132113911</v>
+        <v>19.820661704354112</v>
       </c>
       <c r="DF2">
-        <v>15.086400352027949</v>
+        <v>19.811627799089568</v>
       </c>
       <c r="DG2">
-        <v>15.074557084191108</v>
+        <v>19.802669167807977</v>
       </c>
       <c r="DH2">
-        <v>15.067546553433921</v>
+        <v>19.793785183297462</v>
       </c>
       <c r="DI2">
-        <v>15.06499697667194</v>
+        <v>19.784975223572353</v>
       </c>
       <c r="DJ2">
-        <v>15.066565166259194</v>
+        <v>19.776238671829567</v>
       </c>
       <c r="DK2">
-        <v>15.071934342689216</v>
+        <v>19.767574916405515</v>
       </c>
       <c r="DL2">
-        <v>15.080812089719792</v>
+        <v>19.758983350733175</v>
       </c>
       <c r="DM2">
-        <v>15.092928492969694</v>
+        <v>19.750463373299684</v>
       </c>
       <c r="DN2">
-        <v>15.108034397546287</v>
+        <v>19.74201438760424</v>
       </c>
       <c r="DO2">
-        <v>15.125899823356919</v>
+        <v>19.733635802116297</v>
       </c>
       <c r="DP2">
-        <v>15.146312473533879</v>
+        <v>19.725327030234165</v>
       </c>
       <c r="DQ2">
-        <v>15.169076393178527</v>
+        <v>19.717087490243962</v>
       </c>
       <c r="DR2">
-        <v>15.194010672328702</v>
+        <v>19.708916605278873</v>
       </c>
       <c r="DS2">
-        <v>15.220948402070857</v>
+        <v>19.700813803278727</v>
       </c>
       <c r="DT2">
-        <v>15.247332035462483</v>
+        <v>19.692778516950014</v>
       </c>
       <c r="DU2">
-        <v>15.266578276281653</v>
+        <v>19.684810183726107</v>
       </c>
       <c r="DV2">
-        <v>15.278842938817386</v>
+        <v>19.676908245727926</v>
       </c>
       <c r="DW2">
-        <v>15.284663128123004</v>
+        <v>19.66907214972484</v>
       </c>
       <c r="DX2">
-        <v>15.284534620823154</v>
+        <v>19.661301347095961</v>
       </c>
       <c r="DY2">
-        <v>15.278915080307819</v>
+        <v>19.6535952937917</v>
       </c>
       <c r="DZ2">
-        <v>15.26822685315361</v>
+        <v>19.645953450295718</v>
       </c>
       <c r="EA2">
-        <v>15.252859960314975</v>
+        <v>19.638375281587127</v>
       </c>
       <c r="EB2">
-        <v>15.233174303319061</v>
+        <v>19.630860257103013</v>
       </c>
       <c r="EC2">
-        <v>15.212492463605621</v>
+        <v>19.62340785070138</v>
       </c>
       <c r="ED2">
-        <v>15.197120239237508</v>
+        <v>19.616017540624203</v>
       </c>
       <c r="EE2">
-        <v>15.186852344409671</v>
+        <v>19.608688809460958</v>
       </c>
       <c r="EF2">
-        <v>15.181295955073022</v>
+        <v>19.601421144112376</v>
       </c>
       <c r="EG2">
-        <v>15.180088637363822</v>
+        <v>19.594214035754526</v>
       </c>
       <c r="EH2">
-        <v>15.182895814329738</v>
+        <v>19.587066979803222</v>
       </c>
       <c r="EI2">
-        <v>15.18940869417602</v>
+        <v>19.579979475878645</v>
       </c>
       <c r="EJ2">
-        <v>15.199342144436665</v>
+        <v>19.572951027770348</v>
       </c>
       <c r="EK2">
-        <v>15.212433026452503</v>
+        <v>19.565981143402492</v>
       </c>
       <c r="EL2">
-        <v>15.228438438073058</v>
+        <v>19.5590693347994</v>
       </c>
       <c r="EM2">
-        <v>15.242649949114126</v>
+        <v>19.552215118051397</v>
       </c>
       <c r="EN2">
-        <v>15.250272300792437</v>
+        <v>19.545418013280937</v>
       </c>
       <c r="EO2">
-        <v>15.251807326352084</v>
+        <v>19.538677544608998</v>
       </c>
       <c r="EP2">
-        <v>15.247723337299943</v>
+        <v>19.531993240121761</v>
       </c>
       <c r="EQ2">
-        <v>15.238452540020722</v>
+        <v>19.525364631837576</v>
       </c>
       <c r="ER2">
-        <v>15.224756163555645</v>
+        <v>19.518791255674202</v>
       </c>
       <c r="ES2">
-        <v>15.213591838933475</v>
+        <v>19.5122726514163</v>
       </c>
       <c r="ET2">
-        <v>15.207208013008518</v>
+        <v>19.505808362683236</v>
       </c>
       <c r="EU2">
-        <v>15.205236954818849</v>
+        <v>19.499397936897104</v>
       </c>
       <c r="EV2">
-        <v>15.207339091009711</v>
+        <v>19.493040925251051</v>
       </c>
       <c r="EW2">
-        <v>15.213201234610496</v>
+        <v>19.48673688267786</v>
       </c>
       <c r="EX2">
-        <v>15.222533978860643</v>
+        <v>19.480485367818801</v>
       </c>
       <c r="EY2">
-        <v>15.234107562197773</v>
+        <v>19.47428594299269</v>
       </c>
       <c r="EZ2">
-        <v>15.240702137611185</v>
+        <v>19.468138174165279</v>
       </c>
       <c r="FA2">
-        <v>15.241288411080609</v>
+        <v>19.462041630918868</v>
       </c>
       <c r="FB2">
-        <v>15.236328705648598</v>
+        <v>19.455995886422151</v>
       </c>
       <c r="FC2">
-        <v>15.226456251503892</v>
+        <v>19.45000051740038</v>
       </c>
       <c r="FD2">
-        <v>15.218346184339826</v>
+        <v>19.44405510410564</v>
       </c>
       <c r="FE2">
-        <v>15.214781658673264</v>
+        <v>19.43815923028755</v>
       </c>
       <c r="FF2">
-        <v>15.21541298319635</v>
+        <v>19.4323124831641</v>
       </c>
       <c r="FG2">
-        <v>15.219917345377125</v>
+        <v>19.426514453392702</v>
       </c>
       <c r="FH2">
-        <v>15.227996845628724</v>
+        <v>19.420764735041605</v>
       </c>
       <c r="FI2">
-        <v>15.23556207866895</v>
+        <v>19.415062925561418</v>
       </c>
       <c r="FJ2">
-        <v>15.237097460638351</v>
+        <v>19.409408625756942</v>
       </c>
       <c r="FK2">
-        <v>15.233013753884793</v>
+        <v>19.403801439759242</v>
       </c>
       <c r="FL2">
-        <v>15.224794783852879</v>
+        <v>19.398240974997911</v>
       </c>
       <c r="FM2">
-        <v>15.219819446981994</v>
+        <v>19.392726842173584</v>
       </c>
       <c r="FN2">
-        <v>15.219148478631585</v>
+        <v>19.387258655230688</v>
       </c>
       <c r="FO2">
-        <v>15.222450762438086</v>
+        <v>19.381836031330419</v>
       </c>
       <c r="FP2">
-        <v>15.229408454553063</v>
+        <v>19.37645859082394</v>
       </c>
       <c r="FQ2">
-        <v>15.234536841182512</v>
+        <v>19.371125957225782</v>
       </c>
       <c r="FR2">
-        <v>15.233769810576003</v>
+        <v>19.365837757187506</v>
       </c>
       <c r="FS2">
-        <v>15.227663337245739</v>
+        <v>19.360593620471551</v>
       </c>
       <c r="FT2">
-        <v>15.222557232779707</v>
+        <v>19.355393179925322</v>
       </c>
       <c r="FU2">
-        <v>15.221765629428926</v>
+        <v>19.35023607145548</v>
       </c>
       <c r="FV2">
-        <v>15.224956522976905</v>
+        <v>19.345121934002446</v>
       </c>
       <c r="FW2">
-        <v>15.231209451732191</v>
+        <v>19.34005040951514</v>
       </c>
       <c r="FX2">
-        <v>15.23339416585913</v>
+        <v>19.3350211429259</v>
       </c>
       <c r="FY2">
-        <v>15.229909918573403</v>
+        <v>19.330033782125618</v>
       </c>
       <c r="FZ2">
-        <v>15.224487430560218</v>
+        <v>19.325087977939084</v>
       </c>
       <c r="GA2">
-        <v>15.223269689393481</v>
+        <v>19.320183384100588</v>
       </c>
       <c r="GB2">
-        <v>15.226067243243804</v>
+        <v>19.315319657229605</v>
       </c>
       <c r="GC2">
-        <v>15.231434075005696</v>
+        <v>19.310496456806792</v>
       </c>
       <c r="GD2">
-        <v>15.23210672614419</v>
+        <v>19.305713445150161</v>
       </c>
       <c r="GE2">
-        <v>15.227461295790819</v>
+        <v>19.300970287391408</v>
       </c>
       <c r="GF2">
-        <v>15.224276146656271</v>
+        <v>19.296266651452495</v>
       </c>
       <c r="GG2">
-        <v>15.225257601458733</v>
+        <v>19.291602208022361</v>
       </c>
       <c r="GH2">
-        <v>15.229925048901981</v>
+        <v>19.286976630533921</v>
       </c>
       <c r="GI2">
-        <v>15.231837429163683</v>
+        <v>19.282389595141151</v>
       </c>
       <c r="GJ2">
-        <v>15.228154205301228</v>
+        <v>19.27784078069644</v>
       </c>
       <c r="GK2">
-        <v>15.224948353044356</v>
+        <v>19.273329868728116</v>
       </c>
       <c r="GL2">
-        <v>15.225910813056473</v>
+        <v>19.26885654341811</v>
       </c>
       <c r="GM2">
-        <v>15.230344118836051</v>
+        <v>19.264420491579916</v>
       </c>
       <c r="GN2">
-        <v>15.231339693002605</v>
+        <v>19.260021402636575</v>
       </c>
       <c r="GO2">
-        <v>15.227250648211026</v>
+        <v>19.255658968598976</v>
       </c>
       <c r="GP2">
-        <v>15.225254509855882</v>
+        <v>19.251332884044334</v>
       </c>
       <c r="GQ2">
-        <v>15.22733357475418</v>
+        <v>19.247042846094725</v>
       </c>
       <c r="GR2">
-        <v>15.231125690448708</v>
+        <v>19.24278855439594</v>
       </c>
       <c r="GS2">
-        <v>15.229679287959158</v>
+        <v>19.238569711096424</v>
       </c>
       <c r="GT2">
-        <v>15.226015306397844</v>
+        <v>19.234386020826449</v>
       </c>
       <c r="GU2">
-        <v>15.226394977872253</v>
+        <v>19.230237190677403</v>
       </c>
       <c r="GV2">
-        <v>15.23019718954221</v>
+        <v>19.226122930181312</v>
       </c>
       <c r="GW2">
-        <v>15.230396841080823</v>
+        <v>19.222042951290508</v>
       </c>
       <c r="GX2">
-        <v>15.226704330127804</v>
+        <v>19.217996968357426</v>
       </c>
       <c r="GY2">
-        <v>15.22640909503256</v>
+        <v>19.213984698114633</v>
       </c>
       <c r="GZ2">
-        <v>15.229827566929172</v>
+        <v>19.210005859654991</v>
       </c>
       <c r="HA2">
-        <v>15.23031517206346</v>
+        <v>19.206060174411999</v>
       </c>
       <c r="HB2">
-        <v>15.226847631464031</v>
+        <v>19.202147366140249</v>
       </c>
       <c r="HC2">
-        <v>15.226731261509329</v>
+        <v>19.198267160896158</v>
       </c>
       <c r="HD2">
-        <v>15.230071239436631</v>
+        <v>19.194419287018722</v>
       </c>
       <c r="HE2">
-        <v>15.229835530272961</v>
+        <v>19.190603475110507</v>
       </c>
       <c r="HF2">
-        <v>15.226575299849831</v>
+        <v>19.186819458018835</v>
       </c>
       <c r="HG2">
-        <v>15.227116823609965</v>
+        <v>19.18306697081702</v>
       </c>
       <c r="HH2">
-        <v>15.230407062914885</v>
+        <v>19.179345750785867</v>
       </c>
       <c r="HI2">
-        <v>15.229168824238551</v>
+        <v>19.175655537395244</v>
       </c>
       <c r="HJ2">
-        <v>15.22656714746471</v>
+        <v>19.171996072285868</v>
       </c>
       <c r="HK2">
-        <v>15.228056899729316</v>
+        <v>19.16836709925121</v>
       </c>
       <c r="HL2">
-        <v>15.23046295474607</v>
+        <v>19.16476836421953</v>
       </c>
       <c r="HM2">
-        <v>15.227798215780291</v>
+        <v>19.161199615236125</v>
       </c>
       <c r="HN2">
-        <v>15.226875897766934</v>
+        <v>19.157660602445684</v>
       </c>
       <c r="HO2">
-        <v>15.229693641317503</v>
+        <v>19.154151078074758</v>
       </c>
       <c r="HP2">
-        <v>15.229552678117608</v>
+        <v>19.150670796414477</v>
       </c>
       <c r="HQ2">
-        <v>15.226917280703626</v>
+        <v>19.147219513803311</v>
       </c>
       <c r="HR2">
-        <v>15.228204490253413</v>
+        <v>19.143796988609985</v>
       </c>
       <c r="HS2">
-        <v>15.230308548015765</v>
+        <v>19.140402981216596</v>
       </c>
       <c r="HT2">
-        <v>15.22754975557911</v>
+        <v>19.137037254001847</v>
       </c>
       <c r="HU2">
-        <v>15.226992261325817</v>
+        <v>19.133699571324378</v>
       </c>
       <c r="HV2">
-        <v>15.229925526949241</v>
+        <v>19.130389699506289</v>
       </c>
       <c r="HW2">
-        <v>15.229315614182903</v>
+        <v>19.127107406816766</v>
       </c>
       <c r="HX2">
-        <v>15.226885902710089</v>
+        <v>19.123852463455869</v>
       </c>
       <c r="HY2">
-        <v>15.228488384299217</v>
+        <v>19.120624641538452</v>
       </c>
       <c r="HZ2">
-        <v>15.230118614017998</v>
+        <v>19.117423715078196</v>
       </c>
       <c r="IA2">
-        <v>15.227404359342239</v>
+        <v>19.114249459971766</v>
       </c>
       <c r="IB2">
-        <v>15.227686056566352</v>
+        <v>19.111101653983159</v>
       </c>
       <c r="IC2">
-        <v>15.2301085007218</v>
+        <v>19.107980076728133</v>
       </c>
       <c r="ID2">
-        <v>15.227900117308204</v>
+        <v>19.104884509658746</v>
       </c>
       <c r="IE2">
-        <v>15.227278369028825</v>
+        <v>19.101814736048116</v>
       </c>
       <c r="IF2">
-        <v>15.229977497832396</v>
+        <v>19.098770540975188</v>
       </c>
       <c r="IG2">
-        <v>15.228822112564917</v>
+        <v>19.09575171130972</v>
       </c>
       <c r="IH2">
-        <v>15.227048622940307</v>
+        <v>19.092758035697358</v>
       </c>
       <c r="II2">
-        <v>15.229295239360537</v>
+        <v>19.089789304544833</v>
       </c>
       <c r="IJ2">
-        <v>15.229728562531118</v>
+        <v>19.086845310005273</v>
       </c>
       <c r="IK2">
-        <v>15.227088483966703</v>
+        <v>19.083925845963684</v>
       </c>
       <c r="IL2">
-        <v>15.228202430395326</v>
+        <v>19.081030708022499</v>
       </c>
       <c r="IM2">
-        <v>15.230132467619088</v>
+        <v>19.078159693487262</v>
       </c>
       <c r="IN2">
-        <v>15.227537504773359</v>
+        <v>19.075312601352454</v>
       </c>
       <c r="IO2">
-        <v>15.227610030495306</v>
+        <v>19.072489232287403</v>
       </c>
       <c r="IP2">
-        <v>15.230099128423948</v>
+        <v>19.069689388622351</v>
       </c>
       <c r="IQ2">
-        <v>15.228056167111461</v>
+        <v>19.066912874334577</v>
       </c>
       <c r="IR2">
-        <v>15.227360416421899</v>
+        <v>19.064159495034712</v>
       </c>
       <c r="IS2">
-        <v>15.22989534502266</v>
+        <v>19.061429057953138</v>
       </c>
       <c r="IT2">
-        <v>15.22848492797158</v>
+        <v>19.058721371926424</v>
       </c>
       <c r="IU2">
-        <v>15.227325026526936</v>
+        <v>19.056036247384021</v>
       </c>
       <c r="IV2">
-        <v>15.229713328819997</v>
+        <v>19.053373496334924</v>
       </c>
       <c r="IW2">
-        <v>15.228637374666441</v>
+        <v>19.050732932354567</v>
       </c>
       <c r="IX2">
-        <v>15.22738878241522</v>
+        <v>19.048114370571714</v>
       </c>
       <c r="IY2">
-        <v>15.229706014115191</v>
+        <v>19.045517627655592</v>
       </c>
       <c r="IZ2">
-        <v>15.228596583667091</v>
+        <v>19.042942521802992</v>
       </c>
       <c r="JA2">
-        <v>15.227442466014049</v>
+        <v>19.040388872725547</v>
       </c>
       <c r="JB2">
-        <v>15.229771365451462</v>
+        <v>19.037856501637126</v>
       </c>
       <c r="JC2">
-        <v>15.228530540238108</v>
+        <v>19.03534523124133</v>
       </c>
       <c r="JD2">
-        <v>15.227428007985667</v>
+        <v>19.032854885719029</v>
       </c>
       <c r="JE2">
-        <v>15.229760129332954</v>
+        <v>19.030385290716133</v>
       </c>
       <c r="JF2">
-        <v>15.228462473721958</v>
+        <v>19.027936273331296</v>
       </c>
       <c r="JG2">
-        <v>15.227522489566335</v>
+        <v>19.025507662103866</v>
       </c>
       <c r="JH2">
-        <v>15.229796180439887</v>
+        <v>19.023099287001866</v>
       </c>
       <c r="JI2">
-        <v>15.228212814914857</v>
+        <v>19.020710979410104</v>
       </c>
       <c r="JJ2">
-        <v>15.227602676959858</v>
+        <v>19.018342572118346</v>
       </c>
       <c r="JK2">
-        <v>15.229890852893991</v>
+        <v>19.015993899309606</v>
       </c>
       <c r="JL2">
-        <v>15.228089265726902</v>
+        <v>19.013664796548579</v>
       </c>
       <c r="JM2">
-        <v>15.227726807560035</v>
+        <v>19.011355100770057</v>
       </c>
       <c r="JN2">
-        <v>15.229914907485568</v>
+        <v>19.00906465026759</v>
       </c>
       <c r="JO2">
-        <v>15.227903961778813</v>
+        <v>19.006793284682111</v>
       </c>
       <c r="JP2">
-        <v>15.227822277140545</v>
+        <v>19.004540844990743</v>
       </c>
       <c r="JQ2">
-        <v>15.230009691582143</v>
+        <v>19.002307173495627</v>
       </c>
       <c r="JR2">
-        <v>15.227817248107332</v>
+        <v>19.000092113812894</v>
       </c>
       <c r="JS2">
-        <v>15.227599242770985</v>
+        <v>18.99789551086177</v>
       </c>
       <c r="JT2">
-        <v>15.230015717181496</v>
+        <v>18.995717210853648</v>
       </c>
       <c r="JU2">
-        <v>15.228076066832561</v>
+        <v>18.993557061281333</v>
       </c>
       <c r="JV2">
-        <v>15.227504577559111</v>
+        <v>18.991414910908411</v>
       </c>
       <c r="JW2">
-        <v>15.229923635558617</v>
+        <v>18.989290609758591</v>
       </c>
       <c r="JX2">
-        <v>15.228226616093258</v>
+        <v>18.987184009105281</v>
       </c>
       <c r="JY2">
-        <v>15.227531808238995</v>
+        <v>18.985094961461098</v>
       </c>
       <c r="JZ2">
-        <v>15.22990582784103</v>
+        <v>18.983023320567607</v>
       </c>
       <c r="KA2">
-        <v>15.228239787738955</v>
+        <v>18.980968941385047</v>
       </c>
       <c r="KB2">
-        <v>15.227524083991996</v>
+        <v>18.978931680082194</v>
       </c>
       <c r="KC2">
-        <v>15.229887258077468</v>
+        <v>18.976911394026267</v>
       </c>
       <c r="KD2">
-        <v>15.228231288150784</v>
+        <v>18.974907941772965</v>
       </c>
       <c r="KE2">
-        <v>15.227564709581227</v>
+        <v>18.972921183056553</v>
       </c>
       <c r="KF2">
-        <v>15.229895000435539</v>
+        <v>18.970950978780031</v>
       </c>
       <c r="KG2">
-        <v>15.228165228217525</v>
+        <v>18.968997191005432</v>
       </c>
       <c r="KH2">
-        <v>15.227632430484563</v>
+        <v>18.967059682944118</v>
       </c>
       <c r="KI2">
-        <v>15.229926012967683</v>
+        <v>18.965138318947258</v>
       </c>
       <c r="KJ2">
-        <v>15.228084046750878</v>
+        <v>18.963232964496267</v>
       </c>
       <c r="KK2">
-        <v>15.22775356117482</v>
+        <v>18.961343486193442</v>
       </c>
       <c r="KL2">
-        <v>15.229932691781652</v>
+        <v>18.959469751752582</v>
       </c>
       <c r="KM2">
-        <v>15.22790472227482</v>
+        <v>18.957611629989763</v>
       </c>
       <c r="KN2">
-        <v>15.227853564052367</v>
+        <v>18.955768990814132</v>
       </c>
       <c r="KO2">
-        <v>15.229900225742192</v>
+        <v>18.953941705218796</v>
       </c>
       <c r="KP2">
-        <v>15.227704288856163</v>
+        <v>18.9521296452718</v>
       </c>
       <c r="KQ2">
-        <v>15.22789000958239</v>
+        <v>18.950332684107178</v>
       </c>
       <c r="KR2">
-        <v>15.229996544287122</v>
+        <v>18.948550695916055</v>
       </c>
       <c r="KS2">
-        <v>15.227762634257557</v>
+        <v>18.946783555937827</v>
       </c>
       <c r="KT2">
-        <v>15.227905662789883</v>
+        <v>18.945031140451473</v>
       </c>
       <c r="KU2">
-        <v>15.229968755429335</v>
+        <v>18.943293326766828</v>
       </c>
       <c r="KV2">
-        <v>15.227693050774121</v>
+        <v>18.941569993216063</v>
       </c>
       <c r="KW2">
-        <v>15.227800125828084</v>
+        <v>18.939861019145123</v>
       </c>
       <c r="KX2">
-        <v>15.230027042277586</v>
+        <v>18.938166284905265</v>
       </c>
       <c r="KY2">
-        <v>15.227834813664622</v>
+        <v>18.936485671844736</v>
       </c>
       <c r="KZ2">
-        <v>15.227713080463001</v>
+        <v>18.934819062300431</v>
       </c>
       <c r="LA2">
-        <v>15.22997025309536</v>
+        <v>18.933166339589633</v>
       </c>
       <c r="LB2">
-        <v>15.227865150358125</v>
+        <v>18.931527388001903</v>
       </c>
       <c r="LC2">
-        <v>15.227617333282534</v>
+        <v>18.929902092790925</v>
       </c>
       <c r="LD2">
-        <v>15.230008406396243</v>
+        <v>18.928290340166509</v>
       </c>
       <c r="LE2">
-        <v>15.228036748969851</v>
+        <v>18.926692017286598</v>
       </c>
       <c r="LF2">
-        <v>15.227404014775077</v>
+        <v>18.925107012249377</v>
       </c>
       <c r="LG2">
-        <v>15.229930785927602</v>
+        <v>18.923535214085451</v>
       </c>
       <c r="LH2">
-        <v>15.228430482535716</v>
+        <v>18.921976512750039</v>
       </c>
       <c r="LI2">
-        <v>15.227297485174937</v>
+        <v>18.92043079911533</v>
       </c>
       <c r="LJ2">
-        <v>15.229759543574007</v>
+        <v>18.918897964962799</v>
       </c>
       <c r="LK2">
-        <v>15.228847575837197</v>
+        <v>18.917377902975623</v>
       </c>
       <c r="LL2">
-        <v>15.227221300107972</v>
+        <v>18.915870506731196</v>
       </c>
       <c r="LM2">
-        <v>15.229485552954156</v>
+        <v>18.914375670693666</v>
       </c>
       <c r="LN2">
-        <v>15.229201471521442</v>
+        <v>18.91289329020654</v>
       </c>
       <c r="LO2">
-        <v>15.227230285950588</v>
+        <v>18.911423261485368</v>
       </c>
       <c r="LP2">
-        <v>15.229231097369166</v>
+        <v>18.909965481610481</v>
       </c>
       <c r="LQ2">
-        <v>15.229371371837129</v>
+        <v>18.908519848519756</v>
       </c>
       <c r="LR2">
-        <v>15.227281683806115</v>
+        <v>18.90708626100152</v>
       </c>
       <c r="LS2">
-        <v>15.229122757947856</v>
+        <v>18.9056646186874</v>
       </c>
       <c r="LT2">
-        <v>15.229476856113736</v>
+        <v>18.904254822045349</v>
       </c>
       <c r="LU2">
-        <v>15.227272507655943</v>
+        <v>18.902856772372669</v>
       </c>
       <c r="LV2">
-        <v>15.228950019470476</v>
+        <v>18.90147037178907</v>
       </c>
       <c r="LW2">
-        <v>15.229558364499409</v>
+        <v>18.900095523229851</v>
       </c>
       <c r="LX2">
-        <v>15.227308782443385</v>
+        <v>18.898732130439097</v>
       </c>
       <c r="LY2">
-        <v>15.228863692314455</v>
+        <v>18.897380097962916</v>
       </c>
       <c r="LZ2">
-        <v>15.229577228918613</v>
+        <v>18.896039331142799</v>
       </c>
       <c r="MA2">
-        <v>15.227305409608327</v>
+        <v>18.894709736108933</v>
       </c>
       <c r="MB2">
-        <v>15.228799076729413</v>
+        <v>18.893391219773715</v>
       </c>
       <c r="MC2">
-        <v>15.229606145922428</v>
+        <v>18.892083689825132</v>
       </c>
       <c r="MD2">
-        <v>15.227354218610083</v>
+        <v>18.890787054720384</v>
       </c>
       <c r="ME2">
-        <v>15.228840826867811</v>
+        <v>18.889501223679428</v>
       </c>
       <c r="MF2">
-        <v>15.229562881564149</v>
+        <v>18.888226106678633</v>
       </c>
       <c r="MG2">
-        <v>15.227358478182119</v>
+        <v>18.886961614444498</v>
       </c>
       <c r="MH2">
-        <v>15.228933453672479</v>
+        <v>18.885707658447345</v>
       </c>
       <c r="MI2">
-        <v>15.229444179549095</v>
+        <v>18.884464150895205</v>
       </c>
       <c r="MJ2">
-        <v>15.227363609051029</v>
+        <v>18.883231004727598</v>
       </c>
       <c r="MK2">
-        <v>15.229131426007424</v>
+        <v>18.882008133609467</v>
       </c>
       <c r="ML2">
-        <v>15.229347527927564</v>
+        <v>18.880795451925142</v>
       </c>
       <c r="MM2">
-        <v>15.227360411128798</v>
+        <v>18.879592874772328</v>
       </c>
       <c r="MN2">
-        <v>15.229264914737898</v>
+        <v>18.878400317956178</v>
       </c>
       <c r="MO2">
-        <v>15.229252012768466</v>
+        <v>18.877217697983376</v>
       </c>
       <c r="MP2">
-        <v>15.227326041471386</v>
+        <v>18.876044932056306</v>
       </c>
       <c r="MQ2">
-        <v>15.229308772903426</v>
+        <v>18.874881938067269</v>
       </c>
       <c r="MR2">
-        <v>15.229181408539143</v>
+        <v>18.873728634592698</v>
       </c>
       <c r="MS2">
-        <v>15.227427181586089</v>
+        <v>18.872584940887496</v>
       </c>
       <c r="MT2">
-        <v>15.229494858442155</v>
+        <v>18.871450776879367</v>
       </c>
       <c r="MU2">
-        <v>15.228895516895783</v>
+        <v>18.870326063163187</v>
       </c>
       <c r="MV2">
-        <v>15.227413746643077</v>
+        <v>18.869210720995472</v>
       </c>
       <c r="MW2">
-        <v>15.22962333701083</v>
+        <v>18.868104672288865</v>
       </c>
       <c r="MX2">
-        <v>15.228671024604141</v>
+        <v>18.867007839606689</v>
       </c>
       <c r="MY2">
-        <v>15.227491804552953</v>
+        <v>18.86592014615746</v>
       </c>
       <c r="MZ2">
-        <v>15.229749431684196</v>
+        <v>18.864841515789561</v>
       </c>
       <c r="NA2">
-        <v>15.22840096555764</v>
+        <v>18.863771872985893</v>
       </c>
       <c r="NB2">
-        <v>15.22758405168452</v>
+        <v>18.862711142858615</v>
       </c>
       <c r="NC2">
-        <v>15.229848692938166</v>
+        <v>18.861659251143866</v>
       </c>
       <c r="ND2">
-        <v>15.228160930595566</v>
+        <v>18.8606161241966</v>
       </c>
       <c r="NE2">
-        <v>15.227712133753812</v>
+        <v>18.859581688985376</v>
       </c>
       <c r="NF2">
-        <v>15.229898310779308</v>
+        <v>18.858555873087305</v>
       </c>
       <c r="NG2">
-        <v>15.227930678102185</v>
+        <v>18.85753860468294</v>
       </c>
       <c r="NH2">
-        <v>15.227845118581749</v>
+        <v>18.856529812551269</v>
       </c>
       <c r="NI2">
-        <v>15.229929698460088</v>
+        <v>18.855529426064724</v>
       </c>
       <c r="NJ2">
-        <v>15.22779978889124</v>
+        <v>18.854537375184226</v>
       </c>
       <c r="NK2">
-        <v>15.228025858344644</v>
+        <v>18.85355359045429</v>
       </c>
       <c r="NL2">
-        <v>15.229873542134783</v>
+        <v>18.85257800299815</v>
       </c>
       <c r="NM2">
-        <v>15.22765565058805</v>
+        <v>18.851610544512972</v>
       </c>
       <c r="NN2">
-        <v>15.228307254936901</v>
+        <v>18.850651147265037</v>
       </c>
       <c r="NO2">
-        <v>15.229758309726531</v>
+        <v>18.849699744084994</v>
       </c>
       <c r="NP2">
-        <v>15.227514397773392</v>
+        <v>18.848756268363193</v>
       </c>
       <c r="NQ2">
-        <v>15.228630475292348</v>
+        <v>18.847820654044988</v>
       </c>
       <c r="NR2">
-        <v>15.229708894961842</v>
+        <v>18.846892835626146</v>
       </c>
       <c r="NS2">
-        <v>15.227396618712795</v>
+        <v>18.845972748148224</v>
       </c>
       <c r="NT2">
-        <v>15.228678640540679</v>
+        <v>18.845060327194027</v>
       </c>
       <c r="NU2">
-        <v>15.229672169756427</v>
+        <v>18.844155508883141</v>
       </c>
       <c r="NV2">
-        <v>15.2274290436252</v>
+        <v>18.843258229867395</v>
       </c>
       <c r="NW2">
-        <v>15.228850954243109</v>
+        <v>18.842368427326488</v>
       </c>
       <c r="NX2">
-        <v>15.229512833922684</v>
+        <v>18.841486038963531</v>
       </c>
       <c r="NY2">
-        <v>15.227381694687505</v>
+        <v>18.840611003000749</v>
       </c>
       <c r="NZ2">
-        <v>15.229058423070086</v>
+        <v>18.839743258175094</v>
       </c>
       <c r="OA2">
-        <v>15.229383406236744</v>
+        <v>18.838882743734011</v>
       </c>
       <c r="OB2">
-        <v>15.227436435371979</v>
+        <v>18.838029399431139</v>
       </c>
       <c r="OC2">
-        <v>15.229327414097458</v>
+        <v>18.837183165522124</v>
       </c>
       <c r="OD2">
-        <v>15.229028971734268</v>
+        <v>18.836343982760418</v>
       </c>
       <c r="OE2">
-        <v>15.227445788817613</v>
+        <v>18.835511792393152</v>
       </c>
       <c r="OF2">
-        <v>15.229577275586832</v>
+        <v>18.834686536156983</v>
       </c>
       <c r="OG2">
-        <v>15.228644407579374</v>
+        <v>18.833868156274072</v>
       </c>
       <c r="OH2">
-        <v>15.227562663876936</v>
+        <v>18.833056595447992</v>
       </c>
       <c r="OI2">
-        <v>15.229764055013852</v>
+        <v>18.832251796859726</v>
       </c>
       <c r="OJ2">
-        <v>15.22820828924983</v>
+        <v>18.8314537041637</v>
       </c>
       <c r="OK2">
-        <v>15.227653385251076</v>
+        <v>18.830662261483823</v>
       </c>
     </row>
   </sheetData>

--- a/model/Single Motor/pos.xlsx
+++ b/model/Single Motor/pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22514D-5598-45B0-89F2-563B39AC76A9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCAE5B2-CAAE-48E2-BB24-94EF8CD42A60}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{EE367AE8-C5DF-4C87-AD96-5308D999D090}"/>
   </bookViews>
@@ -1595,1198 +1595,1198 @@
         <v>0.54755657668291668</v>
       </c>
       <c r="D2">
-        <v>1.2031574158426803</v>
+        <v>1.2031613203231033</v>
       </c>
       <c r="E2">
-        <v>2.079023658675466</v>
+        <v>2.0790879996232681</v>
       </c>
       <c r="F2">
-        <v>3.0478151704008507</v>
+        <v>3.0502014772516453</v>
       </c>
       <c r="G2">
-        <v>4.0085343375978706</v>
+        <v>4.0132232628361981</v>
       </c>
       <c r="H2">
-        <v>4.9612484221545587</v>
+        <v>4.9682207794759226</v>
       </c>
       <c r="I2">
-        <v>5.906024125506951</v>
+        <v>5.9152608884745339</v>
       </c>
       <c r="J2">
-        <v>6.8429275933089952</v>
+        <v>6.8544098940215887</v>
       </c>
       <c r="K2">
-        <v>7.7720244200635253</v>
+        <v>7.7857335478345622</v>
       </c>
       <c r="L2">
-        <v>8.6933796537146932</v>
+        <v>8.709297053762258</v>
       </c>
       <c r="M2">
-        <v>9.6070578002020852</v>
+        <v>9.6251650723498692</v>
       </c>
       <c r="N2">
-        <v>10.51312282797692</v>
+        <v>10.53340172536597</v>
       </c>
       <c r="O2">
-        <v>11.41163817248062</v>
+        <v>11.434070600291843</v>
       </c>
       <c r="P2">
-        <v>12.302666740586027</v>
+        <v>12.327234754773361</v>
       </c>
       <c r="Q2">
-        <v>13.18627091500165</v>
+        <v>13.212956721035747</v>
       </c>
       <c r="R2">
-        <v>14.062512558639234</v>
+        <v>14.091298510261607</v>
       </c>
       <c r="S2">
-        <v>14.931453018944879</v>
+        <v>14.962321616932483</v>
       </c>
       <c r="T2">
-        <v>15.793153132194091</v>
+        <v>15.806478505746362</v>
       </c>
       <c r="U2">
-        <v>16.647673227751078</v>
+        <v>16.341076123393663</v>
       </c>
       <c r="V2">
-        <v>17.49507313229249</v>
+        <v>16.476044098012281</v>
       </c>
       <c r="W2">
-        <v>18.335412173996062</v>
+        <v>16.215168576037172</v>
       </c>
       <c r="X2">
-        <v>19.168749186694257</v>
+        <v>15.574614184617886</v>
       </c>
       <c r="Y2">
-        <v>19.925286186331739</v>
+        <v>14.85674568850061</v>
       </c>
       <c r="Z2">
-        <v>20.46417766953844</v>
+        <v>14.395726156288747</v>
       </c>
       <c r="AA2">
-        <v>20.777493045605212</v>
+        <v>14.17271768872331</v>
       </c>
       <c r="AB2">
-        <v>20.871573581299288</v>
+        <v>14.169409882066265</v>
       </c>
       <c r="AC2">
-        <v>20.853932335004647</v>
+        <v>14.290650079582507</v>
       </c>
       <c r="AD2">
-        <v>20.836288820335895</v>
+        <v>14.412079255054902</v>
       </c>
       <c r="AE2">
-        <v>20.818792318235833</v>
+        <v>14.53249663580336</v>
       </c>
       <c r="AF2">
-        <v>20.801441603739075</v>
+        <v>14.651910652492024</v>
       </c>
       <c r="AG2">
-        <v>20.784235462086947</v>
+        <v>14.770329665537414</v>
       </c>
       <c r="AH2">
-        <v>20.767172688642741</v>
+        <v>14.887761965693675</v>
       </c>
       <c r="AI2">
-        <v>20.750252088806899</v>
+        <v>15.004215774633453</v>
       </c>
       <c r="AJ2">
-        <v>20.733472477934033</v>
+        <v>15.122178645481096</v>
       </c>
       <c r="AK2">
-        <v>20.716832681249901</v>
+        <v>15.239792538348492</v>
       </c>
       <c r="AL2">
-        <v>20.700331533768786</v>
+        <v>15.356426426898812</v>
       </c>
       <c r="AM2">
-        <v>20.683967880212137</v>
+        <v>15.472120688738702</v>
       </c>
       <c r="AN2">
-        <v>20.66774057492761</v>
+        <v>15.560733497780289</v>
       </c>
       <c r="AO2">
-        <v>20.65164848180876</v>
+        <v>15.503910938916563</v>
       </c>
       <c r="AP2">
-        <v>20.635690474215615</v>
+        <v>15.555761800982017</v>
       </c>
       <c r="AQ2">
-        <v>20.6198654348959</v>
+        <v>15.505048746424592</v>
       </c>
       <c r="AR2">
-        <v>20.60417225590675</v>
+        <v>15.54900039106233</v>
       </c>
       <c r="AS2">
-        <v>20.588609838536684</v>
+        <v>15.510219653905091</v>
       </c>
       <c r="AT2">
-        <v>20.573177093229415</v>
+        <v>15.538351722304499</v>
       </c>
       <c r="AU2">
-        <v>20.557872939507522</v>
+        <v>15.517934355500188</v>
       </c>
       <c r="AV2">
-        <v>20.542696305897081</v>
+        <v>15.527419164273253</v>
       </c>
       <c r="AW2">
-        <v>20.527646129851345</v>
+        <v>15.524097000880506</v>
       </c>
       <c r="AX2">
-        <v>20.512721357677108</v>
+        <v>15.519959458598846</v>
       </c>
       <c r="AY2">
-        <v>20.497920944460972</v>
+        <v>15.533952202294042</v>
       </c>
       <c r="AZ2">
-        <v>20.483243853996107</v>
+        <v>15.512526359337683</v>
       </c>
       <c r="BA2">
-        <v>20.468689058709803</v>
+        <v>15.547686965818359</v>
       </c>
       <c r="BB2">
-        <v>20.454255539591447</v>
+        <v>15.505602929816883</v>
       </c>
       <c r="BC2">
-        <v>20.439942286121244</v>
+        <v>15.556425063039306</v>
       </c>
       <c r="BD2">
-        <v>20.425748296199419</v>
+        <v>15.50211299081146</v>
       </c>
       <c r="BE2">
-        <v>20.4116725760761</v>
+        <v>15.561662801140665</v>
       </c>
       <c r="BF2">
-        <v>20.397714140281703</v>
+        <v>15.499928213118837</v>
       </c>
       <c r="BG2">
-        <v>20.383872011557983</v>
+        <v>15.563762298658167</v>
       </c>
       <c r="BH2">
-        <v>20.370145220789542</v>
+        <v>15.498140021455253</v>
       </c>
       <c r="BI2">
-        <v>20.356532806936066</v>
+        <v>15.562496118594838</v>
       </c>
       <c r="BJ2">
-        <v>20.343033816964976</v>
+        <v>15.500677094662713</v>
       </c>
       <c r="BK2">
-        <v>20.329647305784732</v>
+        <v>15.559290478120683</v>
       </c>
       <c r="BL2">
-        <v>20.316372336178699</v>
+        <v>15.504160196048121</v>
       </c>
       <c r="BM2">
-        <v>20.30320797873943</v>
+        <v>15.552885710331756</v>
       </c>
       <c r="BN2">
-        <v>20.290153311803696</v>
+        <v>15.507737878851412</v>
       </c>
       <c r="BO2">
-        <v>20.277207421387914</v>
+        <v>15.543805376863579</v>
       </c>
       <c r="BP2">
-        <v>20.264369401124171</v>
+        <v>15.513799460633317</v>
       </c>
       <c r="BQ2">
-        <v>20.25163835219676</v>
+        <v>15.532581096293216</v>
       </c>
       <c r="BR2">
-        <v>20.239013383279246</v>
+        <v>15.521350869563889</v>
       </c>
       <c r="BS2">
-        <v>20.226493610472058</v>
+        <v>15.522820009621764</v>
       </c>
       <c r="BT2">
-        <v>20.21407815724065</v>
+        <v>15.530517615427463</v>
       </c>
       <c r="BU2">
-        <v>20.201766154354072</v>
+        <v>15.514841526791191</v>
       </c>
       <c r="BV2">
-        <v>20.189556739824159</v>
+        <v>15.540884440527174</v>
       </c>
       <c r="BW2">
-        <v>20.177449058845152</v>
+        <v>15.50877852572274</v>
       </c>
       <c r="BX2">
-        <v>20.165442263733866</v>
+        <v>15.553181567021896</v>
       </c>
       <c r="BY2">
-        <v>20.153535513870334</v>
+        <v>15.503433508655943</v>
       </c>
       <c r="BZ2">
-        <v>20.141727975638986</v>
+        <v>15.560843632740804</v>
       </c>
       <c r="CA2">
-        <v>20.130018822370218</v>
+        <v>15.49913076914078</v>
       </c>
       <c r="CB2">
-        <v>20.118407234282579</v>
+        <v>15.561437033834043</v>
       </c>
       <c r="CC2">
-        <v>20.106892398425352</v>
+        <v>15.500693152774291</v>
       </c>
       <c r="CD2">
-        <v>20.095473508621644</v>
+        <v>15.562115991957882</v>
       </c>
       <c r="CE2">
-        <v>20.084149765411922</v>
+        <v>15.501780819287431</v>
       </c>
       <c r="CF2">
-        <v>20.072920375998073</v>
+        <v>15.558580201609537</v>
       </c>
       <c r="CG2">
-        <v>20.061784554187888</v>
+        <v>15.505081154354011</v>
       </c>
       <c r="CH2">
-        <v>20.050741520339994</v>
+        <v>15.549981313774616</v>
       </c>
       <c r="CI2">
-        <v>20.039790501309295</v>
+        <v>15.511852092838106</v>
       </c>
       <c r="CJ2">
-        <v>20.028930730392858</v>
+        <v>15.536495158811446</v>
       </c>
       <c r="CK2">
-        <v>20.018161447276196</v>
+        <v>15.519362782034774</v>
       </c>
       <c r="CL2">
-        <v>20.007481897980057</v>
+        <v>15.524810287511473</v>
       </c>
       <c r="CM2">
-        <v>19.996891334807643</v>
+        <v>15.529938564034508</v>
       </c>
       <c r="CN2">
-        <v>19.98638901629225</v>
+        <v>15.515409788849599</v>
       </c>
       <c r="CO2">
-        <v>19.975974207145356</v>
+        <v>15.538818356164128</v>
       </c>
       <c r="CP2">
-        <v>19.965646178205155</v>
+        <v>15.509758123215233</v>
       </c>
       <c r="CQ2">
-        <v>19.955404206385492</v>
+        <v>15.542515018560929</v>
       </c>
       <c r="CR2">
-        <v>19.945247574625256</v>
+        <v>15.507817487014815</v>
       </c>
       <c r="CS2">
-        <v>19.935175571838155</v>
+        <v>15.55139174794701</v>
       </c>
       <c r="CT2">
-        <v>19.925187492862943</v>
+        <v>15.504225095427779</v>
       </c>
       <c r="CU2">
-        <v>19.915282638414048</v>
+        <v>15.55926790838609</v>
       </c>
       <c r="CV2">
-        <v>19.905460315032617</v>
+        <v>15.501235993504926</v>
       </c>
       <c r="CW2">
-        <v>19.895719835037966</v>
+        <v>15.561960474550142</v>
       </c>
       <c r="CX2">
-        <v>19.886060516479443</v>
+        <v>15.501589600695397</v>
       </c>
       <c r="CY2">
-        <v>19.876481683088631</v>
+        <v>15.560627504267401</v>
       </c>
       <c r="CZ2">
-        <v>19.866982664232093</v>
+        <v>15.503259458534755</v>
       </c>
       <c r="DA2">
-        <v>19.857562794864347</v>
+        <v>15.554081383689022</v>
       </c>
       <c r="DB2">
-        <v>19.848221415481312</v>
+        <v>15.509080330634889</v>
       </c>
       <c r="DC2">
-        <v>19.838957872074165</v>
+        <v>15.542212968762412</v>
       </c>
       <c r="DD2">
-        <v>19.829771516083543</v>
+        <v>15.515687566065013</v>
       </c>
       <c r="DE2">
-        <v>19.820661704354112</v>
+        <v>15.530514000736265</v>
       </c>
       <c r="DF2">
-        <v>19.811627799089568</v>
+        <v>15.521702178834072</v>
       </c>
       <c r="DG2">
-        <v>19.802669167807977</v>
+        <v>15.521623841346457</v>
       </c>
       <c r="DH2">
-        <v>19.793785183297462</v>
+        <v>15.536213144470766</v>
       </c>
       <c r="DI2">
-        <v>19.784975223572353</v>
+        <v>15.511215857588395</v>
       </c>
       <c r="DJ2">
-        <v>19.776238671829567</v>
+        <v>15.549176190237624</v>
       </c>
       <c r="DK2">
-        <v>19.767574916405515</v>
+        <v>15.504933379362827</v>
       </c>
       <c r="DL2">
-        <v>19.758983350733175</v>
+        <v>15.557505120276925</v>
       </c>
       <c r="DM2">
-        <v>19.750463373299684</v>
+        <v>15.500774525034158</v>
       </c>
       <c r="DN2">
-        <v>19.74201438760424</v>
+        <v>15.559869343972903</v>
       </c>
       <c r="DO2">
-        <v>19.733635802116297</v>
+        <v>15.501065745650141</v>
       </c>
       <c r="DP2">
-        <v>19.725327030234165</v>
+        <v>15.562254272619441</v>
       </c>
       <c r="DQ2">
-        <v>19.717087490243962</v>
+        <v>15.501219502172072</v>
       </c>
       <c r="DR2">
-        <v>19.708916605278873</v>
+        <v>15.560538138251081</v>
       </c>
       <c r="DS2">
-        <v>19.700813803278727</v>
+        <v>15.503327037941879</v>
       </c>
       <c r="DT2">
-        <v>19.692778516950014</v>
+        <v>15.554182585725776</v>
       </c>
       <c r="DU2">
-        <v>19.684810183726107</v>
+        <v>15.508518470446541</v>
       </c>
       <c r="DV2">
-        <v>19.676908245727926</v>
+        <v>15.542841719279439</v>
       </c>
       <c r="DW2">
-        <v>19.66907214972484</v>
+        <v>15.515617285119893</v>
       </c>
       <c r="DX2">
-        <v>19.661301347095961</v>
+        <v>15.530681043291509</v>
       </c>
       <c r="DY2">
-        <v>19.6535952937917</v>
+        <v>15.521677865102617</v>
       </c>
       <c r="DZ2">
-        <v>19.645953450295718</v>
+        <v>15.521638759960256</v>
       </c>
       <c r="EA2">
-        <v>19.638375281587127</v>
+        <v>15.536288058269639</v>
       </c>
       <c r="EB2">
-        <v>19.630860257103013</v>
+        <v>15.511173039166367</v>
       </c>
       <c r="EC2">
-        <v>19.62340785070138</v>
+        <v>15.549215682359963</v>
       </c>
       <c r="ED2">
-        <v>19.616017540624203</v>
+        <v>15.504870726618819</v>
       </c>
       <c r="EE2">
-        <v>19.608688809460958</v>
+        <v>15.557219667558364</v>
       </c>
       <c r="EF2">
-        <v>19.601421144112376</v>
+        <v>15.500952733258167</v>
       </c>
       <c r="EG2">
-        <v>19.594214035754526</v>
+        <v>15.560102487345949</v>
       </c>
       <c r="EH2">
-        <v>19.587066979803222</v>
+        <v>15.500730467857283</v>
       </c>
       <c r="EI2">
-        <v>19.579979475878645</v>
+        <v>15.563373369580479</v>
       </c>
       <c r="EJ2">
-        <v>19.572951027770348</v>
+        <v>15.498603742502249</v>
       </c>
       <c r="EK2">
-        <v>19.565981143402492</v>
+        <v>15.562667851354618</v>
       </c>
       <c r="EL2">
-        <v>19.5590693347994</v>
+        <v>15.500474468350303</v>
       </c>
       <c r="EM2">
-        <v>19.552215118051397</v>
+        <v>15.559212976608741</v>
       </c>
       <c r="EN2">
-        <v>19.545418013280937</v>
+        <v>15.505235320068715</v>
       </c>
       <c r="EO2">
-        <v>19.538677544608998</v>
+        <v>15.551898636711483</v>
       </c>
       <c r="EP2">
-        <v>19.531993240121761</v>
+        <v>15.508385557408429</v>
       </c>
       <c r="EQ2">
-        <v>19.525364631837576</v>
+        <v>15.543318846504413</v>
       </c>
       <c r="ER2">
-        <v>19.518791255674202</v>
+        <v>15.51302603347848</v>
       </c>
       <c r="ES2">
-        <v>19.5122726514163</v>
+        <v>15.533454891416952</v>
       </c>
       <c r="ET2">
-        <v>19.505808362683236</v>
+        <v>15.520564063435542</v>
       </c>
       <c r="EU2">
-        <v>19.499397936897104</v>
+        <v>15.523512398533192</v>
       </c>
       <c r="EV2">
-        <v>19.493040925251051</v>
+        <v>15.530413634869491</v>
       </c>
       <c r="EW2">
-        <v>19.48673688267786</v>
+        <v>15.514944138428081</v>
       </c>
       <c r="EX2">
-        <v>19.480485367818801</v>
+        <v>15.540533593827446</v>
       </c>
       <c r="EY2">
-        <v>19.47428594299269</v>
+        <v>15.508908224844266</v>
       </c>
       <c r="EZ2">
-        <v>19.468138174165279</v>
+        <v>15.552211883430122</v>
       </c>
       <c r="FA2">
-        <v>19.462041630918868</v>
+        <v>15.503736743817026</v>
       </c>
       <c r="FB2">
-        <v>19.455995886422151</v>
+        <v>15.559237855090887</v>
       </c>
       <c r="FC2">
-        <v>19.45000051740038</v>
+        <v>15.501112780169288</v>
       </c>
       <c r="FD2">
-        <v>19.44405510410564</v>
+        <v>15.562858192413353</v>
       </c>
       <c r="FE2">
-        <v>19.43815923028755</v>
+        <v>15.499312702717704</v>
       </c>
       <c r="FF2">
-        <v>19.4323124831641</v>
+        <v>15.562411382083551</v>
       </c>
       <c r="FG2">
-        <v>19.426514453392702</v>
+        <v>15.501027851261165</v>
       </c>
       <c r="FH2">
-        <v>19.420764735041605</v>
+        <v>15.558827800126274</v>
       </c>
       <c r="FI2">
-        <v>19.415062925561418</v>
+        <v>15.50527103621223</v>
       </c>
       <c r="FJ2">
-        <v>19.409408625756942</v>
+        <v>15.55244034204493</v>
       </c>
       <c r="FK2">
-        <v>19.403801439759242</v>
+        <v>15.506353199893905</v>
       </c>
       <c r="FL2">
-        <v>19.398240974997911</v>
+        <v>15.545972701290687</v>
       </c>
       <c r="FM2">
-        <v>19.392726842173584</v>
+        <v>15.511372416779382</v>
       </c>
       <c r="FN2">
-        <v>19.387258655230688</v>
+        <v>15.536240447090265</v>
       </c>
       <c r="FO2">
-        <v>19.381836031330419</v>
+        <v>15.51851294891501</v>
       </c>
       <c r="FP2">
-        <v>19.37645859082394</v>
+        <v>15.524985221811905</v>
       </c>
       <c r="FQ2">
-        <v>19.371125957225782</v>
+        <v>15.532757460986593</v>
       </c>
       <c r="FR2">
-        <v>19.365837757187506</v>
+        <v>15.51336582916904</v>
       </c>
       <c r="FS2">
-        <v>19.360593620471551</v>
+        <v>15.543470545018668</v>
       </c>
       <c r="FT2">
-        <v>19.355393179925322</v>
+        <v>15.507375131446903</v>
       </c>
       <c r="FU2">
-        <v>19.35023607145548</v>
+        <v>15.552725385221018</v>
       </c>
       <c r="FV2">
-        <v>19.345121934002446</v>
+        <v>15.503245094569127</v>
       </c>
       <c r="FW2">
-        <v>19.34005040951514</v>
+        <v>15.558455270699831</v>
       </c>
       <c r="FX2">
-        <v>19.3350211429259</v>
+        <v>15.501428427410856</v>
       </c>
       <c r="FY2">
-        <v>19.330033782125618</v>
+        <v>15.562310086921906</v>
       </c>
       <c r="FZ2">
-        <v>19.325087977939084</v>
+        <v>15.50016964853716</v>
       </c>
       <c r="GA2">
-        <v>19.320183384100588</v>
+        <v>15.562609768016939</v>
       </c>
       <c r="GB2">
-        <v>19.315319657229605</v>
+        <v>15.500416543881441</v>
       </c>
       <c r="GC2">
-        <v>19.310496456806792</v>
+        <v>15.559407876619337</v>
       </c>
       <c r="GD2">
-        <v>19.305713445150161</v>
+        <v>15.50423113969984</v>
       </c>
       <c r="GE2">
-        <v>19.300970287391408</v>
+        <v>15.552733165512372</v>
       </c>
       <c r="GF2">
-        <v>19.296266651452495</v>
+        <v>15.508226001983086</v>
       </c>
       <c r="GG2">
-        <v>19.291602208022361</v>
+        <v>15.54330826668372</v>
       </c>
       <c r="GH2">
-        <v>19.286976630533921</v>
+        <v>15.513710007393975</v>
       </c>
       <c r="GI2">
-        <v>19.282389595141151</v>
+        <v>15.532724235592823</v>
       </c>
       <c r="GJ2">
-        <v>19.27784078069644</v>
+        <v>15.52087062486145</v>
       </c>
       <c r="GK2">
-        <v>19.273329868728116</v>
+        <v>15.523372942851799</v>
       </c>
       <c r="GL2">
-        <v>19.26885654341811</v>
+        <v>15.529494739969691</v>
       </c>
       <c r="GM2">
-        <v>19.264420491579916</v>
+        <v>15.515543317943036</v>
       </c>
       <c r="GN2">
-        <v>19.260021402636575</v>
+        <v>15.540620092548984</v>
       </c>
       <c r="GO2">
-        <v>19.255658968598976</v>
+        <v>15.508743311277135</v>
       </c>
       <c r="GP2">
-        <v>19.251332884044334</v>
+        <v>15.542405143301034</v>
       </c>
       <c r="GQ2">
-        <v>19.247042846094725</v>
+        <v>15.507772349017454</v>
       </c>
       <c r="GR2">
-        <v>19.24278855439594</v>
+        <v>15.54867624961142</v>
       </c>
       <c r="GS2">
-        <v>19.238569711096424</v>
+        <v>15.504916469983963</v>
       </c>
       <c r="GT2">
-        <v>19.234386020826449</v>
+        <v>15.555116602878201</v>
       </c>
       <c r="GU2">
-        <v>19.230237190677403</v>
+        <v>15.502744606548145</v>
       </c>
       <c r="GV2">
-        <v>19.226122930181312</v>
+        <v>15.560956213053441</v>
       </c>
       <c r="GW2">
-        <v>19.222042951290508</v>
+        <v>15.500845730437126</v>
       </c>
       <c r="GX2">
-        <v>19.217996968357426</v>
+        <v>15.563828204506095</v>
       </c>
       <c r="GY2">
-        <v>19.213984698114633</v>
+        <v>15.498047537508985</v>
       </c>
       <c r="GZ2">
-        <v>19.210005859654991</v>
+        <v>15.561355909522241</v>
       </c>
       <c r="HA2">
-        <v>19.206060174411999</v>
+        <v>15.503138391857432</v>
       </c>
       <c r="HB2">
-        <v>19.202147366140249</v>
+        <v>15.556425257107996</v>
       </c>
       <c r="HC2">
-        <v>19.198267160896158</v>
+        <v>15.506322319661225</v>
       </c>
       <c r="HD2">
-        <v>19.194419287018722</v>
+        <v>15.548302094489978</v>
       </c>
       <c r="HE2">
-        <v>19.190603475110507</v>
+        <v>15.510222431170282</v>
       </c>
       <c r="HF2">
-        <v>19.186819458018835</v>
+        <v>15.538410032892186</v>
       </c>
       <c r="HG2">
-        <v>19.18306697081702</v>
+        <v>15.517264438290695</v>
       </c>
       <c r="HH2">
-        <v>19.179345750785867</v>
+        <v>15.527977789436363</v>
       </c>
       <c r="HI2">
-        <v>19.175655537395244</v>
+        <v>15.524144270175908</v>
       </c>
       <c r="HJ2">
-        <v>19.171996072285868</v>
+        <v>15.519683736386572</v>
       </c>
       <c r="HK2">
-        <v>19.16836709925121</v>
+        <v>15.536328708246083</v>
       </c>
       <c r="HL2">
-        <v>19.16476836421953</v>
+        <v>15.511138591013372</v>
       </c>
       <c r="HM2">
-        <v>19.161199615236125</v>
+        <v>15.547509527055666</v>
       </c>
       <c r="HN2">
-        <v>19.157660602445684</v>
+        <v>15.505863569611243</v>
       </c>
       <c r="HO2">
-        <v>19.154151078074758</v>
+        <v>15.557815621510152</v>
       </c>
       <c r="HP2">
-        <v>19.150670796414477</v>
+        <v>15.50098343972785</v>
       </c>
       <c r="HQ2">
-        <v>19.147219513803311</v>
+        <v>15.56123141570766</v>
       </c>
       <c r="HR2">
-        <v>19.143796988609985</v>
+        <v>15.500146132750814</v>
       </c>
       <c r="HS2">
-        <v>19.140402981216596</v>
+        <v>15.562782779773617</v>
       </c>
       <c r="HT2">
-        <v>19.137037254001847</v>
+        <v>15.500176660401964</v>
       </c>
       <c r="HU2">
-        <v>19.133699571324378</v>
+        <v>15.560939072341959</v>
       </c>
       <c r="HV2">
-        <v>19.130389699506289</v>
+        <v>15.503100587914147</v>
       </c>
       <c r="HW2">
-        <v>19.127107406816766</v>
+        <v>15.556380736942431</v>
       </c>
       <c r="HX2">
-        <v>19.123852463455869</v>
+        <v>15.504753679388433</v>
       </c>
       <c r="HY2">
-        <v>19.120624641538452</v>
+        <v>15.549587230309275</v>
       </c>
       <c r="HZ2">
-        <v>19.117423715078196</v>
+        <v>15.510119714519698</v>
       </c>
       <c r="IA2">
-        <v>19.114249459971766</v>
+        <v>15.53810127829742</v>
       </c>
       <c r="IB2">
-        <v>19.111101653983159</v>
+        <v>15.519339299942361</v>
       </c>
       <c r="IC2">
-        <v>19.107980076728133</v>
+        <v>15.524758858989522</v>
       </c>
       <c r="ID2">
-        <v>19.104884509658746</v>
+        <v>15.53118776542401</v>
       </c>
       <c r="IE2">
-        <v>19.101814736048116</v>
+        <v>15.514409789508486</v>
       </c>
       <c r="IF2">
-        <v>19.098770540975188</v>
+        <v>15.541769889735557</v>
       </c>
       <c r="IG2">
-        <v>19.09575171130972</v>
+        <v>15.508341364596076</v>
       </c>
       <c r="IH2">
-        <v>19.092758035697358</v>
+        <v>15.553761752201616</v>
       </c>
       <c r="II2">
-        <v>19.089789304544833</v>
+        <v>15.502998715393028</v>
       </c>
       <c r="IJ2">
-        <v>19.086845310005273</v>
+        <v>15.560559318890991</v>
       </c>
       <c r="IK2">
-        <v>19.083925845963684</v>
+        <v>15.499238693371673</v>
       </c>
       <c r="IL2">
-        <v>19.081030708022499</v>
+        <v>15.561453156116432</v>
       </c>
       <c r="IM2">
-        <v>19.078159693487262</v>
+        <v>15.500511761277574</v>
       </c>
       <c r="IN2">
-        <v>19.075312601352454</v>
+        <v>15.562261105498633</v>
       </c>
       <c r="IO2">
-        <v>19.072489232287403</v>
+        <v>15.501485476428266</v>
       </c>
       <c r="IP2">
-        <v>19.069689388622351</v>
+        <v>15.559102461685786</v>
       </c>
       <c r="IQ2">
-        <v>19.066912874334577</v>
+        <v>15.504680767824864</v>
       </c>
       <c r="IR2">
-        <v>19.064159495034712</v>
+        <v>15.552553906212298</v>
       </c>
       <c r="IS2">
-        <v>19.061429057953138</v>
+        <v>15.507426414946305</v>
       </c>
       <c r="IT2">
-        <v>19.058721371926424</v>
+        <v>15.544147274221512</v>
       </c>
       <c r="IU2">
-        <v>19.056036247384021</v>
+        <v>15.513390664591654</v>
       </c>
       <c r="IV2">
-        <v>19.053373496334924</v>
+        <v>15.533011808809734</v>
       </c>
       <c r="IW2">
-        <v>19.050732932354567</v>
+        <v>15.521372786703301</v>
       </c>
       <c r="IX2">
-        <v>19.048114370571714</v>
+        <v>15.522722997325852</v>
       </c>
       <c r="IY2">
-        <v>19.045517627655592</v>
+        <v>15.531223507128935</v>
       </c>
       <c r="IZ2">
-        <v>19.042942521802992</v>
+        <v>15.514379932786067</v>
       </c>
       <c r="JA2">
-        <v>19.040388872725547</v>
+        <v>15.54112260138854</v>
       </c>
       <c r="JB2">
-        <v>19.037856501637126</v>
+        <v>15.508651633920259</v>
       </c>
       <c r="JC2">
-        <v>19.03534523124133</v>
+        <v>15.553161676932868</v>
       </c>
       <c r="JD2">
-        <v>19.032854885719029</v>
+        <v>15.50346917482743</v>
       </c>
       <c r="JE2">
-        <v>19.030385290716133</v>
+        <v>15.560962212897486</v>
       </c>
       <c r="JF2">
-        <v>19.027936273331296</v>
+        <v>15.498998781385529</v>
       </c>
       <c r="JG2">
-        <v>19.025507662103866</v>
+        <v>15.561455059288338</v>
       </c>
       <c r="JH2">
-        <v>19.023099287001866</v>
+        <v>15.50051898517899</v>
       </c>
       <c r="JI2">
-        <v>19.020710979410104</v>
+        <v>15.562249166544573</v>
       </c>
       <c r="JJ2">
-        <v>19.018342572118346</v>
+        <v>15.501511504817612</v>
       </c>
       <c r="JK2">
-        <v>19.015993899309606</v>
+        <v>15.559147219557635</v>
       </c>
       <c r="JL2">
-        <v>19.013664796548579</v>
+        <v>15.504518454225394</v>
       </c>
       <c r="JM2">
-        <v>19.011355100770057</v>
+        <v>15.552688075821811</v>
       </c>
       <c r="JN2">
-        <v>19.00906465026759</v>
+        <v>15.507428708910361</v>
       </c>
       <c r="JO2">
-        <v>19.006793284682111</v>
+        <v>15.544138698824835</v>
       </c>
       <c r="JP2">
-        <v>19.004540844990743</v>
+        <v>15.513531668183131</v>
       </c>
       <c r="JQ2">
-        <v>19.002307173495627</v>
+        <v>15.532865768554801</v>
       </c>
       <c r="JR2">
-        <v>19.000092113812894</v>
+        <v>15.521419018354564</v>
       </c>
       <c r="JS2">
-        <v>18.99789551086177</v>
+        <v>15.522894378232543</v>
       </c>
       <c r="JT2">
-        <v>18.995717210853648</v>
+        <v>15.529897546895537</v>
       </c>
       <c r="JU2">
-        <v>18.993557061281333</v>
+        <v>15.515252796639396</v>
       </c>
       <c r="JV2">
-        <v>18.991414910908411</v>
+        <v>15.540721405313146</v>
       </c>
       <c r="JW2">
-        <v>18.989290609758591</v>
+        <v>15.508783278106183</v>
       </c>
       <c r="JX2">
-        <v>18.987184009105281</v>
+        <v>15.551672563551159</v>
       </c>
       <c r="JY2">
-        <v>18.985094961461098</v>
+        <v>15.504016988731486</v>
       </c>
       <c r="JZ2">
-        <v>18.983023320567607</v>
+        <v>15.559045506983621</v>
       </c>
       <c r="KA2">
-        <v>18.980968941385047</v>
+        <v>15.501382069952491</v>
       </c>
       <c r="KB2">
-        <v>18.978931680082194</v>
+        <v>15.561820197105916</v>
       </c>
       <c r="KC2">
-        <v>18.976911394026267</v>
+        <v>15.501895610548665</v>
       </c>
       <c r="KD2">
-        <v>18.974907941772965</v>
+        <v>15.560445670354323</v>
       </c>
       <c r="KE2">
-        <v>18.972921183056553</v>
+        <v>15.503371841762272</v>
       </c>
       <c r="KF2">
-        <v>18.970950978780031</v>
+        <v>15.557094975626049</v>
       </c>
       <c r="KG2">
-        <v>18.968997191005432</v>
+        <v>15.501720514766973</v>
       </c>
       <c r="KH2">
-        <v>18.967059682944118</v>
+        <v>15.553624650703917</v>
       </c>
       <c r="KI2">
-        <v>18.965138318947258</v>
+        <v>15.506653397214262</v>
       </c>
       <c r="KJ2">
-        <v>18.963232964496267</v>
+        <v>15.544550678326916</v>
       </c>
       <c r="KK2">
-        <v>18.961343486193442</v>
+        <v>15.515217937822301</v>
       </c>
       <c r="KL2">
-        <v>18.959469751752582</v>
+        <v>15.531005361910253</v>
       </c>
       <c r="KM2">
-        <v>18.957611629989763</v>
+        <v>15.522775253110122</v>
       </c>
       <c r="KN2">
-        <v>18.955768990814132</v>
+        <v>15.521951203382381</v>
       </c>
       <c r="KO2">
-        <v>18.953941705218796</v>
+        <v>15.529523374101046</v>
       </c>
       <c r="KP2">
-        <v>18.9521296452718</v>
+        <v>15.515488508535894</v>
       </c>
       <c r="KQ2">
-        <v>18.950332684107178</v>
+        <v>15.540467822163802</v>
       </c>
       <c r="KR2">
-        <v>18.948550695916055</v>
+        <v>15.508933482923041</v>
       </c>
       <c r="KS2">
-        <v>18.946783555937827</v>
+        <v>15.551925984090206</v>
       </c>
       <c r="KT2">
-        <v>18.945031140451473</v>
+        <v>15.503978267002388</v>
       </c>
       <c r="KU2">
-        <v>18.943293326766828</v>
+        <v>15.55955634637327</v>
       </c>
       <c r="KV2">
-        <v>18.941569993216063</v>
+        <v>15.500924552565618</v>
       </c>
       <c r="KW2">
-        <v>18.939861019145123</v>
+        <v>15.561859008354078</v>
       </c>
       <c r="KX2">
-        <v>18.938166284905265</v>
+        <v>15.501693132653916</v>
       </c>
       <c r="KY2">
-        <v>18.936485671844736</v>
+        <v>15.560811910950553</v>
       </c>
       <c r="KZ2">
-        <v>18.934819062300431</v>
+        <v>15.502904745056911</v>
       </c>
       <c r="LA2">
-        <v>18.933166339589633</v>
+        <v>15.557105145903483</v>
       </c>
       <c r="LB2">
-        <v>18.931527388001903</v>
+        <v>15.50321258142854</v>
       </c>
       <c r="LC2">
-        <v>18.929902092790925</v>
+        <v>15.551261088486896</v>
       </c>
       <c r="LD2">
-        <v>18.928290340166509</v>
+        <v>15.50979956229539</v>
       </c>
       <c r="LE2">
-        <v>18.926692017286598</v>
+        <v>15.539246740602659</v>
       </c>
       <c r="LF2">
-        <v>18.925107012249377</v>
+        <v>15.518523846781822</v>
       </c>
       <c r="LG2">
-        <v>18.923535214085451</v>
+        <v>15.526644179775273</v>
       </c>
       <c r="LH2">
-        <v>18.921976512750039</v>
+        <v>15.52575946949263</v>
       </c>
       <c r="LI2">
-        <v>18.92043079911533</v>
+        <v>15.518760449035289</v>
       </c>
       <c r="LJ2">
-        <v>18.918897964962799</v>
+        <v>15.533813667052618</v>
       </c>
       <c r="LK2">
-        <v>18.917377902975623</v>
+        <v>15.512620146594031</v>
       </c>
       <c r="LL2">
-        <v>18.915870506731196</v>
+        <v>15.546154350319796</v>
       </c>
       <c r="LM2">
-        <v>18.914375670693666</v>
+        <v>15.506082572248301</v>
       </c>
       <c r="LN2">
-        <v>18.91289329020654</v>
+        <v>15.553416562543738</v>
       </c>
       <c r="LO2">
-        <v>18.911423261485368</v>
+        <v>15.503713680734366</v>
       </c>
       <c r="LP2">
-        <v>18.909965481610481</v>
+        <v>15.560858950565594</v>
       </c>
       <c r="LQ2">
-        <v>18.908519848519756</v>
+        <v>15.500916540247051</v>
       </c>
       <c r="LR2">
-        <v>18.90708626100152</v>
+        <v>15.563642562467843</v>
       </c>
       <c r="LS2">
-        <v>18.9056646186874</v>
+        <v>15.498437624009423</v>
       </c>
       <c r="LT2">
-        <v>18.904254822045349</v>
+        <v>15.561389686156501</v>
       </c>
       <c r="LU2">
-        <v>18.902856772372669</v>
+        <v>15.502831734487833</v>
       </c>
       <c r="LV2">
-        <v>18.90147037178907</v>
+        <v>15.55636111618362</v>
       </c>
       <c r="LW2">
-        <v>18.900095523229851</v>
+        <v>15.506556018588192</v>
       </c>
       <c r="LX2">
-        <v>18.898732130439097</v>
+        <v>15.545508229833308</v>
       </c>
       <c r="LY2">
-        <v>18.897380097962916</v>
+        <v>15.516358554811255</v>
       </c>
       <c r="LZ2">
-        <v>18.896039331142799</v>
+        <v>15.530107584845737</v>
       </c>
       <c r="MA2">
-        <v>18.894709736108933</v>
+        <v>15.522969656698702</v>
       </c>
       <c r="MB2">
-        <v>18.893391219773715</v>
+        <v>15.520690701549452</v>
       </c>
       <c r="MC2">
-        <v>18.892083689825132</v>
+        <v>15.53590567863044</v>
       </c>
       <c r="MD2">
-        <v>18.890787054720384</v>
+        <v>15.511384353609699</v>
       </c>
       <c r="ME2">
-        <v>18.889501223679428</v>
+        <v>15.548027999347235</v>
       </c>
       <c r="MF2">
-        <v>18.888226106678633</v>
+        <v>15.505604598549636</v>
       </c>
       <c r="MG2">
-        <v>18.886961614444498</v>
+        <v>15.557898359847776</v>
       </c>
       <c r="MH2">
-        <v>18.885707658447345</v>
+        <v>15.500903249765786</v>
       </c>
       <c r="MI2">
-        <v>18.884464150895205</v>
+        <v>15.561200392334896</v>
       </c>
       <c r="MJ2">
-        <v>18.883231004727598</v>
+        <v>15.500125876166468</v>
       </c>
       <c r="MK2">
-        <v>18.882008133609467</v>
+        <v>15.562646764392227</v>
       </c>
       <c r="ML2">
-        <v>18.880795451925142</v>
+        <v>15.500450280344896</v>
       </c>
       <c r="MM2">
-        <v>18.879592874772328</v>
+        <v>15.560760936309434</v>
       </c>
       <c r="MN2">
-        <v>18.878400317956178</v>
+        <v>15.503332940109411</v>
       </c>
       <c r="MO2">
-        <v>18.877217697983376</v>
+        <v>15.556777404091083</v>
       </c>
       <c r="MP2">
-        <v>18.876044932056306</v>
+        <v>15.503495451130849</v>
       </c>
       <c r="MQ2">
-        <v>18.874881938067269</v>
+        <v>15.550851244265157</v>
       </c>
       <c r="MR2">
-        <v>18.873728634592698</v>
+        <v>15.509888016688844</v>
       </c>
       <c r="MS2">
-        <v>18.872584940887496</v>
+        <v>15.538991836496377</v>
       </c>
       <c r="MT2">
-        <v>18.871450776879367</v>
+        <v>15.518580397103479</v>
       </c>
       <c r="MU2">
-        <v>18.870326063163187</v>
+        <v>15.526413118458086</v>
       </c>
       <c r="MV2">
-        <v>18.869210720995472</v>
+        <v>15.526446299519781</v>
       </c>
       <c r="MW2">
-        <v>18.868104672288865</v>
+        <v>15.518158601273743</v>
       </c>
       <c r="MX2">
-        <v>18.867007839606689</v>
+        <v>15.534796933060068</v>
       </c>
       <c r="MY2">
-        <v>18.86592014615746</v>
+        <v>15.512031633845744</v>
       </c>
       <c r="MZ2">
-        <v>18.864841515789561</v>
+        <v>15.54870043819429</v>
       </c>
       <c r="NA2">
-        <v>18.863771872985893</v>
+        <v>15.505264662831609</v>
       </c>
       <c r="NB2">
-        <v>18.862711142858615</v>
+        <v>15.557758276780904</v>
       </c>
       <c r="NC2">
-        <v>18.861659251143866</v>
+        <v>15.5010600561511</v>
       </c>
       <c r="ND2">
-        <v>18.8606161241966</v>
+        <v>15.561242846988922</v>
       </c>
       <c r="NE2">
-        <v>18.859581688985376</v>
+        <v>15.500255951925478</v>
       </c>
       <c r="NF2">
-        <v>18.858555873087305</v>
+        <v>15.563140956660005</v>
       </c>
       <c r="NG2">
-        <v>18.85753860468294</v>
+        <v>15.499447765210464</v>
       </c>
       <c r="NH2">
-        <v>18.856529812551269</v>
+        <v>15.561161949980505</v>
       </c>
       <c r="NI2">
-        <v>18.855529426064724</v>
+        <v>15.503028016800652</v>
       </c>
       <c r="NJ2">
-        <v>18.854537375184226</v>
+        <v>15.555616288762407</v>
       </c>
       <c r="NK2">
-        <v>18.85355359045429</v>
+        <v>15.507320048022338</v>
       </c>
       <c r="NL2">
-        <v>18.85257800299815</v>
+        <v>15.54516221338613</v>
       </c>
       <c r="NM2">
-        <v>18.851610544512972</v>
+        <v>15.514507179544506</v>
       </c>
       <c r="NN2">
-        <v>18.850651147265037</v>
+        <v>15.531657187439905</v>
       </c>
       <c r="NO2">
-        <v>18.849699744084994</v>
+        <v>15.523113609737909</v>
       </c>
       <c r="NP2">
-        <v>18.848756268363193</v>
+        <v>15.521804693090219</v>
       </c>
       <c r="NQ2">
-        <v>18.847820654044988</v>
+        <v>15.52937241159594</v>
       </c>
       <c r="NR2">
-        <v>18.846892835626146</v>
+        <v>15.515534071593944</v>
       </c>
       <c r="NS2">
-        <v>18.845972748148224</v>
+        <v>15.541355752606245</v>
       </c>
       <c r="NT2">
-        <v>18.845060327194027</v>
+        <v>15.508483300370195</v>
       </c>
       <c r="NU2">
-        <v>18.844155508883141</v>
+        <v>15.552364332688835</v>
       </c>
       <c r="NV2">
-        <v>18.843258229867395</v>
+        <v>15.503876766456059</v>
       </c>
       <c r="NW2">
-        <v>18.842368427326488</v>
+        <v>15.560204476495475</v>
       </c>
       <c r="NX2">
-        <v>18.841486038963531</v>
+        <v>15.500343045925884</v>
       </c>
       <c r="NY2">
-        <v>18.840611003000749</v>
+        <v>15.561806648677006</v>
       </c>
       <c r="NZ2">
-        <v>18.839743258175094</v>
+        <v>15.501687443397232</v>
       </c>
       <c r="OA2">
-        <v>18.838882743734011</v>
+        <v>15.561092528165764</v>
       </c>
       <c r="OB2">
-        <v>18.838029399431139</v>
+        <v>15.502428698440768</v>
       </c>
       <c r="OC2">
-        <v>18.837183165522124</v>
+        <v>15.556887189367639</v>
       </c>
       <c r="OD2">
-        <v>18.836343982760418</v>
+        <v>15.504453883139655</v>
       </c>
       <c r="OE2">
-        <v>18.835511792393152</v>
+        <v>15.550394008438461</v>
       </c>
       <c r="OF2">
-        <v>18.834686536156983</v>
+        <v>15.509390578466849</v>
       </c>
       <c r="OG2">
-        <v>18.833868156274072</v>
+        <v>15.541072974076007</v>
       </c>
       <c r="OH2">
-        <v>18.833056595447992</v>
+        <v>15.51422287298325</v>
       </c>
       <c r="OI2">
-        <v>18.832251796859726</v>
+        <v>15.532034271589682</v>
       </c>
       <c r="OJ2">
-        <v>18.8314537041637</v>
+        <v>15.520407982370648</v>
       </c>
       <c r="OK2">
-        <v>18.830662261483823</v>
+        <v>15.523559144556197</v>
       </c>
     </row>
   </sheetData>

--- a/model/Single Motor/pos.xlsx
+++ b/model/Single Motor/pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCAE5B2-CAAE-48E2-BB24-94EF8CD42A60}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD1F01E-BA3B-456B-94F4-D4AC59FD2097}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{EE367AE8-C5DF-4C87-AD96-5308D999D090}"/>
   </bookViews>
@@ -1589,1204 +1589,1204 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.13807877696798809</v>
+        <v>0.13996564684475604</v>
       </c>
       <c r="C2">
-        <v>0.54755657668291668</v>
+        <v>0.50831797842101412</v>
       </c>
       <c r="D2">
-        <v>1.2031613203231033</v>
+        <v>0.90945300957016395</v>
       </c>
       <c r="E2">
-        <v>2.0790879996232681</v>
+        <v>1.3070391410079285</v>
       </c>
       <c r="F2">
-        <v>3.0502014772516453</v>
+        <v>1.7013124314537764</v>
       </c>
       <c r="G2">
-        <v>4.0132232628361981</v>
+        <v>2.0923004847765809</v>
       </c>
       <c r="H2">
-        <v>4.9682207794759226</v>
+        <v>2.480030674839135</v>
       </c>
       <c r="I2">
-        <v>5.9152608884745339</v>
+        <v>2.8645301474146416</v>
       </c>
       <c r="J2">
-        <v>6.8544098940215887</v>
+        <v>3.2310259084588644</v>
       </c>
       <c r="K2">
-        <v>7.7857335478345622</v>
+        <v>3.4926002978299895</v>
       </c>
       <c r="L2">
-        <v>8.709297053762258</v>
+        <v>3.6690756333083701</v>
       </c>
       <c r="M2">
-        <v>9.6251650723498692</v>
+        <v>3.791811354298682</v>
       </c>
       <c r="N2">
-        <v>10.53340172536597</v>
+        <v>3.87121693928801</v>
       </c>
       <c r="O2">
-        <v>11.434070600291843</v>
+        <v>3.9220940274858265</v>
       </c>
       <c r="P2">
-        <v>12.327234754773361</v>
+        <v>3.9528276406027234</v>
       </c>
       <c r="Q2">
-        <v>13.212956721035747</v>
+        <v>3.9732128931838258</v>
       </c>
       <c r="R2">
-        <v>14.091298510261607</v>
+        <v>3.9874036345665957</v>
       </c>
       <c r="S2">
-        <v>14.962321616932483</v>
+        <v>3.9975696059142294</v>
       </c>
       <c r="T2">
-        <v>15.806478505746362</v>
+        <v>4.0013365407280572</v>
       </c>
       <c r="U2">
-        <v>16.341076123393663</v>
+        <v>4.004667749333664</v>
       </c>
       <c r="V2">
-        <v>16.476044098012281</v>
+        <v>4.0079712010243549</v>
       </c>
       <c r="W2">
-        <v>16.215168576037172</v>
+        <v>4.0112471270814538</v>
       </c>
       <c r="X2">
-        <v>15.574614184617886</v>
+        <v>4.01242112408117</v>
       </c>
       <c r="Y2">
-        <v>14.85674568850061</v>
+        <v>4.0086432827876814</v>
       </c>
       <c r="Z2">
-        <v>14.395726156288747</v>
+        <v>4.0048969199249278</v>
       </c>
       <c r="AA2">
-        <v>14.17271768872331</v>
+        <v>4.0011817732024744</v>
       </c>
       <c r="AB2">
-        <v>14.169409882066265</v>
+        <v>3.9974975825154071</v>
       </c>
       <c r="AC2">
-        <v>14.290650079582507</v>
+        <v>3.9938440899260992</v>
       </c>
       <c r="AD2">
-        <v>14.412079255054902</v>
+        <v>3.9902210396461584</v>
       </c>
       <c r="AE2">
-        <v>14.53249663580336</v>
+        <v>3.9866281780185222</v>
       </c>
       <c r="AF2">
-        <v>14.651910652492024</v>
+        <v>3.9830652534996962</v>
       </c>
       <c r="AG2">
-        <v>14.770329665537414</v>
+        <v>3.9795320166421444</v>
       </c>
       <c r="AH2">
-        <v>14.887761965693675</v>
+        <v>3.9760282200768216</v>
       </c>
       <c r="AI2">
-        <v>15.004215774633453</v>
+        <v>3.9725536184958576</v>
       </c>
       <c r="AJ2">
-        <v>15.122178645481096</v>
+        <v>3.9691079686353841</v>
       </c>
       <c r="AK2">
-        <v>15.239792538348492</v>
+        <v>3.9655017728429005</v>
       </c>
       <c r="AL2">
-        <v>15.356426426898812</v>
+        <v>3.9609208825438311</v>
       </c>
       <c r="AM2">
-        <v>15.472120688738702</v>
+        <v>3.9563781619895346</v>
       </c>
       <c r="AN2">
-        <v>15.560733497780289</v>
+        <v>3.9518732931349749</v>
       </c>
       <c r="AO2">
-        <v>15.503910938916563</v>
+        <v>3.947405960585193</v>
       </c>
       <c r="AP2">
-        <v>15.555761800982017</v>
+        <v>3.9429758515732165</v>
       </c>
       <c r="AQ2">
-        <v>15.505048746424592</v>
+        <v>3.938582655938176</v>
       </c>
       <c r="AR2">
-        <v>15.54900039106233</v>
+        <v>3.9342260661035757</v>
       </c>
       <c r="AS2">
-        <v>15.510219653905091</v>
+        <v>3.9299057770557688</v>
       </c>
       <c r="AT2">
-        <v>15.538351722304499</v>
+        <v>3.9256214863225973</v>
       </c>
       <c r="AU2">
-        <v>15.517934355500188</v>
+        <v>3.9213728939522206</v>
       </c>
       <c r="AV2">
-        <v>15.527419164273253</v>
+        <v>3.917159702492111</v>
       </c>
       <c r="AW2">
-        <v>15.524097000880506</v>
+        <v>3.9129816169682305</v>
       </c>
       <c r="AX2">
-        <v>15.519959458598846</v>
+        <v>3.9088383448643791</v>
       </c>
       <c r="AY2">
-        <v>15.533952202294042</v>
+        <v>3.9047295961017121</v>
       </c>
       <c r="AZ2">
-        <v>15.512526359337683</v>
+        <v>3.9006550830184379</v>
       </c>
       <c r="BA2">
-        <v>15.547686965818359</v>
+        <v>3.8966145203496687</v>
       </c>
       <c r="BB2">
-        <v>15.505602929816883</v>
+        <v>3.8926076252074591</v>
       </c>
       <c r="BC2">
-        <v>15.556425063039306</v>
+        <v>3.8886341170609917</v>
       </c>
       <c r="BD2">
-        <v>15.50211299081146</v>
+        <v>3.8846937177169409</v>
       </c>
       <c r="BE2">
-        <v>15.561662801140665</v>
+        <v>3.8807861512999953</v>
       </c>
       <c r="BF2">
-        <v>15.499928213118837</v>
+        <v>3.8769111442335431</v>
       </c>
       <c r="BG2">
-        <v>15.563762298658167</v>
+        <v>3.8730684252205161</v>
       </c>
       <c r="BH2">
-        <v>15.498140021455253</v>
+        <v>3.8692577252244016</v>
       </c>
       <c r="BI2">
-        <v>15.562496118594838</v>
+        <v>3.8654787774504036</v>
       </c>
       <c r="BJ2">
-        <v>15.500677094662713</v>
+        <v>3.861731317326758</v>
       </c>
       <c r="BK2">
-        <v>15.559290478120683</v>
+        <v>3.8580150824862192</v>
       </c>
       <c r="BL2">
-        <v>15.504160196048121</v>
+        <v>3.8543298127476846</v>
       </c>
       <c r="BM2">
-        <v>15.552885710331756</v>
+        <v>3.8506752500979795</v>
       </c>
       <c r="BN2">
-        <v>15.507737878851412</v>
+        <v>3.8470511386737991</v>
       </c>
       <c r="BO2">
-        <v>15.543805376863579</v>
+        <v>3.8434572247437861</v>
       </c>
       <c r="BP2">
-        <v>15.513799460633317</v>
+        <v>3.8398932566907722</v>
       </c>
       <c r="BQ2">
-        <v>15.532581096293216</v>
+        <v>3.8363589849941611</v>
       </c>
       <c r="BR2">
-        <v>15.521350869563889</v>
+        <v>3.8328541622124588</v>
       </c>
       <c r="BS2">
-        <v>15.522820009621764</v>
+        <v>3.8293785429659462</v>
       </c>
       <c r="BT2">
-        <v>15.530517615427463</v>
+        <v>3.8259318839195049</v>
       </c>
       <c r="BU2">
-        <v>15.514841526791191</v>
+        <v>3.8225139437655793</v>
       </c>
       <c r="BV2">
-        <v>15.540884440527174</v>
+        <v>3.819124483207279</v>
       </c>
       <c r="BW2">
-        <v>15.50877852572274</v>
+        <v>3.81576326494163</v>
       </c>
       <c r="BX2">
-        <v>15.553181567021896</v>
+        <v>3.8124300536429572</v>
       </c>
       <c r="BY2">
-        <v>15.503433508655943</v>
+        <v>3.8091246159464087</v>
       </c>
       <c r="BZ2">
-        <v>15.560843632740804</v>
+        <v>3.8058467204316195</v>
       </c>
       <c r="CA2">
-        <v>15.49913076914078</v>
+        <v>3.8025961376065096</v>
       </c>
       <c r="CB2">
-        <v>15.561437033834043</v>
+        <v>3.7993726398912147</v>
       </c>
       <c r="CC2">
-        <v>15.500693152774291</v>
+        <v>3.7961760016021531</v>
       </c>
       <c r="CD2">
-        <v>15.562115991957882</v>
+        <v>3.7930779837688222</v>
       </c>
       <c r="CE2">
-        <v>15.501780819287431</v>
+        <v>3.7904526683904134</v>
       </c>
       <c r="CF2">
-        <v>15.558580201609537</v>
+        <v>3.7878492281522944</v>
       </c>
       <c r="CG2">
-        <v>15.505081154354011</v>
+        <v>3.785267480782359</v>
       </c>
       <c r="CH2">
-        <v>15.549981313774616</v>
+        <v>3.7827072455272623</v>
       </c>
       <c r="CI2">
-        <v>15.511852092838106</v>
+        <v>3.7801683431397666</v>
       </c>
       <c r="CJ2">
-        <v>15.536495158811446</v>
+        <v>3.7776505958661919</v>
       </c>
       <c r="CK2">
-        <v>15.519362782034774</v>
+        <v>3.7751538274339693</v>
       </c>
       <c r="CL2">
-        <v>15.524810287511473</v>
+        <v>3.7726778630393007</v>
       </c>
       <c r="CM2">
-        <v>15.529938564034508</v>
+        <v>3.7702225293349216</v>
       </c>
       <c r="CN2">
-        <v>15.515409788849599</v>
+        <v>3.7677876544179645</v>
       </c>
       <c r="CO2">
-        <v>15.538818356164128</v>
+        <v>3.7653730678179196</v>
       </c>
       <c r="CP2">
-        <v>15.509758123215233</v>
+        <v>3.7629786004847068</v>
       </c>
       <c r="CQ2">
-        <v>15.542515018560929</v>
+        <v>3.7606040847768361</v>
       </c>
       <c r="CR2">
-        <v>15.507817487014815</v>
+        <v>3.7582493544496702</v>
       </c>
       <c r="CS2">
-        <v>15.55139174794701</v>
+        <v>3.7559142446437841</v>
       </c>
       <c r="CT2">
-        <v>15.504225095427779</v>
+        <v>3.753598591873426</v>
       </c>
       <c r="CU2">
-        <v>15.55926790838609</v>
+        <v>3.7513022340150748</v>
       </c>
       <c r="CV2">
-        <v>15.501235993504926</v>
+        <v>3.7490250102960805</v>
       </c>
       <c r="CW2">
-        <v>15.561960474550142</v>
+        <v>3.7467667612834132</v>
       </c>
       <c r="CX2">
-        <v>15.501589600695397</v>
+        <v>3.7445273288725032</v>
       </c>
       <c r="CY2">
-        <v>15.560627504267401</v>
+        <v>3.7423065562761666</v>
       </c>
       <c r="CZ2">
-        <v>15.503259458534755</v>
+        <v>3.7401042880136308</v>
       </c>
       <c r="DA2">
-        <v>15.554081383689022</v>
+        <v>3.7379203698996495</v>
       </c>
       <c r="DB2">
-        <v>15.509080330634889</v>
+        <v>3.7357546490337086</v>
       </c>
       <c r="DC2">
-        <v>15.542212968762412</v>
+        <v>3.7336069737893194</v>
       </c>
       <c r="DD2">
-        <v>15.515687566065013</v>
+        <v>3.7314771938034008</v>
       </c>
       <c r="DE2">
-        <v>15.530514000736265</v>
+        <v>3.729365159965758</v>
       </c>
       <c r="DF2">
-        <v>15.521702178834072</v>
+        <v>3.7272707244086396</v>
       </c>
       <c r="DG2">
-        <v>15.521623841346457</v>
+        <v>3.7251937404963855</v>
       </c>
       <c r="DH2">
-        <v>15.536213144470766</v>
+        <v>3.7231340628151584</v>
       </c>
       <c r="DI2">
-        <v>15.511215857588395</v>
+        <v>3.7210915471627684</v>
       </c>
       <c r="DJ2">
-        <v>15.549176190237624</v>
+        <v>3.7190660505385704</v>
       </c>
       <c r="DK2">
-        <v>15.504933379362827</v>
+        <v>3.7170574311334583</v>
       </c>
       <c r="DL2">
-        <v>15.557505120276925</v>
+        <v>3.7150655483199331</v>
       </c>
       <c r="DM2">
-        <v>15.500774525034158</v>
+        <v>3.7130902626422575</v>
       </c>
       <c r="DN2">
-        <v>15.559869343972903</v>
+        <v>3.711131435806696</v>
       </c>
       <c r="DO2">
-        <v>15.501065745650141</v>
+        <v>3.7091889306718269</v>
       </c>
       <c r="DP2">
-        <v>15.562254272619441</v>
+        <v>3.7072626112389448</v>
       </c>
       <c r="DQ2">
-        <v>15.501219502172072</v>
+        <v>3.7053523426425388</v>
       </c>
       <c r="DR2">
-        <v>15.560538138251081</v>
+        <v>3.7034579911408492</v>
       </c>
       <c r="DS2">
-        <v>15.503327037941879</v>
+        <v>3.7015794241065034</v>
       </c>
       <c r="DT2">
-        <v>15.554182585725776</v>
+        <v>3.6997165100172298</v>
       </c>
       <c r="DU2">
-        <v>15.508518470446541</v>
+        <v>3.697869118446655</v>
       </c>
       <c r="DV2">
-        <v>15.542841719279439</v>
+        <v>3.6960371200551658</v>
       </c>
       <c r="DW2">
-        <v>15.515617285119893</v>
+        <v>3.6942203865808563</v>
       </c>
       <c r="DX2">
-        <v>15.530681043291509</v>
+        <v>3.6924187908305495</v>
       </c>
       <c r="DY2">
-        <v>15.521677865102617</v>
+        <v>3.690632206670891</v>
       </c>
       <c r="DZ2">
-        <v>15.521638759960256</v>
+        <v>3.6888605090195177</v>
       </c>
       <c r="EA2">
-        <v>15.536288058269639</v>
+        <v>3.6871035738363012</v>
       </c>
       <c r="EB2">
-        <v>15.511173039166367</v>
+        <v>3.6853612781146619</v>
       </c>
       <c r="EC2">
-        <v>15.549215682359963</v>
+        <v>3.6836334998729603</v>
       </c>
       <c r="ED2">
-        <v>15.504870726618819</v>
+        <v>3.6819201181459547</v>
       </c>
       <c r="EE2">
-        <v>15.557219667558364</v>
+        <v>3.6802210129763311</v>
       </c>
       <c r="EF2">
-        <v>15.500952733258167</v>
+        <v>3.6785360654063086</v>
       </c>
       <c r="EG2">
-        <v>15.560102487345949</v>
+        <v>3.676865157469305</v>
       </c>
       <c r="EH2">
-        <v>15.500730467857283</v>
+        <v>3.6752081721816845</v>
       </c>
       <c r="EI2">
-        <v>15.563373369580479</v>
+        <v>3.6735649935345625</v>
       </c>
       <c r="EJ2">
-        <v>15.498603742502249</v>
+        <v>3.6719355064856853</v>
       </c>
       <c r="EK2">
-        <v>15.562667851354618</v>
+        <v>3.670319596951376</v>
       </c>
       <c r="EL2">
-        <v>15.500474468350303</v>
+        <v>3.6687171517985453</v>
       </c>
       <c r="EM2">
-        <v>15.559212976608741</v>
+        <v>3.6671280588367741</v>
       </c>
       <c r="EN2">
-        <v>15.505235320068715</v>
+        <v>3.6655522068104558</v>
       </c>
       <c r="EO2">
-        <v>15.551898636711483</v>
+        <v>3.6639894853910104</v>
       </c>
       <c r="EP2">
-        <v>15.508385557408429</v>
+        <v>3.6624397851691577</v>
       </c>
       <c r="EQ2">
-        <v>15.543318846504413</v>
+        <v>3.6609029976472556</v>
       </c>
       <c r="ER2">
-        <v>15.51302603347848</v>
+        <v>3.6593790152317092</v>
       </c>
       <c r="ES2">
-        <v>15.533454891416952</v>
+        <v>3.6578677312254335</v>
       </c>
       <c r="ET2">
-        <v>15.520564063435542</v>
+        <v>3.656369039820385</v>
       </c>
       <c r="EU2">
-        <v>15.523512398533192</v>
+        <v>3.6548828360901529</v>
       </c>
       <c r="EV2">
-        <v>15.530413634869491</v>
+        <v>3.6534090159826134</v>
       </c>
       <c r="EW2">
-        <v>15.514944138428081</v>
+        <v>3.6519474763126465</v>
       </c>
       <c r="EX2">
-        <v>15.540533593827446</v>
+        <v>3.6504981147549103</v>
       </c>
       <c r="EY2">
-        <v>15.508908224844266</v>
+        <v>3.6490608298366767</v>
       </c>
       <c r="EZ2">
-        <v>15.552211883430122</v>
+        <v>3.6476355209307276</v>
       </c>
       <c r="FA2">
-        <v>15.503736743817026</v>
+        <v>3.646222088248309</v>
       </c>
       <c r="FB2">
-        <v>15.559237855090887</v>
+        <v>3.6448204328321463</v>
       </c>
       <c r="FC2">
-        <v>15.501112780169288</v>
+        <v>3.6434304565495155</v>
       </c>
       <c r="FD2">
-        <v>15.562858192413353</v>
+        <v>3.6420520620853698</v>
       </c>
       <c r="FE2">
-        <v>15.499312702717704</v>
+        <v>3.6406851529355335</v>
       </c>
       <c r="FF2">
-        <v>15.562411382083551</v>
+        <v>3.6393296333999348</v>
       </c>
       <c r="FG2">
-        <v>15.501027851261165</v>
+        <v>3.6379854085759153</v>
       </c>
       <c r="FH2">
-        <v>15.558827800126274</v>
+        <v>3.6366523843515832</v>
       </c>
       <c r="FI2">
-        <v>15.50527103621223</v>
+        <v>3.6353304673992217</v>
       </c>
       <c r="FJ2">
-        <v>15.55244034204493</v>
+        <v>3.6340195651687566</v>
       </c>
       <c r="FK2">
-        <v>15.506353199893905</v>
+        <v>3.6327195858812775</v>
       </c>
       <c r="FL2">
-        <v>15.545972701290687</v>
+        <v>3.631430438522611</v>
       </c>
       <c r="FM2">
-        <v>15.511372416779382</v>
+        <v>3.6301520328369472</v>
       </c>
       <c r="FN2">
-        <v>15.536240447090265</v>
+        <v>3.6288842793205234</v>
       </c>
       <c r="FO2">
-        <v>15.51851294891501</v>
+        <v>3.6276270892153559</v>
       </c>
       <c r="FP2">
-        <v>15.524985221811905</v>
+        <v>3.6263803745030314</v>
       </c>
       <c r="FQ2">
-        <v>15.532757460986593</v>
+        <v>3.6251440478985346</v>
       </c>
       <c r="FR2">
-        <v>15.51336582916904</v>
+        <v>3.623918022844145</v>
       </c>
       <c r="FS2">
-        <v>15.543470545018668</v>
+        <v>3.6227022135033731</v>
       </c>
       <c r="FT2">
-        <v>15.507375131446903</v>
+        <v>3.6214965347549524</v>
       </c>
       <c r="FU2">
-        <v>15.552725385221018</v>
+        <v>3.6203009021868819</v>
       </c>
       <c r="FV2">
-        <v>15.503245094569127</v>
+        <v>3.6191152320905111</v>
       </c>
       <c r="FW2">
-        <v>15.558455270699831</v>
+        <v>3.6179394414546842</v>
       </c>
       <c r="FX2">
-        <v>15.501428427410856</v>
+        <v>3.6167734479599258</v>
       </c>
       <c r="FY2">
-        <v>15.562310086921906</v>
+        <v>3.6156171699726762</v>
       </c>
       <c r="FZ2">
-        <v>15.50016964853716</v>
+        <v>3.6144705265395802</v>
       </c>
       <c r="GA2">
-        <v>15.562609768016939</v>
+        <v>3.6133334373818178</v>
       </c>
       <c r="GB2">
-        <v>15.500416543881441</v>
+        <v>3.6122058228894804</v>
       </c>
       <c r="GC2">
-        <v>15.559407876619337</v>
+        <v>3.6110876041160029</v>
       </c>
       <c r="GD2">
-        <v>15.50423113969984</v>
+        <v>3.6099787027726302</v>
       </c>
       <c r="GE2">
-        <v>15.552733165512372</v>
+        <v>3.6088790412229423</v>
       </c>
       <c r="GF2">
-        <v>15.508226001983086</v>
+        <v>3.6077885424774134</v>
       </c>
       <c r="GG2">
-        <v>15.54330826668372</v>
+        <v>3.6067071301880267</v>
       </c>
       <c r="GH2">
-        <v>15.513710007393975</v>
+        <v>3.6056347286429249</v>
       </c>
       <c r="GI2">
-        <v>15.532724235592823</v>
+        <v>3.6045712627611111</v>
       </c>
       <c r="GJ2">
-        <v>15.52087062486145</v>
+        <v>3.6035166580871922</v>
       </c>
       <c r="GK2">
-        <v>15.523372942851799</v>
+        <v>3.6024708407861659</v>
       </c>
       <c r="GL2">
-        <v>15.529494739969691</v>
+        <v>3.6014337376382524</v>
       </c>
       <c r="GM2">
-        <v>15.515543317943036</v>
+        <v>3.6004052760337668</v>
       </c>
       <c r="GN2">
-        <v>15.540620092548984</v>
+        <v>3.5993853839680368</v>
       </c>
       <c r="GO2">
-        <v>15.508743311277135</v>
+        <v>3.59837399003636</v>
       </c>
       <c r="GP2">
-        <v>15.542405143301034</v>
+        <v>3.5973710234290048</v>
       </c>
       <c r="GQ2">
-        <v>15.507772349017454</v>
+        <v>3.5963764139262562</v>
       </c>
       <c r="GR2">
-        <v>15.54867624961142</v>
+        <v>3.5953900918934951</v>
       </c>
       <c r="GS2">
-        <v>15.504916469983963</v>
+        <v>3.5944119882763248</v>
       </c>
       <c r="GT2">
-        <v>15.555116602878201</v>
+        <v>3.5934420345957383</v>
       </c>
       <c r="GU2">
-        <v>15.502744606548145</v>
+        <v>3.5924801629433172</v>
       </c>
       <c r="GV2">
-        <v>15.560956213053441</v>
+        <v>3.5915263059764899</v>
       </c>
       <c r="GW2">
-        <v>15.500845730437126</v>
+        <v>3.5905803969138019</v>
       </c>
       <c r="GX2">
-        <v>15.563828204506095</v>
+        <v>3.5896423695302513</v>
       </c>
       <c r="GY2">
-        <v>15.498047537508985</v>
+        <v>3.5887121581526489</v>
       </c>
       <c r="GZ2">
-        <v>15.561355909522241</v>
+        <v>3.5877896976550177</v>
       </c>
       <c r="HA2">
-        <v>15.503138391857432</v>
+        <v>3.5868749234540354</v>
       </c>
       <c r="HB2">
-        <v>15.556425257107996</v>
+        <v>3.5859677715045137</v>
       </c>
       <c r="HC2">
-        <v>15.506322319661225</v>
+        <v>3.5850681782949154</v>
       </c>
       <c r="HD2">
-        <v>15.548302094489978</v>
+        <v>3.5841760808429015</v>
       </c>
       <c r="HE2">
-        <v>15.510222431170282</v>
+        <v>3.5832914166909315</v>
       </c>
       <c r="HF2">
-        <v>15.538410032892186</v>
+        <v>3.5824141239018816</v>
       </c>
       <c r="HG2">
-        <v>15.517264438290695</v>
+        <v>3.581544141054712</v>
       </c>
       <c r="HH2">
-        <v>15.527977789436363</v>
+        <v>3.5806814072401689</v>
       </c>
       <c r="HI2">
-        <v>15.524144270175908</v>
+        <v>3.5798258620565155</v>
       </c>
       <c r="HJ2">
-        <v>15.519683736386572</v>
+        <v>3.5789774456053074</v>
       </c>
       <c r="HK2">
-        <v>15.536328708246083</v>
+        <v>3.5781360984871959</v>
       </c>
       <c r="HL2">
-        <v>15.511138591013372</v>
+        <v>3.5773017617977709</v>
       </c>
       <c r="HM2">
-        <v>15.547509527055666</v>
+        <v>3.5764743771234371</v>
       </c>
       <c r="HN2">
-        <v>15.505863569611243</v>
+        <v>3.5756538865373222</v>
       </c>
       <c r="HO2">
-        <v>15.557815621510152</v>
+        <v>3.5748402325952262</v>
       </c>
       <c r="HP2">
-        <v>15.50098343972785</v>
+        <v>3.5740333583315942</v>
       </c>
       <c r="HQ2">
-        <v>15.56123141570766</v>
+        <v>3.5732332072555302</v>
       </c>
       <c r="HR2">
-        <v>15.500146132750814</v>
+        <v>3.5724397233468412</v>
       </c>
       <c r="HS2">
-        <v>15.562782779773617</v>
+        <v>3.5716528510521171</v>
       </c>
       <c r="HT2">
-        <v>15.500176660401964</v>
+        <v>3.570872535280841</v>
       </c>
       <c r="HU2">
-        <v>15.560939072341959</v>
+        <v>3.5700987214015307</v>
       </c>
       <c r="HV2">
-        <v>15.503100587914147</v>
+        <v>3.569331355237916</v>
       </c>
       <c r="HW2">
-        <v>15.556380736942431</v>
+        <v>3.5685703830651416</v>
       </c>
       <c r="HX2">
-        <v>15.504753679388433</v>
+        <v>3.5678157516060098</v>
       </c>
       <c r="HY2">
-        <v>15.549587230309275</v>
+        <v>3.5670674080272473</v>
       </c>
       <c r="HZ2">
-        <v>15.510119714519698</v>
+        <v>3.5663252999358117</v>
       </c>
       <c r="IA2">
-        <v>15.53810127829742</v>
+        <v>3.5655893753752177</v>
       </c>
       <c r="IB2">
-        <v>15.519339299942361</v>
+        <v>3.5648595828219012</v>
       </c>
       <c r="IC2">
-        <v>15.524758858989522</v>
+        <v>3.5641358711816111</v>
       </c>
       <c r="ID2">
-        <v>15.53118776542401</v>
+        <v>3.5634181897858372</v>
       </c>
       <c r="IE2">
-        <v>15.514409789508486</v>
+        <v>3.5627064883882547</v>
       </c>
       <c r="IF2">
-        <v>15.541769889735557</v>
+        <v>3.562000717161212</v>
       </c>
       <c r="IG2">
-        <v>15.508341364596076</v>
+        <v>3.5613008266922419</v>
       </c>
       <c r="IH2">
-        <v>15.553761752201616</v>
+        <v>3.5606067679805999</v>
       </c>
       <c r="II2">
-        <v>15.502998715393028</v>
+        <v>3.5599184924338347</v>
       </c>
       <c r="IJ2">
-        <v>15.560559318890991</v>
+        <v>3.5592359518643861</v>
       </c>
       <c r="IK2">
-        <v>15.499238693371673</v>
+        <v>3.5585590984862101</v>
       </c>
       <c r="IL2">
-        <v>15.561453156116432</v>
+        <v>3.5578878849114366</v>
       </c>
       <c r="IM2">
-        <v>15.500511761277574</v>
+        <v>3.5572222641470468</v>
       </c>
       <c r="IN2">
-        <v>15.562261105498633</v>
+        <v>3.55656218959159</v>
       </c>
       <c r="IO2">
-        <v>15.501485476428266</v>
+        <v>3.555907615031912</v>
       </c>
       <c r="IP2">
-        <v>15.559102461685786</v>
+        <v>3.5552584946399284</v>
       </c>
       <c r="IQ2">
-        <v>15.504680767824864</v>
+        <v>3.5546147829694084</v>
       </c>
       <c r="IR2">
-        <v>15.552553906212298</v>
+        <v>3.5539764349528009</v>
       </c>
       <c r="IS2">
-        <v>15.507426414946305</v>
+        <v>3.553343405898072</v>
       </c>
       <c r="IT2">
-        <v>15.544147274221512</v>
+        <v>3.5527156514855802</v>
       </c>
       <c r="IU2">
-        <v>15.513390664591654</v>
+        <v>3.5520931277649721</v>
       </c>
       <c r="IV2">
-        <v>15.533011808809734</v>
+        <v>3.5514757911521038</v>
       </c>
       <c r="IW2">
-        <v>15.521372786703301</v>
+        <v>3.5508635984259951</v>
       </c>
       <c r="IX2">
-        <v>15.522722997325852</v>
+        <v>3.5502565067257952</v>
       </c>
       <c r="IY2">
-        <v>15.531223507128935</v>
+        <v>3.5496544735477902</v>
       </c>
       <c r="IZ2">
-        <v>15.514379932786067</v>
+        <v>3.549057456742422</v>
       </c>
       <c r="JA2">
-        <v>15.54112260138854</v>
+        <v>3.5484654145113406</v>
       </c>
       <c r="JB2">
-        <v>15.508651633920259</v>
+        <v>3.5478783054044727</v>
       </c>
       <c r="JC2">
-        <v>15.553161676932868</v>
+        <v>3.547296088317125</v>
       </c>
       <c r="JD2">
-        <v>15.50346917482743</v>
+        <v>3.5467187224871028</v>
       </c>
       <c r="JE2">
-        <v>15.560962212897486</v>
+        <v>3.5461461674918615</v>
       </c>
       <c r="JF2">
-        <v>15.498998781385529</v>
+        <v>3.5455783832456693</v>
       </c>
       <c r="JG2">
-        <v>15.561455059288338</v>
+        <v>3.5450153299968035</v>
       </c>
       <c r="JH2">
-        <v>15.50051898517899</v>
+        <v>3.5444569683247718</v>
       </c>
       <c r="JI2">
-        <v>15.562249166544573</v>
+        <v>3.543903259137545</v>
       </c>
       <c r="JJ2">
-        <v>15.501511504817612</v>
+        <v>3.5433541636688264</v>
       </c>
       <c r="JK2">
-        <v>15.559147219557635</v>
+        <v>3.542809643475334</v>
       </c>
       <c r="JL2">
-        <v>15.504518454225394</v>
+        <v>3.5422696604341097</v>
       </c>
       <c r="JM2">
-        <v>15.552688075821811</v>
+        <v>3.5417341767398489</v>
       </c>
       <c r="JN2">
-        <v>15.507428708910361</v>
+        <v>3.5412031549022602</v>
       </c>
       <c r="JO2">
-        <v>15.544138698824835</v>
+        <v>3.5406765577434314</v>
       </c>
       <c r="JP2">
-        <v>15.513531668183131</v>
+        <v>3.5401543483952325</v>
       </c>
       <c r="JQ2">
-        <v>15.532865768554801</v>
+        <v>3.5396364902967346</v>
       </c>
       <c r="JR2">
-        <v>15.521419018354564</v>
+        <v>3.5391229471916454</v>
       </c>
       <c r="JS2">
-        <v>15.522894378232543</v>
+        <v>3.5386136831257762</v>
       </c>
       <c r="JT2">
-        <v>15.529897546895537</v>
+        <v>3.5381086624445217</v>
       </c>
       <c r="JU2">
-        <v>15.515252796639396</v>
+        <v>3.5376078497903638</v>
       </c>
       <c r="JV2">
-        <v>15.540721405313146</v>
+        <v>3.5371112101003988</v>
       </c>
       <c r="JW2">
-        <v>15.508783278106183</v>
+        <v>3.5366187086038794</v>
       </c>
       <c r="JX2">
-        <v>15.551672563551159</v>
+        <v>3.536130310819781</v>
       </c>
       <c r="JY2">
-        <v>15.504016988731486</v>
+        <v>3.5356459825543909</v>
       </c>
       <c r="JZ2">
-        <v>15.559045506983621</v>
+        <v>3.5351656898989066</v>
       </c>
       <c r="KA2">
-        <v>15.501382069952491</v>
+        <v>3.5346893992270725</v>
       </c>
       <c r="KB2">
-        <v>15.561820197105916</v>
+        <v>3.5342170771928165</v>
       </c>
       <c r="KC2">
-        <v>15.501895610548665</v>
+        <v>3.5337486907279199</v>
       </c>
       <c r="KD2">
-        <v>15.560445670354323</v>
+        <v>3.5332842070396997</v>
       </c>
       <c r="KE2">
-        <v>15.503371841762272</v>
+        <v>3.532823593608716</v>
       </c>
       <c r="KF2">
-        <v>15.557094975626049</v>
+        <v>3.5323668181864933</v>
       </c>
       <c r="KG2">
-        <v>15.501720514766973</v>
+        <v>3.5319138487932631</v>
       </c>
       <c r="KH2">
-        <v>15.553624650703917</v>
+        <v>3.5314646537157239</v>
       </c>
       <c r="KI2">
-        <v>15.506653397214262</v>
+        <v>3.5310192015048187</v>
       </c>
       <c r="KJ2">
-        <v>15.544550678326916</v>
+        <v>3.5305774609735412</v>
       </c>
       <c r="KK2">
-        <v>15.515217937822301</v>
+        <v>3.5301394011947447</v>
       </c>
       <c r="KL2">
-        <v>15.531005361910253</v>
+        <v>3.52970499149898</v>
       </c>
       <c r="KM2">
-        <v>15.522775253110122</v>
+        <v>3.529274201472349</v>
       </c>
       <c r="KN2">
-        <v>15.521951203382381</v>
+        <v>3.5288470009543711</v>
       </c>
       <c r="KO2">
-        <v>15.529523374101046</v>
+        <v>3.5284233600358754</v>
       </c>
       <c r="KP2">
-        <v>15.515488508535894</v>
+        <v>3.5280032490569062</v>
       </c>
       <c r="KQ2">
-        <v>15.540467822163802</v>
+        <v>3.5275866386046446</v>
       </c>
       <c r="KR2">
-        <v>15.508933482923041</v>
+        <v>3.5271734995113553</v>
       </c>
       <c r="KS2">
-        <v>15.551925984090206</v>
+        <v>3.5267638028523343</v>
       </c>
       <c r="KT2">
-        <v>15.503978267002388</v>
+        <v>3.5263575199438901</v>
       </c>
       <c r="KU2">
-        <v>15.55955634637327</v>
+        <v>3.5259546223413403</v>
       </c>
       <c r="KV2">
-        <v>15.500924552565618</v>
+        <v>3.5255550818370072</v>
       </c>
       <c r="KW2">
-        <v>15.561859008354078</v>
+        <v>3.5251588704582555</v>
       </c>
       <c r="KX2">
-        <v>15.501693132653916</v>
+        <v>3.5247659604655266</v>
       </c>
       <c r="KY2">
-        <v>15.560811910950553</v>
+        <v>3.5243763243503978</v>
       </c>
       <c r="KZ2">
-        <v>15.502904745056911</v>
+        <v>3.5239899348336579</v>
       </c>
       <c r="LA2">
-        <v>15.557105145903483</v>
+        <v>3.5236067648634002</v>
       </c>
       <c r="LB2">
-        <v>15.50321258142854</v>
+        <v>3.5232267876131189</v>
       </c>
       <c r="LC2">
-        <v>15.551261088486896</v>
+        <v>3.5228499764798382</v>
       </c>
       <c r="LD2">
-        <v>15.50979956229539</v>
+        <v>3.5224763050822534</v>
       </c>
       <c r="LE2">
-        <v>15.539246740602659</v>
+        <v>3.5221057472588742</v>
       </c>
       <c r="LF2">
-        <v>15.518523846781822</v>
+        <v>3.5217382770661989</v>
       </c>
       <c r="LG2">
-        <v>15.526644179775273</v>
+        <v>3.521373868776899</v>
       </c>
       <c r="LH2">
-        <v>15.52575946949263</v>
+        <v>3.5210124968780128</v>
       </c>
       <c r="LI2">
-        <v>15.518760449035289</v>
+        <v>3.5206541360691666</v>
       </c>
       <c r="LJ2">
-        <v>15.533813667052618</v>
+        <v>3.5202987612607952</v>
       </c>
       <c r="LK2">
-        <v>15.512620146594031</v>
+        <v>3.5199463475723909</v>
       </c>
       <c r="LL2">
-        <v>15.546154350319796</v>
+        <v>3.5195968703307603</v>
       </c>
       <c r="LM2">
-        <v>15.506082572248301</v>
+        <v>3.5192503050682973</v>
       </c>
       <c r="LN2">
-        <v>15.553416562543738</v>
+        <v>3.5189066275212677</v>
       </c>
       <c r="LO2">
-        <v>15.503713680734366</v>
+        <v>3.5185658136281122</v>
       </c>
       <c r="LP2">
-        <v>15.560858950565594</v>
+        <v>3.5182278395277633</v>
       </c>
       <c r="LQ2">
-        <v>15.500916540247051</v>
+        <v>3.5178926815579721</v>
       </c>
       <c r="LR2">
-        <v>15.563642562467843</v>
+        <v>3.5175603162536531</v>
       </c>
       <c r="LS2">
-        <v>15.498437624009423</v>
+        <v>3.5172307203452386</v>
       </c>
       <c r="LT2">
-        <v>15.561389686156501</v>
+        <v>3.5169038707570546</v>
       </c>
       <c r="LU2">
-        <v>15.502831734487833</v>
+        <v>3.5165797446057012</v>
       </c>
       <c r="LV2">
-        <v>15.55636111618362</v>
+        <v>3.5162583191984527</v>
       </c>
       <c r="LW2">
-        <v>15.506556018588192</v>
+        <v>3.5159395720316677</v>
       </c>
       <c r="LX2">
-        <v>15.545508229833308</v>
+        <v>3.5156234807892148</v>
       </c>
       <c r="LY2">
-        <v>15.516358554811255</v>
+        <v>3.5153100233409065</v>
       </c>
       <c r="LZ2">
-        <v>15.530107584845737</v>
+        <v>3.5149991777409553</v>
       </c>
       <c r="MA2">
-        <v>15.522969656698702</v>
+        <v>3.5146909222264333</v>
       </c>
       <c r="MB2">
-        <v>15.520690701549452</v>
+        <v>3.5143852352157485</v>
       </c>
       <c r="MC2">
-        <v>15.53590567863044</v>
+        <v>3.5140820953071374</v>
       </c>
       <c r="MD2">
-        <v>15.511384353609699</v>
+        <v>3.5137814812771619</v>
       </c>
       <c r="ME2">
-        <v>15.548027999347235</v>
+        <v>3.5134833720792282</v>
       </c>
       <c r="MF2">
-        <v>15.505604598549636</v>
+        <v>3.5131877468421084</v>
       </c>
       <c r="MG2">
-        <v>15.557898359847776</v>
+        <v>3.5128945848684845</v>
       </c>
       <c r="MH2">
-        <v>15.500903249765786</v>
+        <v>3.5126038656334937</v>
       </c>
       <c r="MI2">
-        <v>15.561200392334896</v>
+        <v>3.5123155687832965</v>
       </c>
       <c r="MJ2">
-        <v>15.500125876166468</v>
+        <v>3.5120296741336494</v>
       </c>
       <c r="MK2">
-        <v>15.562646764392227</v>
+        <v>3.5117461616684893</v>
       </c>
       <c r="ML2">
-        <v>15.500450280344896</v>
+        <v>3.5114650115385362</v>
       </c>
       <c r="MM2">
-        <v>15.560760936309434</v>
+        <v>3.5111862040599018</v>
       </c>
       <c r="MN2">
-        <v>15.503332940109411</v>
+        <v>3.5109097197127133</v>
       </c>
       <c r="MO2">
-        <v>15.556777404091083</v>
+        <v>3.5106355391397419</v>
       </c>
       <c r="MP2">
-        <v>15.503495451130849</v>
+        <v>3.510363643145054</v>
       </c>
       <c r="MQ2">
-        <v>15.550851244265157</v>
+        <v>3.5100940126926616</v>
       </c>
       <c r="MR2">
-        <v>15.509888016688844</v>
+        <v>3.5098266289051914</v>
       </c>
       <c r="MS2">
-        <v>15.538991836496377</v>
+        <v>3.5095614730625653</v>
       </c>
       <c r="MT2">
-        <v>15.518580397103479</v>
+        <v>3.5092985266006873</v>
       </c>
       <c r="MU2">
-        <v>15.526413118458086</v>
+        <v>3.5090377711101457</v>
       </c>
       <c r="MV2">
-        <v>15.526446299519781</v>
+        <v>3.508779188334922</v>
       </c>
       <c r="MW2">
-        <v>15.518158601273743</v>
+        <v>3.5085227601711155</v>
       </c>
       <c r="MX2">
-        <v>15.534796933060068</v>
+        <v>3.5082684686656713</v>
       </c>
       <c r="MY2">
-        <v>15.512031633845744</v>
+        <v>3.5080162960151275</v>
       </c>
       <c r="MZ2">
-        <v>15.54870043819429</v>
+        <v>3.507766224564369</v>
       </c>
       <c r="NA2">
-        <v>15.505264662831609</v>
+        <v>3.5075182368053874</v>
       </c>
       <c r="NB2">
-        <v>15.557758276780904</v>
+        <v>3.5072723153760608</v>
       </c>
       <c r="NC2">
-        <v>15.5010600561511</v>
+        <v>3.5070284430589318</v>
       </c>
       <c r="ND2">
-        <v>15.561242846988922</v>
+        <v>3.5067866027800068</v>
       </c>
       <c r="NE2">
-        <v>15.500255951925478</v>
+        <v>3.5065467776075616</v>
       </c>
       <c r="NF2">
-        <v>15.563140956660005</v>
+        <v>3.5063089507509515</v>
       </c>
       <c r="NG2">
-        <v>15.499447765210464</v>
+        <v>3.5060731055594379</v>
       </c>
       <c r="NH2">
-        <v>15.561161949980505</v>
+        <v>3.5058392255210231</v>
       </c>
       <c r="NI2">
-        <v>15.503028016800652</v>
+        <v>3.5056072942612935</v>
       </c>
       <c r="NJ2">
-        <v>15.555616288762407</v>
+        <v>3.5053772955422744</v>
       </c>
       <c r="NK2">
-        <v>15.507320048022338</v>
+        <v>3.5051492132612898</v>
       </c>
       <c r="NL2">
-        <v>15.54516221338613</v>
+        <v>3.5049230314498399</v>
       </c>
       <c r="NM2">
-        <v>15.514507179544506</v>
+        <v>3.5046987342724765</v>
       </c>
       <c r="NN2">
-        <v>15.531657187439905</v>
+        <v>3.5044763060257051</v>
       </c>
       <c r="NO2">
-        <v>15.523113609737909</v>
+        <v>3.5042557311368743</v>
       </c>
       <c r="NP2">
-        <v>15.521804693090219</v>
+        <v>3.5040369941630898</v>
       </c>
       <c r="NQ2">
-        <v>15.52937241159594</v>
+        <v>3.5038200797901364</v>
       </c>
       <c r="NR2">
-        <v>15.515534071593944</v>
+        <v>3.5036049728314</v>
       </c>
       <c r="NS2">
-        <v>15.541355752606245</v>
+        <v>3.5033916582268083</v>
       </c>
       <c r="NT2">
-        <v>15.508483300370195</v>
+        <v>3.5031801210417743</v>
       </c>
       <c r="NU2">
-        <v>15.552364332688835</v>
+        <v>3.5029703464661548</v>
       </c>
       <c r="NV2">
-        <v>15.503876766456059</v>
+        <v>3.5027623198132076</v>
       </c>
       <c r="NW2">
-        <v>15.560204476495475</v>
+        <v>3.5025560265185649</v>
       </c>
       <c r="NX2">
-        <v>15.500343045925884</v>
+        <v>3.5023514521392194</v>
       </c>
       <c r="NY2">
-        <v>15.561806648677006</v>
+        <v>3.5021485823525049</v>
       </c>
       <c r="NZ2">
-        <v>15.501687443397232</v>
+        <v>3.5019474029550981</v>
       </c>
       <c r="OA2">
-        <v>15.561092528165764</v>
+        <v>3.5017478998620235</v>
       </c>
       <c r="OB2">
-        <v>15.502428698440768</v>
+        <v>3.5015500591056661</v>
       </c>
       <c r="OC2">
-        <v>15.556887189367639</v>
+        <v>3.5013538668347954</v>
       </c>
       <c r="OD2">
-        <v>15.504453883139655</v>
+        <v>3.5011593093135946</v>
       </c>
       <c r="OE2">
-        <v>15.550394008438461</v>
+        <v>3.5009663729207001</v>
       </c>
       <c r="OF2">
-        <v>15.509390578466849</v>
+        <v>3.5007750441482437</v>
       </c>
       <c r="OG2">
-        <v>15.541072974076007</v>
+        <v>3.500585309600913</v>
       </c>
       <c r="OH2">
-        <v>15.51422287298325</v>
+        <v>3.5003971559950098</v>
       </c>
       <c r="OI2">
-        <v>15.532034271589682</v>
+        <v>3.500210570157519</v>
       </c>
       <c r="OJ2">
-        <v>15.520407982370648</v>
+        <v>3.5000255390251915</v>
       </c>
       <c r="OK2">
-        <v>15.523559144556197</v>
+        <v>3.4998420496436236</v>
       </c>
     </row>
   </sheetData>

--- a/model/Single Motor/pos.xlsx
+++ b/model/Single Motor/pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\model\Single Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD1F01E-BA3B-456B-94F4-D4AC59FD2097}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EFEAA6-5439-4D5F-9BFB-2BA8ADCDC4FF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7488" windowHeight="7596" xr2:uid="{EE367AE8-C5DF-4C87-AD96-5308D999D090}"/>
   </bookViews>
@@ -371,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83D59-97EE-4836-ADD3-7C6B046421B1}">
-  <dimension ref="A1:OK2"/>
+  <dimension ref="A1:ATE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:OK2"/>
+      <selection sqref="A1:ATE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:401" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1201" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1583,1210 +1583,6010 @@
       <c r="OK1">
         <v>4</v>
       </c>
+      <c r="OL1">
+        <v>4.01</v>
+      </c>
+      <c r="OM1">
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="ON1">
+        <v>4.03</v>
+      </c>
+      <c r="OO1">
+        <v>4.04</v>
+      </c>
+      <c r="OP1">
+        <v>4.05</v>
+      </c>
+      <c r="OQ1">
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="OR1">
+        <v>4.07</v>
+      </c>
+      <c r="OS1">
+        <v>4.08</v>
+      </c>
+      <c r="OT1">
+        <v>4.09</v>
+      </c>
+      <c r="OU1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="OV1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="OW1">
+        <v>4.12</v>
+      </c>
+      <c r="OX1">
+        <v>4.13</v>
+      </c>
+      <c r="OY1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="OZ1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="PA1">
+        <v>4.16</v>
+      </c>
+      <c r="PB1">
+        <v>4.17</v>
+      </c>
+      <c r="PC1">
+        <v>4.18</v>
+      </c>
+      <c r="PD1">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="PE1">
+        <v>4.2</v>
+      </c>
+      <c r="PF1">
+        <v>4.21</v>
+      </c>
+      <c r="PG1">
+        <v>4.22</v>
+      </c>
+      <c r="PH1">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="PI1">
+        <v>4.24</v>
+      </c>
+      <c r="PJ1">
+        <v>4.25</v>
+      </c>
+      <c r="PK1">
+        <v>4.26</v>
+      </c>
+      <c r="PL1">
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="PM1">
+        <v>4.28</v>
+      </c>
+      <c r="PN1">
+        <v>4.29</v>
+      </c>
+      <c r="PO1">
+        <v>4.3</v>
+      </c>
+      <c r="PP1">
+        <v>4.3100000000000005</v>
+      </c>
+      <c r="PQ1">
+        <v>4.32</v>
+      </c>
+      <c r="PR1">
+        <v>4.33</v>
+      </c>
+      <c r="PS1">
+        <v>4.34</v>
+      </c>
+      <c r="PT1">
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="PU1">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="PV1">
+        <v>4.37</v>
+      </c>
+      <c r="PW1">
+        <v>4.38</v>
+      </c>
+      <c r="PX1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="PY1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="PZ1">
+        <v>4.41</v>
+      </c>
+      <c r="QA1">
+        <v>4.42</v>
+      </c>
+      <c r="QB1">
+        <v>4.43</v>
+      </c>
+      <c r="QC1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="QD1">
+        <v>4.45</v>
+      </c>
+      <c r="QE1">
+        <v>4.46</v>
+      </c>
+      <c r="QF1">
+        <v>4.47</v>
+      </c>
+      <c r="QG1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="QH1">
+        <v>4.49</v>
+      </c>
+      <c r="QI1">
+        <v>4.5</v>
+      </c>
+      <c r="QJ1">
+        <v>4.51</v>
+      </c>
+      <c r="QK1">
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="QL1">
+        <v>4.53</v>
+      </c>
+      <c r="QM1">
+        <v>4.54</v>
+      </c>
+      <c r="QN1">
+        <v>4.55</v>
+      </c>
+      <c r="QO1">
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="QP1">
+        <v>4.57</v>
+      </c>
+      <c r="QQ1">
+        <v>4.58</v>
+      </c>
+      <c r="QR1">
+        <v>4.59</v>
+      </c>
+      <c r="QS1">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="QT1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="QU1">
+        <v>4.62</v>
+      </c>
+      <c r="QV1">
+        <v>4.63</v>
+      </c>
+      <c r="QW1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="QX1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="QY1">
+        <v>4.66</v>
+      </c>
+      <c r="QZ1">
+        <v>4.67</v>
+      </c>
+      <c r="RA1">
+        <v>4.68</v>
+      </c>
+      <c r="RB1">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="RC1">
+        <v>4.7</v>
+      </c>
+      <c r="RD1">
+        <v>4.71</v>
+      </c>
+      <c r="RE1">
+        <v>4.72</v>
+      </c>
+      <c r="RF1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="RG1">
+        <v>4.74</v>
+      </c>
+      <c r="RH1">
+        <v>4.75</v>
+      </c>
+      <c r="RI1">
+        <v>4.76</v>
+      </c>
+      <c r="RJ1">
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="RK1">
+        <v>4.78</v>
+      </c>
+      <c r="RL1">
+        <v>4.79</v>
+      </c>
+      <c r="RM1">
+        <v>4.8</v>
+      </c>
+      <c r="RN1">
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="RO1">
+        <v>4.82</v>
+      </c>
+      <c r="RP1">
+        <v>4.83</v>
+      </c>
+      <c r="RQ1">
+        <v>4.84</v>
+      </c>
+      <c r="RR1">
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="RS1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="RT1">
+        <v>4.87</v>
+      </c>
+      <c r="RU1">
+        <v>4.88</v>
+      </c>
+      <c r="RV1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="RW1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="RX1">
+        <v>4.91</v>
+      </c>
+      <c r="RY1">
+        <v>4.92</v>
+      </c>
+      <c r="RZ1">
+        <v>4.93</v>
+      </c>
+      <c r="SA1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="SB1">
+        <v>4.95</v>
+      </c>
+      <c r="SC1">
+        <v>4.96</v>
+      </c>
+      <c r="SD1">
+        <v>4.97</v>
+      </c>
+      <c r="SE1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="SF1">
+        <v>4.99</v>
+      </c>
+      <c r="SG1">
+        <v>5</v>
+      </c>
+      <c r="SH1">
+        <v>5.01</v>
+      </c>
+      <c r="SI1">
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="SJ1">
+        <v>5.03</v>
+      </c>
+      <c r="SK1">
+        <v>5.04</v>
+      </c>
+      <c r="SL1">
+        <v>5.05</v>
+      </c>
+      <c r="SM1">
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="SN1">
+        <v>5.07</v>
+      </c>
+      <c r="SO1">
+        <v>5.08</v>
+      </c>
+      <c r="SP1">
+        <v>5.09</v>
+      </c>
+      <c r="SQ1">
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="SR1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="SS1">
+        <v>5.12</v>
+      </c>
+      <c r="ST1">
+        <v>5.13</v>
+      </c>
+      <c r="SU1">
+        <v>5.14</v>
+      </c>
+      <c r="SV1">
+        <v>5.15</v>
+      </c>
+      <c r="SW1">
+        <v>5.16</v>
+      </c>
+      <c r="SX1">
+        <v>5.17</v>
+      </c>
+      <c r="SY1">
+        <v>5.18</v>
+      </c>
+      <c r="SZ1">
+        <v>5.19</v>
+      </c>
+      <c r="TA1">
+        <v>5.2</v>
+      </c>
+      <c r="TB1">
+        <v>5.21</v>
+      </c>
+      <c r="TC1">
+        <v>5.22</v>
+      </c>
+      <c r="TD1">
+        <v>5.23</v>
+      </c>
+      <c r="TE1">
+        <v>5.24</v>
+      </c>
+      <c r="TF1">
+        <v>5.25</v>
+      </c>
+      <c r="TG1">
+        <v>5.26</v>
+      </c>
+      <c r="TH1">
+        <v>5.2700000000000005</v>
+      </c>
+      <c r="TI1">
+        <v>5.28</v>
+      </c>
+      <c r="TJ1">
+        <v>5.29</v>
+      </c>
+      <c r="TK1">
+        <v>5.3</v>
+      </c>
+      <c r="TL1">
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="TM1">
+        <v>5.32</v>
+      </c>
+      <c r="TN1">
+        <v>5.33</v>
+      </c>
+      <c r="TO1">
+        <v>5.34</v>
+      </c>
+      <c r="TP1">
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="TQ1">
+        <v>5.36</v>
+      </c>
+      <c r="TR1">
+        <v>5.37</v>
+      </c>
+      <c r="TS1">
+        <v>5.38</v>
+      </c>
+      <c r="TT1">
+        <v>5.39</v>
+      </c>
+      <c r="TU1">
+        <v>5.4</v>
+      </c>
+      <c r="TV1">
+        <v>5.41</v>
+      </c>
+      <c r="TW1">
+        <v>5.42</v>
+      </c>
+      <c r="TX1">
+        <v>5.43</v>
+      </c>
+      <c r="TY1">
+        <v>5.44</v>
+      </c>
+      <c r="TZ1">
+        <v>5.45</v>
+      </c>
+      <c r="UA1">
+        <v>5.46</v>
+      </c>
+      <c r="UB1">
+        <v>5.47</v>
+      </c>
+      <c r="UC1">
+        <v>5.48</v>
+      </c>
+      <c r="UD1">
+        <v>5.49</v>
+      </c>
+      <c r="UE1">
+        <v>5.5</v>
+      </c>
+      <c r="UF1">
+        <v>5.51</v>
+      </c>
+      <c r="UG1">
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="UH1">
+        <v>5.53</v>
+      </c>
+      <c r="UI1">
+        <v>5.54</v>
+      </c>
+      <c r="UJ1">
+        <v>5.55</v>
+      </c>
+      <c r="UK1">
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="UL1">
+        <v>5.57</v>
+      </c>
+      <c r="UM1">
+        <v>5.58</v>
+      </c>
+      <c r="UN1">
+        <v>5.59</v>
+      </c>
+      <c r="UO1">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="UP1">
+        <v>5.61</v>
+      </c>
+      <c r="UQ1">
+        <v>5.62</v>
+      </c>
+      <c r="UR1">
+        <v>5.63</v>
+      </c>
+      <c r="US1">
+        <v>5.64</v>
+      </c>
+      <c r="UT1">
+        <v>5.65</v>
+      </c>
+      <c r="UU1">
+        <v>5.66</v>
+      </c>
+      <c r="UV1">
+        <v>5.67</v>
+      </c>
+      <c r="UW1">
+        <v>5.68</v>
+      </c>
+      <c r="UX1">
+        <v>5.69</v>
+      </c>
+      <c r="UY1">
+        <v>5.7</v>
+      </c>
+      <c r="UZ1">
+        <v>5.71</v>
+      </c>
+      <c r="VA1">
+        <v>5.72</v>
+      </c>
+      <c r="VB1">
+        <v>5.73</v>
+      </c>
+      <c r="VC1">
+        <v>5.74</v>
+      </c>
+      <c r="VD1">
+        <v>5.75</v>
+      </c>
+      <c r="VE1">
+        <v>5.76</v>
+      </c>
+      <c r="VF1">
+        <v>5.7700000000000005</v>
+      </c>
+      <c r="VG1">
+        <v>5.78</v>
+      </c>
+      <c r="VH1">
+        <v>5.79</v>
+      </c>
+      <c r="VI1">
+        <v>5.8</v>
+      </c>
+      <c r="VJ1">
+        <v>5.8100000000000005</v>
+      </c>
+      <c r="VK1">
+        <v>5.82</v>
+      </c>
+      <c r="VL1">
+        <v>5.83</v>
+      </c>
+      <c r="VM1">
+        <v>5.84</v>
+      </c>
+      <c r="VN1">
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="VO1">
+        <v>5.86</v>
+      </c>
+      <c r="VP1">
+        <v>5.87</v>
+      </c>
+      <c r="VQ1">
+        <v>5.88</v>
+      </c>
+      <c r="VR1">
+        <v>5.89</v>
+      </c>
+      <c r="VS1">
+        <v>5.9</v>
+      </c>
+      <c r="VT1">
+        <v>5.91</v>
+      </c>
+      <c r="VU1">
+        <v>5.92</v>
+      </c>
+      <c r="VV1">
+        <v>5.93</v>
+      </c>
+      <c r="VW1">
+        <v>5.94</v>
+      </c>
+      <c r="VX1">
+        <v>5.95</v>
+      </c>
+      <c r="VY1">
+        <v>5.96</v>
+      </c>
+      <c r="VZ1">
+        <v>5.97</v>
+      </c>
+      <c r="WA1">
+        <v>5.98</v>
+      </c>
+      <c r="WB1">
+        <v>5.99</v>
+      </c>
+      <c r="WC1">
+        <v>6</v>
+      </c>
+      <c r="WD1">
+        <v>6.01</v>
+      </c>
+      <c r="WE1">
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="WF1">
+        <v>6.03</v>
+      </c>
+      <c r="WG1">
+        <v>6.04</v>
+      </c>
+      <c r="WH1">
+        <v>6.05</v>
+      </c>
+      <c r="WI1">
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="WJ1">
+        <v>6.07</v>
+      </c>
+      <c r="WK1">
+        <v>6.08</v>
+      </c>
+      <c r="WL1">
+        <v>6.09</v>
+      </c>
+      <c r="WM1">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="WN1">
+        <v>6.11</v>
+      </c>
+      <c r="WO1">
+        <v>6.12</v>
+      </c>
+      <c r="WP1">
+        <v>6.13</v>
+      </c>
+      <c r="WQ1">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="WR1">
+        <v>6.15</v>
+      </c>
+      <c r="WS1">
+        <v>6.16</v>
+      </c>
+      <c r="WT1">
+        <v>6.17</v>
+      </c>
+      <c r="WU1">
+        <v>6.18</v>
+      </c>
+      <c r="WV1">
+        <v>6.19</v>
+      </c>
+      <c r="WW1">
+        <v>6.2</v>
+      </c>
+      <c r="WX1">
+        <v>6.21</v>
+      </c>
+      <c r="WY1">
+        <v>6.22</v>
+      </c>
+      <c r="WZ1">
+        <v>6.23</v>
+      </c>
+      <c r="XA1">
+        <v>6.24</v>
+      </c>
+      <c r="XB1">
+        <v>6.25</v>
+      </c>
+      <c r="XC1">
+        <v>6.26</v>
+      </c>
+      <c r="XD1">
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="XE1">
+        <v>6.28</v>
+      </c>
+      <c r="XF1">
+        <v>6.29</v>
+      </c>
+      <c r="XG1">
+        <v>6.3</v>
+      </c>
+      <c r="XH1">
+        <v>6.3100000000000005</v>
+      </c>
+      <c r="XI1">
+        <v>6.32</v>
+      </c>
+      <c r="XJ1">
+        <v>6.33</v>
+      </c>
+      <c r="XK1">
+        <v>6.34</v>
+      </c>
+      <c r="XL1">
+        <v>6.3500000000000005</v>
+      </c>
+      <c r="XM1">
+        <v>6.36</v>
+      </c>
+      <c r="XN1">
+        <v>6.37</v>
+      </c>
+      <c r="XO1">
+        <v>6.38</v>
+      </c>
+      <c r="XP1">
+        <v>6.3900000000000006</v>
+      </c>
+      <c r="XQ1">
+        <v>6.4</v>
+      </c>
+      <c r="XR1">
+        <v>6.41</v>
+      </c>
+      <c r="XS1">
+        <v>6.42</v>
+      </c>
+      <c r="XT1">
+        <v>6.43</v>
+      </c>
+      <c r="XU1">
+        <v>6.44</v>
+      </c>
+      <c r="XV1">
+        <v>6.45</v>
+      </c>
+      <c r="XW1">
+        <v>6.46</v>
+      </c>
+      <c r="XX1">
+        <v>6.47</v>
+      </c>
+      <c r="XY1">
+        <v>6.48</v>
+      </c>
+      <c r="XZ1">
+        <v>6.49</v>
+      </c>
+      <c r="YA1">
+        <v>6.5</v>
+      </c>
+      <c r="YB1">
+        <v>6.51</v>
+      </c>
+      <c r="YC1">
+        <v>6.5200000000000005</v>
+      </c>
+      <c r="YD1">
+        <v>6.53</v>
+      </c>
+      <c r="YE1">
+        <v>6.54</v>
+      </c>
+      <c r="YF1">
+        <v>6.55</v>
+      </c>
+      <c r="YG1">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="YH1">
+        <v>6.57</v>
+      </c>
+      <c r="YI1">
+        <v>6.58</v>
+      </c>
+      <c r="YJ1">
+        <v>6.59</v>
+      </c>
+      <c r="YK1">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="YL1">
+        <v>6.61</v>
+      </c>
+      <c r="YM1">
+        <v>6.62</v>
+      </c>
+      <c r="YN1">
+        <v>6.63</v>
+      </c>
+      <c r="YO1">
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="YP1">
+        <v>6.65</v>
+      </c>
+      <c r="YQ1">
+        <v>6.66</v>
+      </c>
+      <c r="YR1">
+        <v>6.67</v>
+      </c>
+      <c r="YS1">
+        <v>6.68</v>
+      </c>
+      <c r="YT1">
+        <v>6.69</v>
+      </c>
+      <c r="YU1">
+        <v>6.7</v>
+      </c>
+      <c r="YV1">
+        <v>6.71</v>
+      </c>
+      <c r="YW1">
+        <v>6.72</v>
+      </c>
+      <c r="YX1">
+        <v>6.73</v>
+      </c>
+      <c r="YY1">
+        <v>6.74</v>
+      </c>
+      <c r="YZ1">
+        <v>6.75</v>
+      </c>
+      <c r="ZA1">
+        <v>6.76</v>
+      </c>
+      <c r="ZB1">
+        <v>6.7700000000000005</v>
+      </c>
+      <c r="ZC1">
+        <v>6.78</v>
+      </c>
+      <c r="ZD1">
+        <v>6.79</v>
+      </c>
+      <c r="ZE1">
+        <v>6.8</v>
+      </c>
+      <c r="ZF1">
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="ZG1">
+        <v>6.82</v>
+      </c>
+      <c r="ZH1">
+        <v>6.83</v>
+      </c>
+      <c r="ZI1">
+        <v>6.84</v>
+      </c>
+      <c r="ZJ1">
+        <v>6.8500000000000005</v>
+      </c>
+      <c r="ZK1">
+        <v>6.86</v>
+      </c>
+      <c r="ZL1">
+        <v>6.87</v>
+      </c>
+      <c r="ZM1">
+        <v>6.88</v>
+      </c>
+      <c r="ZN1">
+        <v>6.8900000000000006</v>
+      </c>
+      <c r="ZO1">
+        <v>6.9</v>
+      </c>
+      <c r="ZP1">
+        <v>6.91</v>
+      </c>
+      <c r="ZQ1">
+        <v>6.92</v>
+      </c>
+      <c r="ZR1">
+        <v>6.93</v>
+      </c>
+      <c r="ZS1">
+        <v>6.94</v>
+      </c>
+      <c r="ZT1">
+        <v>6.95</v>
+      </c>
+      <c r="ZU1">
+        <v>6.96</v>
+      </c>
+      <c r="ZV1">
+        <v>6.97</v>
+      </c>
+      <c r="ZW1">
+        <v>6.98</v>
+      </c>
+      <c r="ZX1">
+        <v>6.99</v>
+      </c>
+      <c r="ZY1">
+        <v>7</v>
+      </c>
+      <c r="ZZ1">
+        <v>7.01</v>
+      </c>
+      <c r="AAA1">
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="AAB1">
+        <v>7.03</v>
+      </c>
+      <c r="AAC1">
+        <v>7.04</v>
+      </c>
+      <c r="AAD1">
+        <v>7.05</v>
+      </c>
+      <c r="AAE1">
+        <v>7.0600000000000005</v>
+      </c>
+      <c r="AAF1">
+        <v>7.07</v>
+      </c>
+      <c r="AAG1">
+        <v>7.08</v>
+      </c>
+      <c r="AAH1">
+        <v>7.09</v>
+      </c>
+      <c r="AAI1">
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="AAJ1">
+        <v>7.11</v>
+      </c>
+      <c r="AAK1">
+        <v>7.12</v>
+      </c>
+      <c r="AAL1">
+        <v>7.13</v>
+      </c>
+      <c r="AAM1">
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="AAN1">
+        <v>7.15</v>
+      </c>
+      <c r="AAO1">
+        <v>7.16</v>
+      </c>
+      <c r="AAP1">
+        <v>7.17</v>
+      </c>
+      <c r="AAQ1">
+        <v>7.18</v>
+      </c>
+      <c r="AAR1">
+        <v>7.19</v>
+      </c>
+      <c r="AAS1">
+        <v>7.2</v>
+      </c>
+      <c r="AAT1">
+        <v>7.21</v>
+      </c>
+      <c r="AAU1">
+        <v>7.22</v>
+      </c>
+      <c r="AAV1">
+        <v>7.23</v>
+      </c>
+      <c r="AAW1">
+        <v>7.24</v>
+      </c>
+      <c r="AAX1">
+        <v>7.25</v>
+      </c>
+      <c r="AAY1">
+        <v>7.26</v>
+      </c>
+      <c r="AAZ1">
+        <v>7.2700000000000005</v>
+      </c>
+      <c r="ABA1">
+        <v>7.28</v>
+      </c>
+      <c r="ABB1">
+        <v>7.29</v>
+      </c>
+      <c r="ABC1">
+        <v>7.3</v>
+      </c>
+      <c r="ABD1">
+        <v>7.3100000000000005</v>
+      </c>
+      <c r="ABE1">
+        <v>7.32</v>
+      </c>
+      <c r="ABF1">
+        <v>7.33</v>
+      </c>
+      <c r="ABG1">
+        <v>7.34</v>
+      </c>
+      <c r="ABH1">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="ABI1">
+        <v>7.36</v>
+      </c>
+      <c r="ABJ1">
+        <v>7.37</v>
+      </c>
+      <c r="ABK1">
+        <v>7.38</v>
+      </c>
+      <c r="ABL1">
+        <v>7.3900000000000006</v>
+      </c>
+      <c r="ABM1">
+        <v>7.4</v>
+      </c>
+      <c r="ABN1">
+        <v>7.41</v>
+      </c>
+      <c r="ABO1">
+        <v>7.42</v>
+      </c>
+      <c r="ABP1">
+        <v>7.43</v>
+      </c>
+      <c r="ABQ1">
+        <v>7.44</v>
+      </c>
+      <c r="ABR1">
+        <v>7.45</v>
+      </c>
+      <c r="ABS1">
+        <v>7.46</v>
+      </c>
+      <c r="ABT1">
+        <v>7.47</v>
+      </c>
+      <c r="ABU1">
+        <v>7.48</v>
+      </c>
+      <c r="ABV1">
+        <v>7.49</v>
+      </c>
+      <c r="ABW1">
+        <v>7.5</v>
+      </c>
+      <c r="ABX1">
+        <v>7.51</v>
+      </c>
+      <c r="ABY1">
+        <v>7.5200000000000005</v>
+      </c>
+      <c r="ABZ1">
+        <v>7.53</v>
+      </c>
+      <c r="ACA1">
+        <v>7.54</v>
+      </c>
+      <c r="ACB1">
+        <v>7.55</v>
+      </c>
+      <c r="ACC1">
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="ACD1">
+        <v>7.57</v>
+      </c>
+      <c r="ACE1">
+        <v>7.58</v>
+      </c>
+      <c r="ACF1">
+        <v>7.59</v>
+      </c>
+      <c r="ACG1">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="ACH1">
+        <v>7.61</v>
+      </c>
+      <c r="ACI1">
+        <v>7.62</v>
+      </c>
+      <c r="ACJ1">
+        <v>7.63</v>
+      </c>
+      <c r="ACK1">
+        <v>7.6400000000000006</v>
+      </c>
+      <c r="ACL1">
+        <v>7.65</v>
+      </c>
+      <c r="ACM1">
+        <v>7.66</v>
+      </c>
+      <c r="ACN1">
+        <v>7.67</v>
+      </c>
+      <c r="ACO1">
+        <v>7.68</v>
+      </c>
+      <c r="ACP1">
+        <v>7.69</v>
+      </c>
+      <c r="ACQ1">
+        <v>7.7</v>
+      </c>
+      <c r="ACR1">
+        <v>7.71</v>
+      </c>
+      <c r="ACS1">
+        <v>7.72</v>
+      </c>
+      <c r="ACT1">
+        <v>7.73</v>
+      </c>
+      <c r="ACU1">
+        <v>7.74</v>
+      </c>
+      <c r="ACV1">
+        <v>7.75</v>
+      </c>
+      <c r="ACW1">
+        <v>7.76</v>
+      </c>
+      <c r="ACX1">
+        <v>7.7700000000000005</v>
+      </c>
+      <c r="ACY1">
+        <v>7.78</v>
+      </c>
+      <c r="ACZ1">
+        <v>7.79</v>
+      </c>
+      <c r="ADA1">
+        <v>7.8</v>
+      </c>
+      <c r="ADB1">
+        <v>7.8100000000000005</v>
+      </c>
+      <c r="ADC1">
+        <v>7.82</v>
+      </c>
+      <c r="ADD1">
+        <v>7.83</v>
+      </c>
+      <c r="ADE1">
+        <v>7.84</v>
+      </c>
+      <c r="ADF1">
+        <v>7.8500000000000005</v>
+      </c>
+      <c r="ADG1">
+        <v>7.86</v>
+      </c>
+      <c r="ADH1">
+        <v>7.87</v>
+      </c>
+      <c r="ADI1">
+        <v>7.88</v>
+      </c>
+      <c r="ADJ1">
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="ADK1">
+        <v>7.9</v>
+      </c>
+      <c r="ADL1">
+        <v>7.91</v>
+      </c>
+      <c r="ADM1">
+        <v>7.92</v>
+      </c>
+      <c r="ADN1">
+        <v>7.9300000000000006</v>
+      </c>
+      <c r="ADO1">
+        <v>7.94</v>
+      </c>
+      <c r="ADP1">
+        <v>7.95</v>
+      </c>
+      <c r="ADQ1">
+        <v>7.96</v>
+      </c>
+      <c r="ADR1">
+        <v>7.97</v>
+      </c>
+      <c r="ADS1">
+        <v>7.98</v>
+      </c>
+      <c r="ADT1">
+        <v>7.99</v>
+      </c>
+      <c r="ADU1">
+        <v>8</v>
+      </c>
+      <c r="ADV1">
+        <v>8.01</v>
+      </c>
+      <c r="ADW1">
+        <v>8.02</v>
+      </c>
+      <c r="ADX1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="ADY1">
+        <v>8.0400000000000009</v>
+      </c>
+      <c r="ADZ1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AEA1">
+        <v>8.06</v>
+      </c>
+      <c r="AEB1">
+        <v>8.07</v>
+      </c>
+      <c r="AEC1">
+        <v>8.08</v>
+      </c>
+      <c r="AED1">
+        <v>8.09</v>
+      </c>
+      <c r="AEE1">
+        <v>8.1</v>
+      </c>
+      <c r="AEF1">
+        <v>8.11</v>
+      </c>
+      <c r="AEG1">
+        <v>8.120000000000001</v>
+      </c>
+      <c r="AEH1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AEI1">
+        <v>8.14</v>
+      </c>
+      <c r="AEJ1">
+        <v>8.15</v>
+      </c>
+      <c r="AEK1">
+        <v>8.16</v>
+      </c>
+      <c r="AEL1">
+        <v>8.17</v>
+      </c>
+      <c r="AEM1">
+        <v>8.18</v>
+      </c>
+      <c r="AEN1">
+        <v>8.19</v>
+      </c>
+      <c r="AEO1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AEP1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AEQ1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="AER1">
+        <v>8.23</v>
+      </c>
+      <c r="AES1">
+        <v>8.24</v>
+      </c>
+      <c r="AET1">
+        <v>8.25</v>
+      </c>
+      <c r="AEU1">
+        <v>8.26</v>
+      </c>
+      <c r="AEV1">
+        <v>8.27</v>
+      </c>
+      <c r="AEW1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AEX1">
+        <v>8.2900000000000009</v>
+      </c>
+      <c r="AEY1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AEZ1">
+        <v>8.31</v>
+      </c>
+      <c r="AFA1">
+        <v>8.32</v>
+      </c>
+      <c r="AFB1">
+        <v>8.33</v>
+      </c>
+      <c r="AFC1">
+        <v>8.34</v>
+      </c>
+      <c r="AFD1">
+        <v>8.35</v>
+      </c>
+      <c r="AFE1">
+        <v>8.36</v>
+      </c>
+      <c r="AFF1">
+        <v>8.370000000000001</v>
+      </c>
+      <c r="AFG1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AFH1">
+        <v>8.39</v>
+      </c>
+      <c r="AFI1">
+        <v>8.4</v>
+      </c>
+      <c r="AFJ1">
+        <v>8.41</v>
+      </c>
+      <c r="AFK1">
+        <v>8.42</v>
+      </c>
+      <c r="AFL1">
+        <v>8.43</v>
+      </c>
+      <c r="AFM1">
+        <v>8.44</v>
+      </c>
+      <c r="AFN1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="AFO1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="AFP1">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="AFQ1">
+        <v>8.48</v>
+      </c>
+      <c r="AFR1">
+        <v>8.49</v>
+      </c>
+      <c r="AFS1">
+        <v>8.5</v>
+      </c>
+      <c r="AFT1">
+        <v>8.51</v>
+      </c>
+      <c r="AFU1">
+        <v>8.52</v>
+      </c>
+      <c r="AFV1">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="AFW1">
+        <v>8.5400000000000009</v>
+      </c>
+      <c r="AFX1">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="AFY1">
+        <v>8.56</v>
+      </c>
+      <c r="AFZ1">
+        <v>8.57</v>
+      </c>
+      <c r="AGA1">
+        <v>8.58</v>
+      </c>
+      <c r="AGB1">
+        <v>8.59</v>
+      </c>
+      <c r="AGC1">
+        <v>8.6</v>
+      </c>
+      <c r="AGD1">
+        <v>8.61</v>
+      </c>
+      <c r="AGE1">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="AGF1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="AGG1">
+        <v>8.64</v>
+      </c>
+      <c r="AGH1">
+        <v>8.65</v>
+      </c>
+      <c r="AGI1">
+        <v>8.66</v>
+      </c>
+      <c r="AGJ1">
+        <v>8.67</v>
+      </c>
+      <c r="AGK1">
+        <v>8.68</v>
+      </c>
+      <c r="AGL1">
+        <v>8.69</v>
+      </c>
+      <c r="AGM1">
+        <v>8.7000000000000011</v>
+      </c>
+      <c r="AGN1">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AGO1">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="AGP1">
+        <v>8.73</v>
+      </c>
+      <c r="AGQ1">
+        <v>8.74</v>
+      </c>
+      <c r="AGR1">
+        <v>8.75</v>
+      </c>
+      <c r="AGS1">
+        <v>8.76</v>
+      </c>
+      <c r="AGT1">
+        <v>8.77</v>
+      </c>
+      <c r="AGU1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AGV1">
+        <v>8.7900000000000009</v>
+      </c>
+      <c r="AGW1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AGX1">
+        <v>8.81</v>
+      </c>
+      <c r="AGY1">
+        <v>8.82</v>
+      </c>
+      <c r="AGZ1">
+        <v>8.83</v>
+      </c>
+      <c r="AHA1">
+        <v>8.84</v>
+      </c>
+      <c r="AHB1">
+        <v>8.85</v>
+      </c>
+      <c r="AHC1">
+        <v>8.86</v>
+      </c>
+      <c r="AHD1">
+        <v>8.870000000000001</v>
+      </c>
+      <c r="AHE1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="AHF1">
+        <v>8.89</v>
+      </c>
+      <c r="AHG1">
+        <v>8.9</v>
+      </c>
+      <c r="AHH1">
+        <v>8.91</v>
+      </c>
+      <c r="AHI1">
+        <v>8.92</v>
+      </c>
+      <c r="AHJ1">
+        <v>8.93</v>
+      </c>
+      <c r="AHK1">
+        <v>8.94</v>
+      </c>
+      <c r="AHL1">
+        <v>8.9500000000000011</v>
+      </c>
+      <c r="AHM1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="AHN1">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="AHO1">
+        <v>8.98</v>
+      </c>
+      <c r="AHP1">
+        <v>8.99</v>
+      </c>
+      <c r="AHQ1">
+        <v>9</v>
+      </c>
+      <c r="AHR1">
+        <v>9.01</v>
+      </c>
+      <c r="AHS1">
+        <v>9.02</v>
+      </c>
+      <c r="AHT1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="AHU1">
+        <v>9.0400000000000009</v>
+      </c>
+      <c r="AHV1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AHW1">
+        <v>9.06</v>
+      </c>
+      <c r="AHX1">
+        <v>9.07</v>
+      </c>
+      <c r="AHY1">
+        <v>9.08</v>
+      </c>
+      <c r="AHZ1">
+        <v>9.09</v>
+      </c>
+      <c r="AIA1">
+        <v>9.1</v>
+      </c>
+      <c r="AIB1">
+        <v>9.11</v>
+      </c>
+      <c r="AIC1">
+        <v>9.120000000000001</v>
+      </c>
+      <c r="AID1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AIE1">
+        <v>9.14</v>
+      </c>
+      <c r="AIF1">
+        <v>9.15</v>
+      </c>
+      <c r="AIG1">
+        <v>9.16</v>
+      </c>
+      <c r="AIH1">
+        <v>9.17</v>
+      </c>
+      <c r="AII1">
+        <v>9.18</v>
+      </c>
+      <c r="AIJ1">
+        <v>9.19</v>
+      </c>
+      <c r="AIK1">
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="AIL1">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="AIM1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="AIN1">
+        <v>9.23</v>
+      </c>
+      <c r="AIO1">
+        <v>9.24</v>
+      </c>
+      <c r="AIP1">
+        <v>9.25</v>
+      </c>
+      <c r="AIQ1">
+        <v>9.26</v>
+      </c>
+      <c r="AIR1">
+        <v>9.27</v>
+      </c>
+      <c r="AIS1">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AIT1">
+        <v>9.2900000000000009</v>
+      </c>
+      <c r="AIU1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AIV1">
+        <v>9.31</v>
+      </c>
+      <c r="AIW1">
+        <v>9.32</v>
+      </c>
+      <c r="AIX1">
+        <v>9.33</v>
+      </c>
+      <c r="AIY1">
+        <v>9.34</v>
+      </c>
+      <c r="AIZ1">
+        <v>9.35</v>
+      </c>
+      <c r="AJA1">
+        <v>9.36</v>
+      </c>
+      <c r="AJB1">
+        <v>9.370000000000001</v>
+      </c>
+      <c r="AJC1">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="AJD1">
+        <v>9.39</v>
+      </c>
+      <c r="AJE1">
+        <v>9.4</v>
+      </c>
+      <c r="AJF1">
+        <v>9.41</v>
+      </c>
+      <c r="AJG1">
+        <v>9.42</v>
+      </c>
+      <c r="AJH1">
+        <v>9.43</v>
+      </c>
+      <c r="AJI1">
+        <v>9.44</v>
+      </c>
+      <c r="AJJ1">
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="AJK1">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="AJL1">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AJM1">
+        <v>9.48</v>
+      </c>
+      <c r="AJN1">
+        <v>9.49</v>
+      </c>
+      <c r="AJO1">
+        <v>9.5</v>
+      </c>
+      <c r="AJP1">
+        <v>9.51</v>
+      </c>
+      <c r="AJQ1">
+        <v>9.52</v>
+      </c>
+      <c r="AJR1">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AJS1">
+        <v>9.5400000000000009</v>
+      </c>
+      <c r="AJT1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="AJU1">
+        <v>9.56</v>
+      </c>
+      <c r="AJV1">
+        <v>9.57</v>
+      </c>
+      <c r="AJW1">
+        <v>9.58</v>
+      </c>
+      <c r="AJX1">
+        <v>9.59</v>
+      </c>
+      <c r="AJY1">
+        <v>9.6</v>
+      </c>
+      <c r="AJZ1">
+        <v>9.61</v>
+      </c>
+      <c r="AKA1">
+        <v>9.620000000000001</v>
+      </c>
+      <c r="AKB1">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="AKC1">
+        <v>9.64</v>
+      </c>
+      <c r="AKD1">
+        <v>9.65</v>
+      </c>
+      <c r="AKE1">
+        <v>9.66</v>
+      </c>
+      <c r="AKF1">
+        <v>9.67</v>
+      </c>
+      <c r="AKG1">
+        <v>9.68</v>
+      </c>
+      <c r="AKH1">
+        <v>9.69</v>
+      </c>
+      <c r="AKI1">
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="AKJ1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AKK1">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="AKL1">
+        <v>9.73</v>
+      </c>
+      <c r="AKM1">
+        <v>9.74</v>
+      </c>
+      <c r="AKN1">
+        <v>9.75</v>
+      </c>
+      <c r="AKO1">
+        <v>9.76</v>
+      </c>
+      <c r="AKP1">
+        <v>9.77</v>
+      </c>
+      <c r="AKQ1">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="AKR1">
+        <v>9.7900000000000009</v>
+      </c>
+      <c r="AKS1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AKT1">
+        <v>9.81</v>
+      </c>
+      <c r="AKU1">
+        <v>9.82</v>
+      </c>
+      <c r="AKV1">
+        <v>9.83</v>
+      </c>
+      <c r="AKW1">
+        <v>9.84</v>
+      </c>
+      <c r="AKX1">
+        <v>9.85</v>
+      </c>
+      <c r="AKY1">
+        <v>9.86</v>
+      </c>
+      <c r="AKZ1">
+        <v>9.870000000000001</v>
+      </c>
+      <c r="ALA1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="ALB1">
+        <v>9.89</v>
+      </c>
+      <c r="ALC1">
+        <v>9.9</v>
+      </c>
+      <c r="ALD1">
+        <v>9.91</v>
+      </c>
+      <c r="ALE1">
+        <v>9.92</v>
+      </c>
+      <c r="ALF1">
+        <v>9.93</v>
+      </c>
+      <c r="ALG1">
+        <v>9.94</v>
+      </c>
+      <c r="ALH1">
+        <v>9.9500000000000011</v>
+      </c>
+      <c r="ALI1">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="ALJ1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="ALK1">
+        <v>9.98</v>
+      </c>
+      <c r="ALL1">
+        <v>9.99</v>
+      </c>
+      <c r="ALM1">
+        <v>10</v>
+      </c>
+      <c r="ALN1">
+        <v>10.01</v>
+      </c>
+      <c r="ALO1">
+        <v>10.02</v>
+      </c>
+      <c r="ALP1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="ALQ1">
+        <v>10.040000000000001</v>
+      </c>
+      <c r="ALR1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="ALS1">
+        <v>10.06</v>
+      </c>
+      <c r="ALT1">
+        <v>10.07</v>
+      </c>
+      <c r="ALU1">
+        <v>10.08</v>
+      </c>
+      <c r="ALV1">
+        <v>10.09</v>
+      </c>
+      <c r="ALW1">
+        <v>10.1</v>
+      </c>
+      <c r="ALX1">
+        <v>10.11</v>
+      </c>
+      <c r="ALY1">
+        <v>10.120000000000001</v>
+      </c>
+      <c r="ALZ1">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AMA1">
+        <v>10.14</v>
+      </c>
+      <c r="AMB1">
+        <v>10.15</v>
+      </c>
+      <c r="AMC1">
+        <v>10.16</v>
+      </c>
+      <c r="AMD1">
+        <v>10.17</v>
+      </c>
+      <c r="AME1">
+        <v>10.18</v>
+      </c>
+      <c r="AMF1">
+        <v>10.19</v>
+      </c>
+      <c r="AMG1">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="AMH1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="AMI1">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AMJ1">
+        <v>10.23</v>
+      </c>
+      <c r="AMK1">
+        <v>10.24</v>
+      </c>
+      <c r="AML1">
+        <v>10.25</v>
+      </c>
+      <c r="AMM1">
+        <v>10.26</v>
+      </c>
+      <c r="AMN1">
+        <v>10.27</v>
+      </c>
+      <c r="AMO1">
+        <v>10.28</v>
+      </c>
+      <c r="AMP1">
+        <v>10.290000000000001</v>
+      </c>
+      <c r="AMQ1">
+        <v>10.3</v>
+      </c>
+      <c r="AMR1">
+        <v>10.31</v>
+      </c>
+      <c r="AMS1">
+        <v>10.32</v>
+      </c>
+      <c r="AMT1">
+        <v>10.33</v>
+      </c>
+      <c r="AMU1">
+        <v>10.34</v>
+      </c>
+      <c r="AMV1">
+        <v>10.35</v>
+      </c>
+      <c r="AMW1">
+        <v>10.36</v>
+      </c>
+      <c r="AMX1">
+        <v>10.370000000000001</v>
+      </c>
+      <c r="AMY1">
+        <v>10.38</v>
+      </c>
+      <c r="AMZ1">
+        <v>10.39</v>
+      </c>
+      <c r="ANA1">
+        <v>10.4</v>
+      </c>
+      <c r="ANB1">
+        <v>10.41</v>
+      </c>
+      <c r="ANC1">
+        <v>10.42</v>
+      </c>
+      <c r="AND1">
+        <v>10.43</v>
+      </c>
+      <c r="ANE1">
+        <v>10.44</v>
+      </c>
+      <c r="ANF1">
+        <v>10.450000000000001</v>
+      </c>
+      <c r="ANG1">
+        <v>10.46</v>
+      </c>
+      <c r="ANH1">
+        <v>10.47</v>
+      </c>
+      <c r="ANI1">
+        <v>10.48</v>
+      </c>
+      <c r="ANJ1">
+        <v>10.49</v>
+      </c>
+      <c r="ANK1">
+        <v>10.5</v>
+      </c>
+      <c r="ANL1">
+        <v>10.51</v>
+      </c>
+      <c r="ANM1">
+        <v>10.52</v>
+      </c>
+      <c r="ANN1">
+        <v>10.53</v>
+      </c>
+      <c r="ANO1">
+        <v>10.540000000000001</v>
+      </c>
+      <c r="ANP1">
+        <v>10.55</v>
+      </c>
+      <c r="ANQ1">
+        <v>10.56</v>
+      </c>
+      <c r="ANR1">
+        <v>10.57</v>
+      </c>
+      <c r="ANS1">
+        <v>10.58</v>
+      </c>
+      <c r="ANT1">
+        <v>10.59</v>
+      </c>
+      <c r="ANU1">
+        <v>10.6</v>
+      </c>
+      <c r="ANV1">
+        <v>10.61</v>
+      </c>
+      <c r="ANW1">
+        <v>10.620000000000001</v>
+      </c>
+      <c r="ANX1">
+        <v>10.63</v>
+      </c>
+      <c r="ANY1">
+        <v>10.64</v>
+      </c>
+      <c r="ANZ1">
+        <v>10.65</v>
+      </c>
+      <c r="AOA1">
+        <v>10.66</v>
+      </c>
+      <c r="AOB1">
+        <v>10.67</v>
+      </c>
+      <c r="AOC1">
+        <v>10.68</v>
+      </c>
+      <c r="AOD1">
+        <v>10.69</v>
+      </c>
+      <c r="AOE1">
+        <v>10.700000000000001</v>
+      </c>
+      <c r="AOF1">
+        <v>10.71</v>
+      </c>
+      <c r="AOG1">
+        <v>10.72</v>
+      </c>
+      <c r="AOH1">
+        <v>10.73</v>
+      </c>
+      <c r="AOI1">
+        <v>10.74</v>
+      </c>
+      <c r="AOJ1">
+        <v>10.75</v>
+      </c>
+      <c r="AOK1">
+        <v>10.76</v>
+      </c>
+      <c r="AOL1">
+        <v>10.77</v>
+      </c>
+      <c r="AOM1">
+        <v>10.78</v>
+      </c>
+      <c r="AON1">
+        <v>10.790000000000001</v>
+      </c>
+      <c r="AOO1">
+        <v>10.8</v>
+      </c>
+      <c r="AOP1">
+        <v>10.81</v>
+      </c>
+      <c r="AOQ1">
+        <v>10.82</v>
+      </c>
+      <c r="AOR1">
+        <v>10.83</v>
+      </c>
+      <c r="AOS1">
+        <v>10.84</v>
+      </c>
+      <c r="AOT1">
+        <v>10.85</v>
+      </c>
+      <c r="AOU1">
+        <v>10.86</v>
+      </c>
+      <c r="AOV1">
+        <v>10.870000000000001</v>
+      </c>
+      <c r="AOW1">
+        <v>10.88</v>
+      </c>
+      <c r="AOX1">
+        <v>10.89</v>
+      </c>
+      <c r="AOY1">
+        <v>10.9</v>
+      </c>
+      <c r="AOZ1">
+        <v>10.91</v>
+      </c>
+      <c r="APA1">
+        <v>10.92</v>
+      </c>
+      <c r="APB1">
+        <v>10.93</v>
+      </c>
+      <c r="APC1">
+        <v>10.94</v>
+      </c>
+      <c r="APD1">
+        <v>10.950000000000001</v>
+      </c>
+      <c r="APE1">
+        <v>10.96</v>
+      </c>
+      <c r="APF1">
+        <v>10.97</v>
+      </c>
+      <c r="APG1">
+        <v>10.98</v>
+      </c>
+      <c r="APH1">
+        <v>10.99</v>
+      </c>
+      <c r="API1">
+        <v>11</v>
+      </c>
+      <c r="APJ1">
+        <v>11.01</v>
+      </c>
+      <c r="APK1">
+        <v>11.02</v>
+      </c>
+      <c r="APL1">
+        <v>11.03</v>
+      </c>
+      <c r="APM1">
+        <v>11.040000000000001</v>
+      </c>
+      <c r="APN1">
+        <v>11.05</v>
+      </c>
+      <c r="APO1">
+        <v>11.06</v>
+      </c>
+      <c r="APP1">
+        <v>11.07</v>
+      </c>
+      <c r="APQ1">
+        <v>11.08</v>
+      </c>
+      <c r="APR1">
+        <v>11.09</v>
+      </c>
+      <c r="APS1">
+        <v>11.1</v>
+      </c>
+      <c r="APT1">
+        <v>11.11</v>
+      </c>
+      <c r="APU1">
+        <v>11.120000000000001</v>
+      </c>
+      <c r="APV1">
+        <v>11.13</v>
+      </c>
+      <c r="APW1">
+        <v>11.14</v>
+      </c>
+      <c r="APX1">
+        <v>11.15</v>
+      </c>
+      <c r="APY1">
+        <v>11.16</v>
+      </c>
+      <c r="APZ1">
+        <v>11.17</v>
+      </c>
+      <c r="AQA1">
+        <v>11.18</v>
+      </c>
+      <c r="AQB1">
+        <v>11.19</v>
+      </c>
+      <c r="AQC1">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="AQD1">
+        <v>11.21</v>
+      </c>
+      <c r="AQE1">
+        <v>11.22</v>
+      </c>
+      <c r="AQF1">
+        <v>11.23</v>
+      </c>
+      <c r="AQG1">
+        <v>11.24</v>
+      </c>
+      <c r="AQH1">
+        <v>11.25</v>
+      </c>
+      <c r="AQI1">
+        <v>11.26</v>
+      </c>
+      <c r="AQJ1">
+        <v>11.27</v>
+      </c>
+      <c r="AQK1">
+        <v>11.28</v>
+      </c>
+      <c r="AQL1">
+        <v>11.290000000000001</v>
+      </c>
+      <c r="AQM1">
+        <v>11.3</v>
+      </c>
+      <c r="AQN1">
+        <v>11.31</v>
+      </c>
+      <c r="AQO1">
+        <v>11.32</v>
+      </c>
+      <c r="AQP1">
+        <v>11.33</v>
+      </c>
+      <c r="AQQ1">
+        <v>11.34</v>
+      </c>
+      <c r="AQR1">
+        <v>11.35</v>
+      </c>
+      <c r="AQS1">
+        <v>11.36</v>
+      </c>
+      <c r="AQT1">
+        <v>11.370000000000001</v>
+      </c>
+      <c r="AQU1">
+        <v>11.38</v>
+      </c>
+      <c r="AQV1">
+        <v>11.39</v>
+      </c>
+      <c r="AQW1">
+        <v>11.4</v>
+      </c>
+      <c r="AQX1">
+        <v>11.41</v>
+      </c>
+      <c r="AQY1">
+        <v>11.42</v>
+      </c>
+      <c r="AQZ1">
+        <v>11.43</v>
+      </c>
+      <c r="ARA1">
+        <v>11.44</v>
+      </c>
+      <c r="ARB1">
+        <v>11.450000000000001</v>
+      </c>
+      <c r="ARC1">
+        <v>11.46</v>
+      </c>
+      <c r="ARD1">
+        <v>11.47</v>
+      </c>
+      <c r="ARE1">
+        <v>11.48</v>
+      </c>
+      <c r="ARF1">
+        <v>11.49</v>
+      </c>
+      <c r="ARG1">
+        <v>11.5</v>
+      </c>
+      <c r="ARH1">
+        <v>11.51</v>
+      </c>
+      <c r="ARI1">
+        <v>11.52</v>
+      </c>
+      <c r="ARJ1">
+        <v>11.53</v>
+      </c>
+      <c r="ARK1">
+        <v>11.540000000000001</v>
+      </c>
+      <c r="ARL1">
+        <v>11.55</v>
+      </c>
+      <c r="ARM1">
+        <v>11.56</v>
+      </c>
+      <c r="ARN1">
+        <v>11.57</v>
+      </c>
+      <c r="ARO1">
+        <v>11.58</v>
+      </c>
+      <c r="ARP1">
+        <v>11.59</v>
+      </c>
+      <c r="ARQ1">
+        <v>11.6</v>
+      </c>
+      <c r="ARR1">
+        <v>11.61</v>
+      </c>
+      <c r="ARS1">
+        <v>11.620000000000001</v>
+      </c>
+      <c r="ART1">
+        <v>11.63</v>
+      </c>
+      <c r="ARU1">
+        <v>11.64</v>
+      </c>
+      <c r="ARV1">
+        <v>11.65</v>
+      </c>
+      <c r="ARW1">
+        <v>11.66</v>
+      </c>
+      <c r="ARX1">
+        <v>11.67</v>
+      </c>
+      <c r="ARY1">
+        <v>11.68</v>
+      </c>
+      <c r="ARZ1">
+        <v>11.69</v>
+      </c>
+      <c r="ASA1">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="ASB1">
+        <v>11.71</v>
+      </c>
+      <c r="ASC1">
+        <v>11.72</v>
+      </c>
+      <c r="ASD1">
+        <v>11.73</v>
+      </c>
+      <c r="ASE1">
+        <v>11.74</v>
+      </c>
+      <c r="ASF1">
+        <v>11.75</v>
+      </c>
+      <c r="ASG1">
+        <v>11.76</v>
+      </c>
+      <c r="ASH1">
+        <v>11.77</v>
+      </c>
+      <c r="ASI1">
+        <v>11.78</v>
+      </c>
+      <c r="ASJ1">
+        <v>11.790000000000001</v>
+      </c>
+      <c r="ASK1">
+        <v>11.8</v>
+      </c>
+      <c r="ASL1">
+        <v>11.81</v>
+      </c>
+      <c r="ASM1">
+        <v>11.82</v>
+      </c>
+      <c r="ASN1">
+        <v>11.83</v>
+      </c>
+      <c r="ASO1">
+        <v>11.84</v>
+      </c>
+      <c r="ASP1">
+        <v>11.85</v>
+      </c>
+      <c r="ASQ1">
+        <v>11.86</v>
+      </c>
+      <c r="ASR1">
+        <v>11.870000000000001</v>
+      </c>
+      <c r="ASS1">
+        <v>11.88</v>
+      </c>
+      <c r="AST1">
+        <v>11.89</v>
+      </c>
+      <c r="ASU1">
+        <v>11.9</v>
+      </c>
+      <c r="ASV1">
+        <v>11.91</v>
+      </c>
+      <c r="ASW1">
+        <v>11.92</v>
+      </c>
+      <c r="ASX1">
+        <v>11.93</v>
+      </c>
+      <c r="ASY1">
+        <v>11.94</v>
+      </c>
+      <c r="ASZ1">
+        <v>11.950000000000001</v>
+      </c>
+      <c r="ATA1">
+        <v>11.96</v>
+      </c>
+      <c r="ATB1">
+        <v>11.97</v>
+      </c>
+      <c r="ATC1">
+        <v>11.98</v>
+      </c>
+      <c r="ATD1">
+        <v>11.99</v>
+      </c>
+      <c r="ATE1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:401" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1201" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.13996564684475604</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.50831797842101412</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.90945300957016395</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.3070391410079285</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.7013124314537764</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.0923004847765809</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.480030674839135</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.8645301474146416</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.2310259084588644</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.4926002978299895</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.6690756333083701</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.791811354298682</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.87121693928801</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.9220940274858265</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.9528276406027234</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.9732128931838258</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.9874036345665957</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.9975696059142294</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>4.0013365407280572</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.004667749333664</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.0079712010243549</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.0112471270814538</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4.01242112408117</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>4.0086432827876814</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.0048969199249278</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>4.0011817732024744</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>3.9974975825154071</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.9938440899260992</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.9902210396461584</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.9866281780185222</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.9830652534996962</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.9795320166421444</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.9760282200768216</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.9725536184958576</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.9691079686353841</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.9655017728429005</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.9609208825438311</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.9563781619895346</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.9518732931349749</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.947405960585193</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.9429758515732165</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.938582655938176</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>3.9342260661035757</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.9299057770557688</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>3.9256214863225973</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3.9213728939522206</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>3.917159702492111</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.9129816169682305</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.9088383448643791</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>3.9047295961017121</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>3.9006550830184379</v>
+        <v>0.14007177789851818</v>
       </c>
       <c r="BA2">
-        <v>3.8966145203496687</v>
+        <v>0.50705294447862193</v>
       </c>
       <c r="BB2">
-        <v>3.8926076252074591</v>
+        <v>0.9065979307868538</v>
       </c>
       <c r="BC2">
-        <v>3.8886341170609917</v>
+        <v>1.3028137541688669</v>
       </c>
       <c r="BD2">
-        <v>3.8846937177169409</v>
+        <v>1.6957281544942122</v>
       </c>
       <c r="BE2">
-        <v>3.8807861512999953</v>
+        <v>2.0853686404931158</v>
       </c>
       <c r="BF2">
-        <v>3.8769111442335431</v>
+        <v>2.4717624916824446</v>
       </c>
       <c r="BG2">
-        <v>3.8730684252205161</v>
+        <v>2.8549367602756348</v>
       </c>
       <c r="BH2">
-        <v>3.8692577252244016</v>
+        <v>3.2222419022008264</v>
       </c>
       <c r="BI2">
-        <v>3.8654787774504036</v>
+        <v>3.4869727425011265</v>
       </c>
       <c r="BJ2">
-        <v>3.861731317326758</v>
+        <v>3.6643050285099728</v>
       </c>
       <c r="BK2">
-        <v>3.8580150824862192</v>
+        <v>3.7888335778389792</v>
       </c>
       <c r="BL2">
-        <v>3.8543298127476846</v>
+        <v>3.8697187855650976</v>
       </c>
       <c r="BM2">
-        <v>3.8506752500979795</v>
+        <v>3.9212347884845928</v>
       </c>
       <c r="BN2">
-        <v>3.8470511386737991</v>
+        <v>3.9544810067739498</v>
       </c>
       <c r="BO2">
-        <v>3.8434572247437861</v>
+        <v>3.9754647607762208</v>
       </c>
       <c r="BP2">
-        <v>3.8398932566907722</v>
+        <v>3.9884157725269382</v>
       </c>
       <c r="BQ2">
-        <v>3.8363589849941611</v>
+        <v>3.9982280086845572</v>
       </c>
       <c r="BR2">
-        <v>3.8328541622124588</v>
+        <v>4.0013589977151804</v>
       </c>
       <c r="BS2">
-        <v>3.8293785429659462</v>
+        <v>4.0044638981376117</v>
       </c>
       <c r="BT2">
-        <v>3.8259318839195049</v>
+        <v>4.0075429273321959</v>
       </c>
       <c r="BU2">
-        <v>3.8225139437655793</v>
+        <v>4.0105963008679817</v>
       </c>
       <c r="BV2">
-        <v>3.819124483207279</v>
+        <v>4.0134153655030049</v>
       </c>
       <c r="BW2">
-        <v>3.81576326494163</v>
+        <v>4.010715732683253</v>
       </c>
       <c r="BX2">
-        <v>3.8124300536429572</v>
+        <v>4.0080385942453738</v>
       </c>
       <c r="BY2">
-        <v>3.8091246159464087</v>
+        <v>4.0053837627575017</v>
       </c>
       <c r="BZ2">
-        <v>3.8058467204316195</v>
+        <v>4.0027510523495282</v>
       </c>
       <c r="CA2">
-        <v>3.8025961376065096</v>
+        <v>4.0001402787000835</v>
       </c>
       <c r="CB2">
-        <v>3.7993726398912147</v>
+        <v>3.997551259023632</v>
       </c>
       <c r="CC2">
-        <v>3.7961760016021531</v>
+        <v>3.9949838120576833</v>
       </c>
       <c r="CD2">
-        <v>3.7930779837688222</v>
+        <v>3.99243775805009</v>
       </c>
       <c r="CE2">
-        <v>3.7904526683904134</v>
+        <v>3.9899129187464752</v>
       </c>
       <c r="CF2">
-        <v>3.7878492281522944</v>
+        <v>3.9874091173777413</v>
       </c>
       <c r="CG2">
-        <v>3.785267480782359</v>
+        <v>3.9849261786477035</v>
       </c>
       <c r="CH2">
-        <v>3.7827072455272623</v>
+        <v>3.9824639287208057</v>
       </c>
       <c r="CI2">
-        <v>3.7801683431397666</v>
+        <v>3.9800221952099633</v>
       </c>
       <c r="CJ2">
-        <v>3.7776505958661919</v>
+        <v>3.9776008071644831</v>
       </c>
       <c r="CK2">
-        <v>3.7751538274339693</v>
+        <v>3.9751995950581032</v>
       </c>
       <c r="CL2">
-        <v>3.7726778630393007</v>
+        <v>3.9728183907771135</v>
       </c>
       <c r="CM2">
-        <v>3.7702225293349216</v>
+        <v>3.9704570276086</v>
       </c>
       <c r="CN2">
-        <v>3.7677876544179645</v>
+        <v>3.968115340228759</v>
       </c>
       <c r="CO2">
-        <v>3.7653730678179196</v>
+        <v>3.9657931646913296</v>
       </c>
       <c r="CP2">
-        <v>3.7629786004847068</v>
+        <v>3.9634903384161171</v>
       </c>
       <c r="CQ2">
-        <v>3.7606040847768361</v>
+        <v>3.9612067001776068</v>
       </c>
       <c r="CR2">
-        <v>3.7582493544496702</v>
+        <v>3.9589420900936738</v>
       </c>
       <c r="CS2">
-        <v>3.7559142446437841</v>
+        <v>3.956696349614397</v>
       </c>
       <c r="CT2">
-        <v>3.753598591873426</v>
+        <v>3.9544693215109521</v>
       </c>
       <c r="CU2">
-        <v>3.7513022340150748</v>
+        <v>3.9522608498646075</v>
       </c>
       <c r="CV2">
-        <v>3.7490250102960805</v>
+        <v>3.9500707800558041</v>
       </c>
       <c r="CW2">
-        <v>3.7467667612834132</v>
+        <v>3.9478989587533344</v>
       </c>
       <c r="CX2">
-        <v>3.7445273288725032</v>
+        <v>3.945745233903605</v>
       </c>
       <c r="CY2">
-        <v>3.7423065562761666</v>
+        <v>3.9436094547199927</v>
       </c>
       <c r="CZ2">
-        <v>3.7401042880136308</v>
+        <v>3.9414914716722862</v>
       </c>
       <c r="DA2">
-        <v>3.7379203698996495</v>
+        <v>3.9393911364762135</v>
       </c>
       <c r="DB2">
-        <v>3.7357546490337086</v>
+        <v>3.9373083020830726</v>
       </c>
       <c r="DC2">
-        <v>3.7336069737893194</v>
+        <v>3.9352428226694238</v>
       </c>
       <c r="DD2">
-        <v>3.7314771938034008</v>
+        <v>3.9331945536268829</v>
       </c>
       <c r="DE2">
-        <v>3.729365159965758</v>
+        <v>3.9311633515520019</v>
       </c>
       <c r="DF2">
-        <v>3.7272707244086396</v>
+        <v>3.9291490742362223</v>
       </c>
       <c r="DG2">
-        <v>3.7251937404963855</v>
+        <v>3.9271515806559214</v>
       </c>
       <c r="DH2">
-        <v>3.7231340628151584</v>
+        <v>3.9251707309625452</v>
       </c>
       <c r="DI2">
-        <v>3.7210915471627684</v>
+        <v>3.9232063864728071</v>
       </c>
       <c r="DJ2">
-        <v>3.7190660505385704</v>
+        <v>3.9212584096589858</v>
       </c>
       <c r="DK2">
-        <v>3.7170574311334583</v>
+        <v>3.9193266641392888</v>
       </c>
       <c r="DL2">
-        <v>3.7150655483199331</v>
+        <v>3.9174110146683159</v>
       </c>
       <c r="DM2">
-        <v>3.7130902626422575</v>
+        <v>3.9155113271275801</v>
       </c>
       <c r="DN2">
-        <v>3.711131435806696</v>
+        <v>3.9136274685161241</v>
       </c>
       <c r="DO2">
-        <v>3.7091889306718269</v>
+        <v>3.9117593069412036</v>
       </c>
       <c r="DP2">
-        <v>3.7072626112389448</v>
+        <v>3.9099067116090547</v>
       </c>
       <c r="DQ2">
-        <v>3.7053523426425388</v>
+        <v>3.908069552815741</v>
       </c>
       <c r="DR2">
-        <v>3.7034579911408492</v>
+        <v>3.9062477019380655</v>
       </c>
       <c r="DS2">
-        <v>3.7015794241065034</v>
+        <v>3.9044410314245717</v>
       </c>
       <c r="DT2">
-        <v>3.6997165100172298</v>
+        <v>3.9026494147866093</v>
       </c>
       <c r="DU2">
-        <v>3.697869118446655</v>
+        <v>3.9008727265894834</v>
       </c>
       <c r="DV2">
-        <v>3.6960371200551658</v>
+        <v>3.8991108424436649</v>
       </c>
       <c r="DW2">
-        <v>3.6942203865808563</v>
+        <v>3.8973636389960893</v>
       </c>
       <c r="DX2">
-        <v>3.6924187908305495</v>
+        <v>3.8956309939215177</v>
       </c>
       <c r="DY2">
-        <v>3.690632206670891</v>
+        <v>3.8939127859139688</v>
       </c>
       <c r="DZ2">
-        <v>3.6888605090195177</v>
+        <v>3.8922088946782338</v>
       </c>
       <c r="EA2">
-        <v>3.6871035738363012</v>
+        <v>3.8905192009214473</v>
       </c>
       <c r="EB2">
-        <v>3.6853612781146619</v>
+        <v>3.8888435863447395</v>
       </c>
       <c r="EC2">
-        <v>3.6836334998729603</v>
+        <v>3.8871819336349529</v>
       </c>
       <c r="ED2">
-        <v>3.6819201181459547</v>
+        <v>3.8855341264564265</v>
       </c>
       <c r="EE2">
-        <v>3.6802210129763311</v>
+        <v>3.8839000494428517</v>
       </c>
       <c r="EF2">
-        <v>3.6785360654063086</v>
+        <v>3.8822795881892009</v>
       </c>
       <c r="EG2">
-        <v>3.676865157469305</v>
+        <v>3.8806726292437101</v>
       </c>
       <c r="EH2">
-        <v>3.6752081721816845</v>
+        <v>3.8790790600999419</v>
       </c>
       <c r="EI2">
-        <v>3.6735649935345625</v>
+        <v>3.8774987691889007</v>
       </c>
       <c r="EJ2">
-        <v>3.6719355064856853</v>
+        <v>3.8759316458712325</v>
       </c>
       <c r="EK2">
-        <v>3.670319596951376</v>
+        <v>3.8743775804294702</v>
       </c>
       <c r="EL2">
-        <v>3.6687171517985453</v>
+        <v>3.8728364640603559</v>
       </c>
       <c r="EM2">
-        <v>3.6671280588367741</v>
+        <v>3.8713081888672209</v>
       </c>
       <c r="EN2">
-        <v>3.6655522068104558</v>
+        <v>3.8697926478524347</v>
       </c>
       <c r="EO2">
-        <v>3.6639894853910104</v>
+        <v>3.8682897349099123</v>
       </c>
       <c r="EP2">
-        <v>3.6624397851691577</v>
+        <v>3.8667993448176836</v>
       </c>
       <c r="EQ2">
-        <v>3.6609029976472556</v>
+        <v>3.865321373230532</v>
       </c>
       <c r="ER2">
-        <v>3.6593790152317092</v>
+        <v>3.8638557166726821</v>
       </c>
       <c r="ES2">
-        <v>3.6578677312254335</v>
+        <v>3.8624022725305598</v>
       </c>
       <c r="ET2">
-        <v>3.656369039820385</v>
+        <v>3.8609609390456083</v>
       </c>
       <c r="EU2">
-        <v>3.6548828360901529</v>
+        <v>3.8595316153071604</v>
       </c>
       <c r="EV2">
-        <v>3.6534090159826134</v>
+        <v>3.8581142012453773</v>
       </c>
       <c r="EW2">
-        <v>3.6519474763126465</v>
+        <v>3.8567085976242383</v>
       </c>
       <c r="EX2">
-        <v>3.6504981147549103</v>
+        <v>3.8553147060345956</v>
       </c>
       <c r="EY2">
-        <v>3.6490608298366767</v>
+        <v>3.8539324288872887</v>
       </c>
       <c r="EZ2">
-        <v>3.6476355209307276</v>
+        <v>3.8525616694063016</v>
       </c>
       <c r="FA2">
-        <v>3.646222088248309</v>
+        <v>3.851202331621999</v>
       </c>
       <c r="FB2">
-        <v>3.6448204328321463</v>
+        <v>3.8498543203643969</v>
       </c>
       <c r="FC2">
-        <v>3.6434304565495155</v>
+        <v>3.8485175412565065</v>
       </c>
       <c r="FD2">
-        <v>3.6420520620853698</v>
+        <v>3.8471919007077244</v>
       </c>
       <c r="FE2">
-        <v>3.6406851529355335</v>
+        <v>3.8458773059072802</v>
       </c>
       <c r="FF2">
-        <v>3.6393296333999348</v>
+        <v>3.8445736648177391</v>
       </c>
       <c r="FG2">
-        <v>3.6379854085759153</v>
+        <v>3.8432808861685568</v>
       </c>
       <c r="FH2">
-        <v>3.6366523843515832</v>
+        <v>3.8419988794496898</v>
       </c>
       <c r="FI2">
-        <v>3.6353304673992217</v>
+        <v>3.8407275549052624</v>
       </c>
       <c r="FJ2">
-        <v>3.6340195651687566</v>
+        <v>3.8394668235272751</v>
       </c>
       <c r="FK2">
-        <v>3.6327195858812775</v>
+        <v>3.8382165970493793</v>
       </c>
       <c r="FL2">
-        <v>3.631430438522611</v>
+        <v>3.8369767879406971</v>
       </c>
       <c r="FM2">
-        <v>3.6301520328369472</v>
+        <v>3.8357473093996899</v>
       </c>
       <c r="FN2">
-        <v>3.6288842793205234</v>
+        <v>3.8345280753480826</v>
       </c>
       <c r="FO2">
-        <v>3.6276270892153559</v>
+        <v>3.8333190004248396</v>
       </c>
       <c r="FP2">
-        <v>3.6263803745030314</v>
+        <v>3.8321199999801836</v>
       </c>
       <c r="FQ2">
-        <v>3.6251440478985346</v>
+        <v>3.8309309900696769</v>
       </c>
       <c r="FR2">
-        <v>3.623918022844145</v>
+        <v>3.8297518874483312</v>
       </c>
       <c r="FS2">
-        <v>3.6227022135033731</v>
+        <v>3.8285826095647932</v>
       </c>
       <c r="FT2">
-        <v>3.6214965347549524</v>
+        <v>3.8274230745555604</v>
       </c>
       <c r="FU2">
-        <v>3.6203009021868819</v>
+        <v>3.826273201239244</v>
       </c>
       <c r="FV2">
-        <v>3.6191152320905111</v>
+        <v>3.8251329091108937</v>
       </c>
       <c r="FW2">
-        <v>3.6179394414546842</v>
+        <v>3.8240021183363559</v>
       </c>
       <c r="FX2">
-        <v>3.6167734479599258</v>
+        <v>3.8228807497466857</v>
       </c>
       <c r="FY2">
-        <v>3.6156171699726762</v>
+        <v>3.8217687248326033</v>
       </c>
       <c r="FZ2">
-        <v>3.6144705265395802</v>
+        <v>3.8206659657390025</v>
       </c>
       <c r="GA2">
-        <v>3.6133334373818178</v>
+        <v>3.8195723952594922</v>
       </c>
       <c r="GB2">
-        <v>3.6122058228894804</v>
+        <v>3.8184879368309952</v>
       </c>
       <c r="GC2">
-        <v>3.6110876041160029</v>
+        <v>3.8174125145283884</v>
       </c>
       <c r="GD2">
-        <v>3.6099787027726302</v>
+        <v>3.8163460530591857</v>
       </c>
       <c r="GE2">
-        <v>3.6088790412229423</v>
+        <v>3.8152884777582678</v>
       </c>
       <c r="GF2">
-        <v>3.6077885424774134</v>
+        <v>3.8142397145826532</v>
       </c>
       <c r="GG2">
-        <v>3.6067071301880267</v>
+        <v>3.8131996901063152</v>
       </c>
       <c r="GH2">
-        <v>3.6056347286429249</v>
+        <v>3.8121683315150396</v>
       </c>
       <c r="GI2">
-        <v>3.6045712627611111</v>
+        <v>3.8111455666013301</v>
       </c>
       <c r="GJ2">
-        <v>3.6035166580871922</v>
+        <v>3.810131323759351</v>
       </c>
       <c r="GK2">
-        <v>3.6024708407861659</v>
+        <v>3.8091255319799147</v>
       </c>
       <c r="GL2">
-        <v>3.6014337376382524</v>
+        <v>3.8081281208455078</v>
       </c>
       <c r="GM2">
-        <v>3.6004052760337668</v>
+        <v>3.8071390205253635</v>
       </c>
       <c r="GN2">
-        <v>3.5993853839680368</v>
+        <v>3.806158161770572</v>
       </c>
       <c r="GO2">
-        <v>3.59837399003636</v>
+        <v>3.8051854759092327</v>
       </c>
       <c r="GP2">
-        <v>3.5973710234290048</v>
+        <v>3.8042208948416447</v>
       </c>
       <c r="GQ2">
-        <v>3.5963764139262562</v>
+        <v>3.8032643510355402</v>
       </c>
       <c r="GR2">
-        <v>3.5953900918934951</v>
+        <v>3.8023157775213567</v>
       </c>
       <c r="GS2">
-        <v>3.5944119882763248</v>
+        <v>3.801375107887548</v>
       </c>
       <c r="GT2">
-        <v>3.5934420345957383</v>
+        <v>3.8004422762759362</v>
       </c>
       <c r="GU2">
-        <v>3.5924801629433172</v>
+        <v>3.7995172173770948</v>
       </c>
       <c r="GV2">
-        <v>3.5915263059764899</v>
+        <v>3.7985998664257838</v>
       </c>
       <c r="GW2">
-        <v>3.5905803969138019</v>
+        <v>3.7976901591964118</v>
       </c>
       <c r="GX2">
-        <v>3.5896423695302513</v>
+        <v>3.7967880319985392</v>
       </c>
       <c r="GY2">
-        <v>3.5887121581526489</v>
+        <v>3.7958934216724214</v>
       </c>
       <c r="GZ2">
-        <v>3.5877896976550177</v>
+        <v>3.7950062655845818</v>
       </c>
       <c r="HA2">
-        <v>3.5868749234540354</v>
+        <v>3.794126501623432</v>
       </c>
       <c r="HB2">
-        <v>3.5859677715045137</v>
+        <v>3.7932540681949241</v>
       </c>
       <c r="HC2">
-        <v>3.5850681782949154</v>
+        <v>3.7923889042182299</v>
       </c>
       <c r="HD2">
-        <v>3.5841760808429015</v>
+        <v>3.7915309491214737</v>
       </c>
       <c r="HE2">
-        <v>3.5832914166909315</v>
+        <v>3.7906801428374886</v>
       </c>
       <c r="HF2">
-        <v>3.5824141239018816</v>
+        <v>3.7898364257996091</v>
       </c>
       <c r="HG2">
-        <v>3.581544141054712</v>
+        <v>3.7889997389375019</v>
       </c>
       <c r="HH2">
-        <v>3.5806814072401689</v>
+        <v>3.7881700236730298</v>
       </c>
       <c r="HI2">
-        <v>3.5798258620565155</v>
+        <v>3.7873472219161544</v>
       </c>
       <c r="HJ2">
-        <v>3.5789774456053074</v>
+        <v>3.7865312760608645</v>
       </c>
       <c r="HK2">
-        <v>3.5781360984871959</v>
+        <v>3.7857221289811416</v>
       </c>
       <c r="HL2">
-        <v>3.5773017617977709</v>
+        <v>3.7849197240269663</v>
       </c>
       <c r="HM2">
-        <v>3.5764743771234371</v>
+        <v>3.7841240050203484</v>
       </c>
       <c r="HN2">
-        <v>3.5756538865373222</v>
+        <v>3.7833349162513943</v>
       </c>
       <c r="HO2">
-        <v>3.5748402325952262</v>
+        <v>3.7825524024744062</v>
       </c>
       <c r="HP2">
-        <v>3.5740333583315942</v>
+        <v>3.7817764089040153</v>
       </c>
       <c r="HQ2">
-        <v>3.5732332072555302</v>
+        <v>3.7810068812113466</v>
       </c>
       <c r="HR2">
-        <v>3.5724397233468412</v>
+        <v>3.7802437655202112</v>
       </c>
       <c r="HS2">
-        <v>3.5716528510521171</v>
+        <v>3.779487008403339</v>
       </c>
       <c r="HT2">
-        <v>3.570872535280841</v>
+        <v>3.7787365568786373</v>
       </c>
       <c r="HU2">
-        <v>3.5700987214015307</v>
+        <v>3.7779923584054815</v>
       </c>
       <c r="HV2">
-        <v>3.569331355237916</v>
+        <v>3.7772543608810341</v>
       </c>
       <c r="HW2">
-        <v>3.5685703830651416</v>
+        <v>3.776522512636598</v>
       </c>
       <c r="HX2">
-        <v>3.5678157516060098</v>
+        <v>3.7757967624340001</v>
       </c>
       <c r="HY2">
-        <v>3.5670674080272473</v>
+        <v>3.7750770594620033</v>
       </c>
       <c r="HZ2">
-        <v>3.5663252999358117</v>
+        <v>3.7743633533327521</v>
       </c>
       <c r="IA2">
-        <v>3.5655893753752177</v>
+        <v>3.7736555940782388</v>
       </c>
       <c r="IB2">
-        <v>3.5648595828219012</v>
+        <v>3.7729537321468083</v>
       </c>
       <c r="IC2">
-        <v>3.5641358711816111</v>
+        <v>3.7722577183996941</v>
       </c>
       <c r="ID2">
-        <v>3.5634181897858372</v>
+        <v>3.7715675041075647</v>
       </c>
       <c r="IE2">
-        <v>3.5627064883882547</v>
+        <v>3.7708830409471248</v>
       </c>
       <c r="IF2">
-        <v>3.562000717161212</v>
+        <v>3.7702042809977288</v>
       </c>
       <c r="IG2">
-        <v>3.5613008266922419</v>
+        <v>3.76953117673802</v>
       </c>
       <c r="IH2">
-        <v>3.5606067679805999</v>
+        <v>3.7688636810426135</v>
       </c>
       <c r="II2">
-        <v>3.5599184924338347</v>
+        <v>3.7682017471787876</v>
       </c>
       <c r="IJ2">
-        <v>3.5592359518643861</v>
+        <v>3.7675453288032155</v>
       </c>
       <c r="IK2">
-        <v>3.5585590984862101</v>
+        <v>3.7668943799587233</v>
       </c>
       <c r="IL2">
-        <v>3.5578878849114366</v>
+        <v>3.7662488550710673</v>
       </c>
       <c r="IM2">
-        <v>3.5572222641470468</v>
+        <v>3.7656087089457464</v>
       </c>
       <c r="IN2">
-        <v>3.55656218959159</v>
+        <v>3.7649738967648392</v>
       </c>
       <c r="IO2">
-        <v>3.555907615031912</v>
+        <v>3.7643443740838647</v>
       </c>
       <c r="IP2">
-        <v>3.5552584946399284</v>
+        <v>3.763720096828667</v>
       </c>
       <c r="IQ2">
-        <v>3.5546147829694084</v>
+        <v>3.7631010212923366</v>
       </c>
       <c r="IR2">
-        <v>3.5539764349528009</v>
+        <v>3.5660815204975793</v>
       </c>
       <c r="IS2">
-        <v>3.553343405898072</v>
+        <v>2.9788845147690162</v>
       </c>
       <c r="IT2">
-        <v>3.5527156514855802</v>
+        <v>2.1956401721064722</v>
       </c>
       <c r="IU2">
-        <v>3.5520931277649721</v>
+        <v>1.416972339783827</v>
       </c>
       <c r="IV2">
-        <v>3.5514757911521038</v>
+        <v>0.64454514256865769</v>
       </c>
       <c r="IW2">
-        <v>3.5508635984259951</v>
+        <v>-2.0239543261809361E-2</v>
       </c>
       <c r="IX2">
-        <v>3.5502565067257952</v>
+        <v>-0.48222882395539918</v>
       </c>
       <c r="IY2">
-        <v>3.5496544735477902</v>
+        <v>-0.80487729649143547</v>
       </c>
       <c r="IZ2">
-        <v>3.549057456742422</v>
+        <v>-1.0342160776389595</v>
       </c>
       <c r="JA2">
-        <v>3.5484654145113406</v>
+        <v>-1.1989714996084204</v>
       </c>
       <c r="JB2">
-        <v>3.5478783054044727</v>
+        <v>-1.3150412422790501</v>
       </c>
       <c r="JC2">
-        <v>3.547296088317125</v>
+        <v>-1.3989131476382384</v>
       </c>
       <c r="JD2">
-        <v>3.5467187224871028</v>
+        <v>-1.4529957147081138</v>
       </c>
       <c r="JE2">
-        <v>3.5461461674918615</v>
+        <v>-1.4898550631264835</v>
       </c>
       <c r="JF2">
-        <v>3.5455783832456693</v>
+        <v>-1.5242553831077652</v>
       </c>
       <c r="JG2">
-        <v>3.5450153299968035</v>
+        <v>-1.5508332446172473</v>
       </c>
       <c r="JH2">
-        <v>3.5444569683247718</v>
+        <v>-1.5699645372643751</v>
       </c>
       <c r="JI2">
-        <v>3.543903259137545</v>
+        <v>-1.5827763671921851</v>
       </c>
       <c r="JJ2">
-        <v>3.5433541636688264</v>
+        <v>-1.5914636774630546</v>
       </c>
       <c r="JK2">
-        <v>3.542809643475334</v>
+        <v>-1.594793311513746</v>
       </c>
       <c r="JL2">
-        <v>3.5422696604341097</v>
+        <v>-1.5951606944084267</v>
       </c>
       <c r="JM2">
-        <v>3.5417341767398489</v>
+        <v>-1.5955250161271322</v>
       </c>
       <c r="JN2">
-        <v>3.5412031549022602</v>
+        <v>-1.5958863021767631</v>
       </c>
       <c r="JO2">
-        <v>3.5406765577434314</v>
+        <v>-1.5962445778516843</v>
       </c>
       <c r="JP2">
-        <v>3.5401543483952325</v>
+        <v>-1.5965998682354985</v>
       </c>
       <c r="JQ2">
-        <v>3.5396364902967346</v>
+        <v>-1.5969521982028039</v>
       </c>
       <c r="JR2">
-        <v>3.5391229471916454</v>
+        <v>-1.5973015924209308</v>
       </c>
       <c r="JS2">
-        <v>3.5386136831257762</v>
+        <v>-1.5976480753516762</v>
       </c>
       <c r="JT2">
-        <v>3.5381086624445217</v>
+        <v>-1.5979916712530071</v>
       </c>
       <c r="JU2">
-        <v>3.5376078497903638</v>
+        <v>-1.5983324041807663</v>
       </c>
       <c r="JV2">
-        <v>3.5371112101003988</v>
+        <v>-1.5986702979903542</v>
       </c>
       <c r="JW2">
-        <v>3.5366187086038794</v>
+        <v>-1.5990053763383991</v>
       </c>
       <c r="JX2">
-        <v>3.536130310819781</v>
+        <v>-1.5993376626844118</v>
       </c>
       <c r="JY2">
-        <v>3.5356459825543909</v>
+        <v>-1.5996671802924305</v>
       </c>
       <c r="JZ2">
-        <v>3.5351656898989066</v>
+        <v>-1.599993952232647</v>
       </c>
       <c r="KA2">
-        <v>3.5346893992270725</v>
+        <v>-1.6003180013830252</v>
       </c>
       <c r="KB2">
-        <v>3.5342170771928165</v>
+        <v>-1.6006393504308996</v>
       </c>
       <c r="KC2">
-        <v>3.5337486907279199</v>
+        <v>-1.6009580218745678</v>
       </c>
       <c r="KD2">
-        <v>3.5332842070396997</v>
+        <v>-1.601274038024858</v>
       </c>
       <c r="KE2">
-        <v>3.532823593608716</v>
+        <v>-1.6015874210067007</v>
       </c>
       <c r="KF2">
-        <v>3.5323668181864933</v>
+        <v>-1.6018981927606692</v>
       </c>
       <c r="KG2">
-        <v>3.5319138487932631</v>
+        <v>-1.6022063750445226</v>
       </c>
       <c r="KH2">
-        <v>3.5314646537157239</v>
+        <v>-1.6025119894347246</v>
       </c>
       <c r="KI2">
-        <v>3.5310192015048187</v>
+        <v>-1.6028150573279552</v>
       </c>
       <c r="KJ2">
-        <v>3.5305774609735412</v>
+        <v>-1.6031155999426083</v>
       </c>
       <c r="KK2">
-        <v>3.5301394011947447</v>
+        <v>-1.6034136383202808</v>
       </c>
       <c r="KL2">
-        <v>3.52970499149898</v>
+        <v>-1.6037091933272396</v>
       </c>
       <c r="KM2">
-        <v>3.529274201472349</v>
+        <v>-1.604002285655888</v>
       </c>
       <c r="KN2">
-        <v>3.5288470009543711</v>
+        <v>-1.6042929358262117</v>
       </c>
       <c r="KO2">
-        <v>3.5284233600358754</v>
+        <v>-1.6045811641872156</v>
       </c>
       <c r="KP2">
-        <v>3.5280032490569062</v>
+        <v>-1.6048669909183491</v>
       </c>
       <c r="KQ2">
-        <v>3.5275866386046446</v>
+        <v>-1.6051504360309188</v>
       </c>
       <c r="KR2">
-        <v>3.5271734995113553</v>
+        <v>-1.6054315193694879</v>
       </c>
       <c r="KS2">
-        <v>3.5267638028523343</v>
+        <v>-1.6057102606132692</v>
       </c>
       <c r="KT2">
-        <v>3.5263575199438901</v>
+        <v>-1.6059866792775008</v>
       </c>
       <c r="KU2">
-        <v>3.5259546223413403</v>
+        <v>-1.6062607947148104</v>
       </c>
       <c r="KV2">
-        <v>3.5255550818370072</v>
+        <v>-1.6065326261165718</v>
       </c>
       <c r="KW2">
-        <v>3.5251588704582555</v>
+        <v>-1.6068021925142517</v>
       </c>
       <c r="KX2">
-        <v>3.5247659604655266</v>
+        <v>-1.6070695127807366</v>
       </c>
       <c r="KY2">
-        <v>3.5243763243503978</v>
+        <v>-1.6073346056316591</v>
       </c>
       <c r="KZ2">
-        <v>3.5239899348336579</v>
+        <v>-1.6075974896267042</v>
       </c>
       <c r="LA2">
-        <v>3.5236067648634002</v>
+        <v>-1.6078581831709111</v>
       </c>
       <c r="LB2">
-        <v>3.5232267876131189</v>
+        <v>-1.6081167045159612</v>
       </c>
       <c r="LC2">
-        <v>3.5228499764798382</v>
+        <v>-1.6083730717614548</v>
       </c>
       <c r="LD2">
-        <v>3.5224763050822534</v>
+        <v>-1.6086273028561813</v>
       </c>
       <c r="LE2">
-        <v>3.5221057472588742</v>
+        <v>-1.608879415599372</v>
       </c>
       <c r="LF2">
-        <v>3.5217382770661989</v>
+        <v>-1.6091294276419492</v>
       </c>
       <c r="LG2">
-        <v>3.521373868776899</v>
+        <v>-1.6093773564877607</v>
       </c>
       <c r="LH2">
-        <v>3.5210124968780128</v>
+        <v>-1.6096232194948052</v>
       </c>
       <c r="LI2">
-        <v>3.5206541360691666</v>
+        <v>-1.6098670338764485</v>
       </c>
       <c r="LJ2">
-        <v>3.5202987612607952</v>
+        <v>-1.609710101773387</v>
       </c>
       <c r="LK2">
-        <v>3.5199463475723909</v>
+        <v>-1.6074811791023764</v>
       </c>
       <c r="LL2">
-        <v>3.5195968703307603</v>
+        <v>-1.6052708286747333</v>
       </c>
       <c r="LM2">
-        <v>3.5192503050682973</v>
+        <v>-1.6030788957393622</v>
       </c>
       <c r="LN2">
-        <v>3.5189066275212677</v>
+        <v>-1.6009052268346133</v>
       </c>
       <c r="LO2">
-        <v>3.5185658136281122</v>
+        <v>-1.5987496697775403</v>
       </c>
       <c r="LP2">
-        <v>3.5182278395277633</v>
+        <v>-1.5966120736532423</v>
       </c>
       <c r="LQ2">
-        <v>3.5178926815579721</v>
+        <v>-1.5944922888043007</v>
       </c>
       <c r="LR2">
-        <v>3.5175603162536531</v>
+        <v>-1.5923901668202989</v>
       </c>
       <c r="LS2">
-        <v>3.5172307203452386</v>
+        <v>-1.5903055605274337</v>
       </c>
       <c r="LT2">
-        <v>3.5169038707570546</v>
+        <v>-1.5882383239782116</v>
       </c>
       <c r="LU2">
-        <v>3.5165797446057012</v>
+        <v>-1.5861883124412286</v>
       </c>
       <c r="LV2">
-        <v>3.5162583191984527</v>
+        <v>-1.5841553823910397</v>
       </c>
       <c r="LW2">
-        <v>3.5159395720316677</v>
+        <v>-1.5821393914981099</v>
       </c>
       <c r="LX2">
-        <v>3.5156234807892148</v>
+        <v>-1.5801401986188457</v>
       </c>
       <c r="LY2">
-        <v>3.5153100233409065</v>
+        <v>-1.578157663785718</v>
       </c>
       <c r="LZ2">
-        <v>3.5149991777409553</v>
+        <v>-1.576191648197464</v>
       </c>
       <c r="MA2">
-        <v>3.5146909222264333</v>
+        <v>-1.5742420142093621</v>
       </c>
       <c r="MB2">
-        <v>3.5143852352157485</v>
+        <v>-1.5723086253236029</v>
       </c>
       <c r="MC2">
-        <v>3.5140820953071374</v>
+        <v>-1.570391346179727</v>
       </c>
       <c r="MD2">
-        <v>3.5137814812771619</v>
+        <v>-1.5684900425451518</v>
       </c>
       <c r="ME2">
-        <v>3.5134833720792282</v>
+        <v>-1.5666045813057725</v>
       </c>
       <c r="MF2">
-        <v>3.5131877468421084</v>
+        <v>-1.5647348304566426</v>
       </c>
       <c r="MG2">
-        <v>3.5128945848684845</v>
+        <v>-1.5628806590927307</v>
       </c>
       <c r="MH2">
-        <v>3.5126038656334937</v>
+        <v>-1.5610419373997573</v>
       </c>
       <c r="MI2">
-        <v>3.5123155687832965</v>
+        <v>-1.5592185366451055</v>
       </c>
       <c r="MJ2">
-        <v>3.5120296741336494</v>
+        <v>-1.5574103291688084</v>
       </c>
       <c r="MK2">
-        <v>3.5117461616684893</v>
+        <v>-1.5556171883746102</v>
       </c>
       <c r="ML2">
-        <v>3.5114650115385362</v>
+        <v>-1.5538389887211046</v>
       </c>
       <c r="MM2">
-        <v>3.5111862040599018</v>
+        <v>-1.5520756057129448</v>
       </c>
       <c r="MN2">
-        <v>3.5109097197127133</v>
+        <v>-1.5503269158921269</v>
       </c>
       <c r="MO2">
-        <v>3.5106355391397419</v>
+        <v>-1.5485927968293478</v>
       </c>
       <c r="MP2">
-        <v>3.510363643145054</v>
+        <v>-1.5468731271154312</v>
       </c>
       <c r="MQ2">
-        <v>3.5100940126926616</v>
+        <v>-1.5451677863528293</v>
       </c>
       <c r="MR2">
-        <v>3.5098266289051914</v>
+        <v>-1.543476655147193</v>
       </c>
       <c r="MS2">
-        <v>3.5095614730625653</v>
+        <v>-1.5417996150990134</v>
       </c>
       <c r="MT2">
-        <v>3.5092985266006873</v>
+        <v>-1.5401365487953322</v>
       </c>
       <c r="MU2">
-        <v>3.5090377711101457</v>
+        <v>-1.5384873398015197</v>
       </c>
       <c r="MV2">
-        <v>3.508779188334922</v>
+        <v>-1.5368518726531271</v>
       </c>
       <c r="MW2">
-        <v>3.5085227601711155</v>
+        <v>-1.5352300328477968</v>
       </c>
       <c r="MX2">
-        <v>3.5082684686656713</v>
+        <v>-1.533621706837252</v>
       </c>
       <c r="MY2">
-        <v>3.5080162960151275</v>
+        <v>-1.5320267820193401</v>
       </c>
       <c r="MZ2">
-        <v>3.507766224564369</v>
+        <v>-1.5304451467301574</v>
       </c>
       <c r="NA2">
-        <v>3.5075182368053874</v>
+        <v>-1.5288766902362241</v>
       </c>
       <c r="NB2">
-        <v>3.5072723153760608</v>
+        <v>-1.5273213027267363</v>
       </c>
       <c r="NC2">
-        <v>3.5070284430589318</v>
+        <v>-1.5257788753058736</v>
       </c>
       <c r="ND2">
-        <v>3.5067866027800068</v>
+        <v>-1.5242492999851787</v>
       </c>
       <c r="NE2">
-        <v>3.5065467776075616</v>
+        <v>-1.5227324696759974</v>
       </c>
       <c r="NF2">
-        <v>3.5063089507509515</v>
+        <v>-1.5212282781819777</v>
       </c>
       <c r="NG2">
-        <v>3.5060731055594379</v>
+        <v>-1.5197366201916369</v>
       </c>
       <c r="NH2">
-        <v>3.5058392255210231</v>
+        <v>-1.5182573912709882</v>
       </c>
       <c r="NI2">
-        <v>3.5056072942612935</v>
+        <v>-1.5167904878562297</v>
       </c>
       <c r="NJ2">
-        <v>3.5053772955422744</v>
+        <v>-1.5153358072464918</v>
       </c>
       <c r="NK2">
-        <v>3.5051492132612898</v>
+        <v>-1.5138932475966491</v>
       </c>
       <c r="NL2">
-        <v>3.5049230314498399</v>
+        <v>-1.5124627079101889</v>
       </c>
       <c r="NM2">
-        <v>3.5046987342724765</v>
+        <v>-1.5110440880321405</v>
       </c>
       <c r="NN2">
-        <v>3.5044763060257051</v>
+        <v>-1.5096372886420626</v>
       </c>
       <c r="NO2">
-        <v>3.5042557311368743</v>
+        <v>-1.5082422112470906</v>
       </c>
       <c r="NP2">
-        <v>3.5040369941630898</v>
+        <v>-1.5068587581750408</v>
       </c>
       <c r="NQ2">
-        <v>3.5038200797901364</v>
+        <v>-1.5054868325675699</v>
       </c>
       <c r="NR2">
-        <v>3.5036049728314</v>
+        <v>-1.5041263383733983</v>
       </c>
       <c r="NS2">
-        <v>3.5033916582268083</v>
+        <v>-1.5027771803415804</v>
       </c>
       <c r="NT2">
-        <v>3.5031801210417743</v>
+        <v>-1.5014392640148395</v>
       </c>
       <c r="NU2">
-        <v>3.5029703464661548</v>
+        <v>-1.5001124957229535</v>
       </c>
       <c r="NV2">
-        <v>3.5027623198132076</v>
+        <v>-1.4971856588119139</v>
       </c>
       <c r="NW2">
-        <v>3.5025560265185649</v>
+        <v>-1.4942590017516144</v>
       </c>
       <c r="NX2">
-        <v>3.5023514521392194</v>
+        <v>-1.4913567307267217</v>
       </c>
       <c r="NY2">
-        <v>3.5021485823525049</v>
+        <v>-1.4884786425433836</v>
       </c>
       <c r="NZ2">
-        <v>3.5019474029550981</v>
+        <v>-1.485624535700838</v>
       </c>
       <c r="OA2">
-        <v>3.5017478998620235</v>
+        <v>-1.4827942103773035</v>
       </c>
       <c r="OB2">
-        <v>3.5015500591056661</v>
+        <v>-1.4799874684159908</v>
       </c>
       <c r="OC2">
-        <v>3.5013538668347954</v>
+        <v>-1.4772041133112304</v>
       </c>
       <c r="OD2">
-        <v>3.5011593093135946</v>
+        <v>-1.4744439501947135</v>
       </c>
       <c r="OE2">
-        <v>3.5009663729207001</v>
+        <v>-1.4717067858218498</v>
       </c>
       <c r="OF2">
-        <v>3.5007750441482437</v>
+        <v>-1.4689924285582359</v>
       </c>
       <c r="OG2">
-        <v>3.500585309600913</v>
+        <v>-1.4663006883662417</v>
       </c>
       <c r="OH2">
-        <v>3.5003971559950098</v>
+        <v>-1.4636313767917024</v>
       </c>
       <c r="OI2">
-        <v>3.500210570157519</v>
+        <v>-1.4609843069507278</v>
       </c>
       <c r="OJ2">
-        <v>3.5000255390251915</v>
+        <v>-1.4583592935166148</v>
       </c>
       <c r="OK2">
-        <v>3.4998420496436236</v>
+        <v>-1.455756152706875</v>
+      </c>
+      <c r="OL2">
+        <v>-1.4531747022703654</v>
+      </c>
+      <c r="OM2">
+        <v>-1.4506147614745317</v>
+      </c>
+      <c r="ON2">
+        <v>-1.448076151092752</v>
+      </c>
+      <c r="OO2">
+        <v>-1.4455586933917872</v>
+      </c>
+      <c r="OP2">
+        <v>-1.4430622121193442</v>
+      </c>
+      <c r="OQ2">
+        <v>-1.44058653249173</v>
+      </c>
+      <c r="OR2">
+        <v>-1.4381314811816159</v>
+      </c>
+      <c r="OS2">
+        <v>-1.4356968863059056</v>
+      </c>
+      <c r="OT2">
+        <v>-1.4332825774136975</v>
+      </c>
+      <c r="OU2">
+        <v>-1.4308883854743513</v>
+      </c>
+      <c r="OV2">
+        <v>-1.4285141428656583</v>
+      </c>
+      <c r="OW2">
+        <v>-1.4261596833621022</v>
+      </c>
+      <c r="OX2">
+        <v>-1.4238248421232196</v>
+      </c>
+      <c r="OY2">
+        <v>-1.4215094556820629</v>
+      </c>
+      <c r="OZ2">
+        <v>-1.4192133619337546</v>
+      </c>
+      <c r="PA2">
+        <v>-1.4169364001241362</v>
+      </c>
+      <c r="PB2">
+        <v>-1.4146784108385155</v>
+      </c>
+      <c r="PC2">
+        <v>-1.4124392359905056</v>
+      </c>
+      <c r="PD2">
+        <v>-1.4102187188109547</v>
+      </c>
+      <c r="PE2">
+        <v>-1.4080167038369746</v>
+      </c>
+      <c r="PF2">
+        <v>-1.4058330369010514</v>
+      </c>
+      <c r="PG2">
+        <v>-1.4036675651202561</v>
+      </c>
+      <c r="PH2">
+        <v>-1.401520136885537</v>
+      </c>
+      <c r="PI2">
+        <v>-1.3993906018511104</v>
+      </c>
+      <c r="PJ2">
+        <v>-1.3972788109239294</v>
+      </c>
+      <c r="PK2">
+        <v>-1.3951846162532495</v>
+      </c>
+      <c r="PL2">
+        <v>-1.3931078712202749</v>
+      </c>
+      <c r="PM2">
+        <v>-1.3910484304278936</v>
+      </c>
+      <c r="PN2">
+        <v>-1.3890061496905</v>
+      </c>
+      <c r="PO2">
+        <v>-1.3869808860238952</v>
+      </c>
+      <c r="PP2">
+        <v>-1.3849724976352835</v>
+      </c>
+      <c r="PQ2">
+        <v>-1.38298084391334</v>
+      </c>
+      <c r="PR2">
+        <v>-1.381005785418367</v>
+      </c>
+      <c r="PS2">
+        <v>-1.3790471838725336</v>
+      </c>
+      <c r="PT2">
+        <v>-1.3771049021501913</v>
+      </c>
+      <c r="PU2">
+        <v>-1.3751788042682778</v>
+      </c>
+      <c r="PV2">
+        <v>-1.3732687553767926</v>
+      </c>
+      <c r="PW2">
+        <v>-1.3713746217493561</v>
+      </c>
+      <c r="PX2">
+        <v>-1.3694962707738512</v>
+      </c>
+      <c r="PY2">
+        <v>-1.3676335709431349</v>
+      </c>
+      <c r="PZ2">
+        <v>-1.3657863918458313</v>
+      </c>
+      <c r="QA2">
+        <v>-1.3639546041572035</v>
+      </c>
+      <c r="QB2">
+        <v>-1.3621380796300993</v>
+      </c>
+      <c r="QC2">
+        <v>-1.3603366910859696</v>
+      </c>
+      <c r="QD2">
+        <v>-1.3585503124059652</v>
+      </c>
+      <c r="QE2">
+        <v>-1.3567788185221106</v>
+      </c>
+      <c r="QF2">
+        <v>-1.3550220854085426</v>
+      </c>
+      <c r="QG2">
+        <v>-1.3532799900728301</v>
+      </c>
+      <c r="QH2">
+        <v>-1.3515524105473626</v>
+      </c>
+      <c r="QI2">
+        <v>-1.3498392258808105</v>
+      </c>
+      <c r="QJ2">
+        <v>-1.1801799519660825</v>
+      </c>
+      <c r="QK2">
+        <v>-0.70833615276829776</v>
+      </c>
+      <c r="QL2">
+        <v>-5.1597371188821538E-2</v>
+      </c>
+      <c r="QM2">
+        <v>0.61077824572021711</v>
+      </c>
+      <c r="QN2">
+        <v>1.2676346935178096</v>
+      </c>
+      <c r="QO2">
+        <v>1.9190179600498398</v>
+      </c>
+      <c r="QP2">
+        <v>2.5580038587374569</v>
+      </c>
+      <c r="QQ2">
+        <v>3.0416391738480169</v>
+      </c>
+      <c r="QR2">
+        <v>3.3659389216346658</v>
+      </c>
+      <c r="QS2">
+        <v>3.579826509538806</v>
+      </c>
+      <c r="QT2">
+        <v>3.7318210386290036</v>
+      </c>
+      <c r="QU2">
+        <v>3.8329345894502809</v>
+      </c>
+      <c r="QV2">
+        <v>3.89802978935611</v>
+      </c>
+      <c r="QW2">
+        <v>3.9396758839064061</v>
+      </c>
+      <c r="QX2">
+        <v>3.9668875720894077</v>
+      </c>
+      <c r="QY2">
+        <v>3.9842633264247636</v>
+      </c>
+      <c r="QZ2">
+        <v>3.995379068185188</v>
+      </c>
+      <c r="RA2">
+        <v>4.0007427261476893</v>
+      </c>
+      <c r="RB2">
+        <v>4.0042275742665483</v>
+      </c>
+      <c r="RC2">
+        <v>4.0076833852868123</v>
+      </c>
+      <c r="RD2">
+        <v>4.0111104011567873</v>
+      </c>
+      <c r="RE2">
+        <v>4.012409464295656</v>
+      </c>
+      <c r="RF2">
+        <v>4.0085711988607926</v>
+      </c>
+      <c r="RG2">
+        <v>4.0047649153339142</v>
+      </c>
+      <c r="RH2">
+        <v>4.0009903472294228</v>
+      </c>
+      <c r="RI2">
+        <v>3.9972472302821886</v>
+      </c>
+      <c r="RJ2">
+        <v>3.9935353024290383</v>
+      </c>
+      <c r="RK2">
+        <v>3.9898543037904131</v>
+      </c>
+      <c r="RL2">
+        <v>3.9862039766521673</v>
+      </c>
+      <c r="RM2">
+        <v>3.9825840654475297</v>
+      </c>
+      <c r="RN2">
+        <v>3.9789943167392097</v>
+      </c>
+      <c r="RO2">
+        <v>3.9754344792016565</v>
+      </c>
+      <c r="RP2">
+        <v>3.9719043036034587</v>
+      </c>
+      <c r="RQ2">
+        <v>3.9684035427898947</v>
+      </c>
+      <c r="RR2">
+        <v>3.9659739638283682</v>
+      </c>
+      <c r="RS2">
+        <v>3.9654047050805921</v>
+      </c>
+      <c r="RT2">
+        <v>3.9648401896162588</v>
+      </c>
+      <c r="RU2">
+        <v>3.9642803779125027</v>
+      </c>
+      <c r="RV2">
+        <v>3.963725230775776</v>
+      </c>
+      <c r="RW2">
+        <v>3.9631747093391061</v>
+      </c>
+      <c r="RX2">
+        <v>3.9626287750593763</v>
+      </c>
+      <c r="RY2">
+        <v>3.962087389714628</v>
+      </c>
+      <c r="RZ2">
+        <v>3.9615505154013793</v>
+      </c>
+      <c r="SA2">
+        <v>3.9610181145319738</v>
+      </c>
+      <c r="SB2">
+        <v>3.9604901498319522</v>
+      </c>
+      <c r="SC2">
+        <v>3.9599665843374425</v>
+      </c>
+      <c r="SD2">
+        <v>3.9594473813925672</v>
+      </c>
+      <c r="SE2">
+        <v>3.9589325046468806</v>
+      </c>
+      <c r="SF2">
+        <v>3.9584219180528213</v>
+      </c>
+      <c r="SG2">
+        <v>3.9579155858631916</v>
+      </c>
+      <c r="SH2">
+        <v>3.9574134726286534</v>
+      </c>
+      <c r="SI2">
+        <v>3.9569155431952439</v>
+      </c>
+      <c r="SJ2">
+        <v>3.95642176270192</v>
+      </c>
+      <c r="SK2">
+        <v>3.9559320965781133</v>
+      </c>
+      <c r="SL2">
+        <v>3.9554465105413081</v>
+      </c>
+      <c r="SM2">
+        <v>3.9549649705946481</v>
+      </c>
+      <c r="SN2">
+        <v>3.9544874430245489</v>
+      </c>
+      <c r="SO2">
+        <v>3.9540138943983405</v>
+      </c>
+      <c r="SP2">
+        <v>3.9535442915619274</v>
+      </c>
+      <c r="SQ2">
+        <v>3.9530786016374675</v>
+      </c>
+      <c r="SR2">
+        <v>3.9526167920210713</v>
+      </c>
+      <c r="SS2">
+        <v>3.952158830380514</v>
+      </c>
+      <c r="ST2">
+        <v>3.951704684652976</v>
+      </c>
+      <c r="SU2">
+        <v>3.9512543230428001</v>
+      </c>
+      <c r="SV2">
+        <v>3.9508077140192599</v>
+      </c>
+      <c r="SW2">
+        <v>3.9503648263143556</v>
+      </c>
+      <c r="SX2">
+        <v>3.9499256289206257</v>
+      </c>
+      <c r="SY2">
+        <v>3.9494900910889745</v>
+      </c>
+      <c r="SZ2">
+        <v>3.9490581823265196</v>
+      </c>
+      <c r="TA2">
+        <v>3.9486298723944553</v>
+      </c>
+      <c r="TB2">
+        <v>3.9482051313059396</v>
+      </c>
+      <c r="TC2">
+        <v>3.9477839293239922</v>
+      </c>
+      <c r="TD2">
+        <v>3.94736623695941</v>
+      </c>
+      <c r="TE2">
+        <v>3.9469520249687107</v>
+      </c>
+      <c r="TF2">
+        <v>3.9465412643520748</v>
+      </c>
+      <c r="TG2">
+        <v>3.9461339263513224</v>
+      </c>
+      <c r="TH2">
+        <v>3.9457299824478977</v>
+      </c>
+      <c r="TI2">
+        <v>3.9453294043608729</v>
+      </c>
+      <c r="TJ2">
+        <v>3.9449321640449679</v>
+      </c>
+      <c r="TK2">
+        <v>3.9445382336885881</v>
+      </c>
+      <c r="TL2">
+        <v>3.9441475857118724</v>
+      </c>
+      <c r="TM2">
+        <v>3.9437601927647661</v>
+      </c>
+      <c r="TN2">
+        <v>3.9433760277251091</v>
+      </c>
+      <c r="TO2">
+        <v>3.9429950636967313</v>
+      </c>
+      <c r="TP2">
+        <v>3.9426172740075702</v>
+      </c>
+      <c r="TQ2">
+        <v>3.9422426322078099</v>
+      </c>
+      <c r="TR2">
+        <v>3.9418711120680201</v>
+      </c>
+      <c r="TS2">
+        <v>3.9415026875773274</v>
+      </c>
+      <c r="TT2">
+        <v>3.941137332941588</v>
+      </c>
+      <c r="TU2">
+        <v>3.9407750225815859</v>
+      </c>
+      <c r="TV2">
+        <v>3.9404157311312438</v>
+      </c>
+      <c r="TW2">
+        <v>3.9400594334358403</v>
+      </c>
+      <c r="TX2">
+        <v>3.9397061045502557</v>
+      </c>
+      <c r="TY2">
+        <v>3.9393557197372195</v>
+      </c>
+      <c r="TZ2">
+        <v>3.9390082544655858</v>
+      </c>
+      <c r="UA2">
+        <v>3.9386636844086098</v>
+      </c>
+      <c r="UB2">
+        <v>3.9383219854422462</v>
+      </c>
+      <c r="UC2">
+        <v>3.9379831336434594</v>
+      </c>
+      <c r="UD2">
+        <v>3.9376471052885527</v>
+      </c>
+      <c r="UE2">
+        <v>3.9373138768515004</v>
+      </c>
+      <c r="UF2">
+        <v>3.9369834250023077</v>
+      </c>
+      <c r="UG2">
+        <v>3.9366557266053768</v>
+      </c>
+      <c r="UH2">
+        <v>3.9363307587178786</v>
+      </c>
+      <c r="UI2">
+        <v>3.9360084985881536</v>
+      </c>
+      <c r="UJ2">
+        <v>3.9356889236541237</v>
+      </c>
+      <c r="UK2">
+        <v>3.9353720115416997</v>
+      </c>
+      <c r="UL2">
+        <v>3.9350577400632267</v>
+      </c>
+      <c r="UM2">
+        <v>3.9347460872159221</v>
+      </c>
+      <c r="UN2">
+        <v>3.9344370311803436</v>
+      </c>
+      <c r="UO2">
+        <v>3.9341305503188537</v>
+      </c>
+      <c r="UP2">
+        <v>3.9338266231741073</v>
+      </c>
+      <c r="UQ2">
+        <v>3.9335252284675528</v>
+      </c>
+      <c r="UR2">
+        <v>3.9332263450979381</v>
+      </c>
+      <c r="US2">
+        <v>3.9329299521398364</v>
+      </c>
+      <c r="UT2">
+        <v>3.9326360288421753</v>
+      </c>
+      <c r="UU2">
+        <v>3.9323445546267934</v>
+      </c>
+      <c r="UV2">
+        <v>3.932055509086994</v>
+      </c>
+      <c r="UW2">
+        <v>3.9317688719861121</v>
+      </c>
+      <c r="UX2">
+        <v>3.9314846232561083</v>
+      </c>
+      <c r="UY2">
+        <v>3.9312027429961547</v>
+      </c>
+      <c r="UZ2">
+        <v>3.9309232114712458</v>
+      </c>
+      <c r="VA2">
+        <v>3.9306460091108155</v>
+      </c>
+      <c r="VB2">
+        <v>3.9303711165073651</v>
+      </c>
+      <c r="VC2">
+        <v>3.9300985144151093</v>
+      </c>
+      <c r="VD2">
+        <v>3.9298281837486271</v>
+      </c>
+      <c r="VE2">
+        <v>3.9295601055815208</v>
+      </c>
+      <c r="VF2">
+        <v>3.9292942611450972</v>
+      </c>
+      <c r="VG2">
+        <v>3.9290306318270525</v>
+      </c>
+      <c r="VH2">
+        <v>3.9287691991701652</v>
+      </c>
+      <c r="VI2">
+        <v>3.9285099448710072</v>
+      </c>
+      <c r="VJ2">
+        <v>3.9282528507786609</v>
+      </c>
+      <c r="VK2">
+        <v>3.9279978988934516</v>
+      </c>
+      <c r="VL2">
+        <v>3.9277450713656794</v>
+      </c>
+      <c r="VM2">
+        <v>3.9274943504943827</v>
+      </c>
+      <c r="VN2">
+        <v>3.9272457187260867</v>
+      </c>
+      <c r="VO2">
+        <v>3.9269991586535786</v>
+      </c>
+      <c r="VP2">
+        <v>3.9267546530146893</v>
+      </c>
+      <c r="VQ2">
+        <v>3.9265121846910862</v>
+      </c>
+      <c r="VR2">
+        <v>3.9262717367070734</v>
+      </c>
+      <c r="VS2">
+        <v>3.9260332922284027</v>
+      </c>
+      <c r="VT2">
+        <v>3.9257968345610923</v>
+      </c>
+      <c r="VU2">
+        <v>3.9255623471502665</v>
+      </c>
+      <c r="VV2">
+        <v>3.9253298135789856</v>
+      </c>
+      <c r="VW2">
+        <v>3.9250992175671069</v>
+      </c>
+      <c r="VX2">
+        <v>3.9248705429701363</v>
+      </c>
+      <c r="VY2">
+        <v>3.924643773778107</v>
+      </c>
+      <c r="VZ2">
+        <v>3.9244188941144476</v>
+      </c>
+      <c r="WA2">
+        <v>3.9241958882348791</v>
+      </c>
+      <c r="WB2">
+        <v>3.9239747405263108</v>
+      </c>
+      <c r="WC2">
+        <v>3.9237554355057456</v>
+      </c>
+      <c r="WD2">
+        <v>3.9235379578191947</v>
+      </c>
+      <c r="WE2">
+        <v>3.9233222922406061</v>
+      </c>
+      <c r="WF2">
+        <v>3.9231084236707989</v>
+      </c>
+      <c r="WG2">
+        <v>3.9228963371364034</v>
+      </c>
+      <c r="WH2">
+        <v>3.9226860177888105</v>
+      </c>
+      <c r="WI2">
+        <v>3.9224774509031395</v>
+      </c>
+      <c r="WJ2">
+        <v>3.9222706218772028</v>
+      </c>
+      <c r="WK2">
+        <v>3.9220655162304818</v>
+      </c>
+      <c r="WL2">
+        <v>3.9218621196031163</v>
+      </c>
+      <c r="WM2">
+        <v>3.9216604177548984</v>
+      </c>
+      <c r="WN2">
+        <v>3.9214603965642736</v>
+      </c>
+      <c r="WO2">
+        <v>3.921262042027355</v>
+      </c>
+      <c r="WP2">
+        <v>3.9210653402569422</v>
+      </c>
+      <c r="WQ2">
+        <v>3.9208702774815456</v>
+      </c>
+      <c r="WR2">
+        <v>3.9206768400444272</v>
+      </c>
+      <c r="WS2">
+        <v>3.9204850144026424</v>
+      </c>
+      <c r="WT2">
+        <v>3.9202947871260894</v>
+      </c>
+      <c r="WU2">
+        <v>3.9201061448965726</v>
+      </c>
+      <c r="WV2">
+        <v>3.9199190745068697</v>
+      </c>
+      <c r="WW2">
+        <v>3.9197335628598049</v>
+      </c>
+      <c r="WX2">
+        <v>3.9195495969673328</v>
+      </c>
+      <c r="WY2">
+        <v>3.9193671639496315</v>
+      </c>
+      <c r="WZ2">
+        <v>3.9191862510341973</v>
+      </c>
+      <c r="XA2">
+        <v>3.9190068455549492</v>
+      </c>
+      <c r="XB2">
+        <v>3.9188289349513497</v>
+      </c>
+      <c r="XC2">
+        <v>3.9186525067675162</v>
+      </c>
+      <c r="XD2">
+        <v>3.9184775486513574</v>
+      </c>
+      <c r="XE2">
+        <v>3.9183040483537033</v>
+      </c>
+      <c r="XF2">
+        <v>3.9181319937274446</v>
+      </c>
+      <c r="XG2">
+        <v>3.9179613727266931</v>
+      </c>
+      <c r="XH2">
+        <v>3.9177921734059256</v>
+      </c>
+      <c r="XI2">
+        <v>3.9176243839191569</v>
+      </c>
+      <c r="XJ2">
+        <v>3.9174579925191071</v>
+      </c>
+      <c r="XK2">
+        <v>3.9172929875563778</v>
+      </c>
+      <c r="XL2">
+        <v>3.9171293574786383</v>
+      </c>
+      <c r="XM2">
+        <v>3.9169670908298166</v>
+      </c>
+      <c r="XN2">
+        <v>3.9168061762492985</v>
+      </c>
+      <c r="XO2">
+        <v>3.9166466024711277</v>
+      </c>
+      <c r="XP2">
+        <v>3.9164883583232237</v>
+      </c>
+      <c r="XQ2">
+        <v>3.9163314327265932</v>
+      </c>
+      <c r="XR2">
+        <v>3.9161758146945567</v>
+      </c>
+      <c r="XS2">
+        <v>3.9160214933319848</v>
+      </c>
+      <c r="XT2">
+        <v>3.9158684578345246</v>
+      </c>
+      <c r="XU2">
+        <v>3.915716697487853</v>
+      </c>
+      <c r="XV2">
+        <v>3.9155662016669233</v>
+      </c>
+      <c r="XW2">
+        <v>3.9154169598352193</v>
+      </c>
+      <c r="XX2">
+        <v>3.9152689615440175</v>
+      </c>
+      <c r="XY2">
+        <v>3.9151221964316578</v>
+      </c>
+      <c r="XZ2">
+        <v>3.914976654222821</v>
+      </c>
+      <c r="YA2">
+        <v>3.9148323247278021</v>
+      </c>
+      <c r="YB2">
+        <v>3.7180203946966577</v>
+      </c>
+      <c r="YC2">
+        <v>3.1290276732049302</v>
+      </c>
+      <c r="YD2">
+        <v>2.3192847321531138</v>
+      </c>
+      <c r="YE2">
+        <v>1.5120652222610211</v>
+      </c>
+      <c r="YF2">
+        <v>0.71159890432410078</v>
+      </c>
+      <c r="YG2">
+        <v>1.5070964847968868E-2</v>
+      </c>
+      <c r="YH2">
+        <v>-0.46609759466081335</v>
+      </c>
+      <c r="YI2">
+        <v>-0.7918747956690867</v>
+      </c>
+      <c r="YJ2">
+        <v>-1.0244956298868246</v>
+      </c>
+      <c r="YK2">
+        <v>-1.1921590466066543</v>
+      </c>
+      <c r="YL2">
+        <v>-1.3080400586284171</v>
+      </c>
+      <c r="YM2">
+        <v>-1.3941738635345151</v>
+      </c>
+      <c r="YN2">
+        <v>-1.4500790360161253</v>
+      </c>
+      <c r="YO2">
+        <v>-1.4874150345248249</v>
+      </c>
+      <c r="YP2">
+        <v>-1.5168173409182082</v>
+      </c>
+      <c r="YQ2">
+        <v>-1.5457117119962969</v>
+      </c>
+      <c r="YR2">
+        <v>-1.5659520134127516</v>
+      </c>
+      <c r="YS2">
+        <v>-1.5806476859572129</v>
+      </c>
+      <c r="YT2">
+        <v>-1.5897975651606113</v>
+      </c>
+      <c r="YU2">
+        <v>-1.5952031252540071</v>
+      </c>
+      <c r="YV2">
+        <v>-1.5962918417288985</v>
+      </c>
+      <c r="YW2">
+        <v>-1.5973714865982149</v>
+      </c>
+      <c r="YX2">
+        <v>-1.5984421354500733</v>
+      </c>
+      <c r="YY2">
+        <v>-1.5995038632427589</v>
+      </c>
+      <c r="YZ2">
+        <v>-1.6005567443099793</v>
+      </c>
+      <c r="ZA2">
+        <v>-1.601600852366063</v>
+      </c>
+      <c r="ZB2">
+        <v>-1.6026362605111211</v>
+      </c>
+      <c r="ZC2">
+        <v>-1.6036630412361683</v>
+      </c>
+      <c r="ZD2">
+        <v>-1.6046812664281962</v>
+      </c>
+      <c r="ZE2">
+        <v>-1.6056910073752064</v>
+      </c>
+      <c r="ZF2">
+        <v>-1.606692334771199</v>
+      </c>
+      <c r="ZG2">
+        <v>-1.6076853187211271</v>
+      </c>
+      <c r="ZH2">
+        <v>-1.6086700287458009</v>
+      </c>
+      <c r="ZI2">
+        <v>-1.6096465337867567</v>
+      </c>
+      <c r="ZJ2">
+        <v>-1.6081855987483384</v>
+      </c>
+      <c r="ZK2">
+        <v>-1.6047111321192111</v>
+      </c>
+      <c r="ZL2">
+        <v>-1.6012656160861014</v>
+      </c>
+      <c r="ZM2">
+        <v>-1.59784880942148</v>
+      </c>
+      <c r="ZN2">
+        <v>-1.5944604729078138</v>
+      </c>
+      <c r="ZO2">
+        <v>-1.5911003693208245</v>
+      </c>
+      <c r="ZP2">
+        <v>-1.5877682634128791</v>
+      </c>
+      <c r="ZQ2">
+        <v>-1.5844639218965169</v>
+      </c>
+      <c r="ZR2">
+        <v>-1.581187113428117</v>
+      </c>
+      <c r="ZS2">
+        <v>-1.577937608591707</v>
+      </c>
+      <c r="ZT2">
+        <v>-1.5747151798828949</v>
+      </c>
+      <c r="ZU2">
+        <v>-1.5715196016929405</v>
+      </c>
+      <c r="ZV2">
+        <v>-1.5683506502929654</v>
+      </c>
+      <c r="ZW2">
+        <v>-1.5652081038182859</v>
+      </c>
+      <c r="ZX2">
+        <v>-1.5620917422528815</v>
+      </c>
+      <c r="ZY2">
+        <v>-1.5590013474139868</v>
+      </c>
+      <c r="ZZ2">
+        <v>-1.5559367029368225</v>
+      </c>
+      <c r="AAA2">
+        <v>-1.5528975942594441</v>
+      </c>
+      <c r="AAB2">
+        <v>-1.5498838086077165</v>
+      </c>
+      <c r="AAC2">
+        <v>-1.5468951349804245</v>
+      </c>
+      <c r="AAD2">
+        <v>-1.5439313641344954</v>
+      </c>
+      <c r="AAE2">
+        <v>-1.540992288570348</v>
+      </c>
+      <c r="AAF2">
+        <v>-1.5380777025173746</v>
+      </c>
+      <c r="AAG2">
+        <v>-1.5351874019195177</v>
+      </c>
+      <c r="AAH2">
+        <v>-1.5323211844209996</v>
+      </c>
+      <c r="AAI2">
+        <v>-1.5294788493521512</v>
+      </c>
+      <c r="AAJ2">
+        <v>-1.526660197715354</v>
+      </c>
+      <c r="AAK2">
+        <v>-1.523865032171118</v>
+      </c>
+      <c r="AAL2">
+        <v>-1.5210931570242638</v>
+      </c>
+      <c r="AAM2">
+        <v>-1.5183443782102164</v>
+      </c>
+      <c r="AAN2">
+        <v>-1.5156185032814231</v>
+      </c>
+      <c r="AAO2">
+        <v>-1.5129153413938776</v>
+      </c>
+      <c r="AAP2">
+        <v>-1.5102347032937591</v>
+      </c>
+      <c r="AAQ2">
+        <v>-1.5075764013041855</v>
+      </c>
+      <c r="AAR2">
+        <v>-1.5049402493120676</v>
+      </c>
+      <c r="AAS2">
+        <v>-1.5023260627550845</v>
+      </c>
+      <c r="AAT2">
+        <v>-1.499733658608758</v>
+      </c>
+      <c r="AAU2">
+        <v>-1.4971628553736425</v>
+      </c>
+      <c r="AAV2">
+        <v>-1.4946134730626133</v>
+      </c>
+      <c r="AAW2">
+        <v>-1.4920853331882697</v>
+      </c>
+      <c r="AAX2">
+        <v>-1.4895782587504349</v>
+      </c>
+      <c r="AAY2">
+        <v>-1.4870920742237677</v>
+      </c>
+      <c r="AAZ2">
+        <v>-1.4846266055454738</v>
+      </c>
+      <c r="ABA2">
+        <v>-1.4821816801031122</v>
+      </c>
+      <c r="ABB2">
+        <v>-1.4797571267225176</v>
+      </c>
+      <c r="ABC2">
+        <v>-1.4773527756558158</v>
+      </c>
+      <c r="ABD2">
+        <v>-1.4749684585695328</v>
+      </c>
+      <c r="ABE2">
+        <v>-1.4726040085328207</v>
+      </c>
+      <c r="ABF2">
+        <v>-1.4702592600057576</v>
+      </c>
+      <c r="ABG2">
+        <v>-1.4679340488277657</v>
+      </c>
+      <c r="ABH2">
+        <v>-1.4656282122061184</v>
+      </c>
+      <c r="ABI2">
+        <v>-1.4633415887045407</v>
+      </c>
+      <c r="ABJ2">
+        <v>-1.4610740182319042</v>
+      </c>
+      <c r="ABK2">
+        <v>-1.4588253420310244</v>
+      </c>
+      <c r="ABL2">
+        <v>-1.4565954026675398</v>
+      </c>
+      <c r="ABM2">
+        <v>-1.4543840440188971</v>
+      </c>
+      <c r="ABN2">
+        <v>-1.4521911112634125</v>
+      </c>
+      <c r="ABO2">
+        <v>-1.4500164508694366</v>
+      </c>
+      <c r="ABP2">
+        <v>-1.4478599105846077</v>
+      </c>
+      <c r="ABQ2">
+        <v>-1.4457213394251864</v>
+      </c>
+      <c r="ABR2">
+        <v>-1.4436005876654892</v>
+      </c>
+      <c r="ABS2">
+        <v>-1.4414975068274056</v>
+      </c>
+      <c r="ABT2">
+        <v>-1.4394119496700009</v>
+      </c>
+      <c r="ABU2">
+        <v>-1.4373437701792089</v>
+      </c>
+      <c r="ABV2">
+        <v>-1.4352928235576095</v>
+      </c>
+      <c r="ABW2">
+        <v>-1.4332589662142889</v>
+      </c>
+      <c r="ABX2">
+        <v>-1.4312420557547909</v>
+      </c>
+      <c r="ABY2">
+        <v>-1.4292419509711429</v>
+      </c>
+      <c r="ABZ2">
+        <v>-1.4272585118319705</v>
+      </c>
+      <c r="ACA2">
+        <v>-1.4252915994726982</v>
+      </c>
+      <c r="ACB2">
+        <v>-1.4233410761858198</v>
+      </c>
+      <c r="ACC2">
+        <v>-1.4214068054112652</v>
+      </c>
+      <c r="ACD2">
+        <v>-1.419488651726831</v>
+      </c>
+      <c r="ACE2">
+        <v>-1.4175864808387073</v>
+      </c>
+      <c r="ACF2">
+        <v>-1.4157001595720708</v>
+      </c>
+      <c r="ACG2">
+        <v>-1.413829555861762</v>
+      </c>
+      <c r="ACH2">
+        <v>-1.4119745387430394</v>
+      </c>
+      <c r="ACI2">
+        <v>-1.41013497834241</v>
+      </c>
+      <c r="ACJ2">
+        <v>-1.4083107458685402</v>
+      </c>
+      <c r="ACK2">
+        <v>-1.406501713603229</v>
+      </c>
+      <c r="ACL2">
+        <v>-1.4047077548924762</v>
+      </c>
+      <c r="ACM2">
+        <v>-1.4029287441376126</v>
+      </c>
+      <c r="ACN2">
+        <v>-1.4011645567865041</v>
+      </c>
+      <c r="ACO2">
+        <v>-1.3994150693248333</v>
+      </c>
+      <c r="ACP2">
+        <v>-1.3976801592674517</v>
+      </c>
+      <c r="ACQ2">
+        <v>-1.3959597051498052</v>
+      </c>
+      <c r="ACR2">
+        <v>-1.3942535865194283</v>
+      </c>
+      <c r="ACS2">
+        <v>-1.3925616839275101</v>
+      </c>
+      <c r="ACT2">
+        <v>-1.3908838789205364</v>
+      </c>
+      <c r="ACU2">
+        <v>-1.3892200540319943</v>
+      </c>
+      <c r="ACV2">
+        <v>-1.3875700927741426</v>
+      </c>
+      <c r="ACW2">
+        <v>-1.385933879629863</v>
+      </c>
+      <c r="ACX2">
+        <v>-1.384311300044573</v>
+      </c>
+      <c r="ACY2">
+        <v>-1.3827022404182001</v>
+      </c>
+      <c r="ACZ2">
+        <v>-1.3811065880972306</v>
+      </c>
+      <c r="ADA2">
+        <v>-1.3795242313668252</v>
+      </c>
+      <c r="ADB2">
+        <v>-1.3779550594429948</v>
+      </c>
+      <c r="ADC2">
+        <v>-1.3763989624648487</v>
+      </c>
+      <c r="ADD2">
+        <v>-1.3748558314868951</v>
+      </c>
+      <c r="ADE2">
+        <v>-1.3733255584714188</v>
+      </c>
+      <c r="ADF2">
+        <v>-1.3718080362809175</v>
+      </c>
+      <c r="ADG2">
+        <v>-1.3703031586706</v>
+      </c>
+      <c r="ADH2">
+        <v>-1.3688108202809466</v>
+      </c>
+      <c r="ADI2">
+        <v>-1.3673309166303356</v>
+      </c>
+      <c r="ADJ2">
+        <v>-1.365863344107723</v>
+      </c>
+      <c r="ADK2">
+        <v>-1.3644079999653964</v>
+      </c>
+      <c r="ADL2">
+        <v>-1.3629647823117752</v>
+      </c>
+      <c r="ADM2">
+        <v>-1.361533590104278</v>
+      </c>
+      <c r="ADN2">
+        <v>-1.3601143231422483</v>
+      </c>
+      <c r="ADO2">
+        <v>-1.3587068820599442</v>
+      </c>
+      <c r="ADP2">
+        <v>-1.3573111683195731</v>
+      </c>
+      <c r="ADQ2">
+        <v>-1.3559270842043987</v>
+      </c>
+      <c r="ADR2">
+        <v>-1.3545545328118969</v>
+      </c>
+      <c r="ADS2">
+        <v>-1.3531934180469771</v>
+      </c>
+      <c r="ADT2">
+        <v>-1.3518436446152469</v>
+      </c>
+      <c r="ADU2">
+        <v>-1.3505051180163425</v>
+      </c>
+      <c r="ADV2">
+        <v>-1.3491777445373168</v>
+      </c>
+      <c r="ADW2">
+        <v>-1.3478614312460722</v>
+      </c>
+      <c r="ADX2">
+        <v>-1.3465560859848575</v>
+      </c>
+      <c r="ADY2">
+        <v>-1.3452616173638179</v>
+      </c>
+      <c r="ADZ2">
+        <v>-1.3439779347545908</v>
+      </c>
+      <c r="AEA2">
+        <v>-1.3427049482839661</v>
+      </c>
+      <c r="AEB2">
+        <v>-1.3414425688275922</v>
+      </c>
+      <c r="AEC2">
+        <v>-1.3401907080037359</v>
+      </c>
+      <c r="AED2">
+        <v>-1.3389492781670949</v>
+      </c>
+      <c r="AEE2">
+        <v>-1.3377181924026573</v>
+      </c>
+      <c r="AEF2">
+        <v>-1.3364973645196252</v>
+      </c>
+      <c r="AEG2">
+        <v>-1.3352867090453762</v>
+      </c>
+      <c r="AEH2">
+        <v>-1.334086141219476</v>
+      </c>
+      <c r="AEI2">
+        <v>-1.3328955769877471</v>
+      </c>
+      <c r="AEJ2">
+        <v>-1.3317149329963851</v>
+      </c>
+      <c r="AEK2">
+        <v>-1.3305441265861204</v>
+      </c>
+      <c r="AEL2">
+        <v>-1.3293830757864338</v>
+      </c>
+      <c r="AEM2">
+        <v>-1.3282316993098149</v>
+      </c>
+      <c r="AEN2">
+        <v>-1.3270899165460743</v>
+      </c>
+      <c r="AEO2">
+        <v>-1.3259576475566957</v>
+      </c>
+      <c r="AEP2">
+        <v>-1.3248348130692404</v>
+      </c>
+      <c r="AEQ2">
+        <v>-1.323721334471798</v>
+      </c>
+      <c r="AER2">
+        <v>-1.3226171338074872</v>
+      </c>
+      <c r="AES2">
+        <v>-1.3215221337689904</v>
+      </c>
+      <c r="AET2">
+        <v>-1.3204362576931443</v>
+      </c>
+      <c r="AEU2">
+        <v>-1.3193594295555724</v>
+      </c>
+      <c r="AEV2">
+        <v>-1.3182915739653625</v>
+      </c>
+      <c r="AEW2">
+        <v>-1.3172326161597934</v>
+      </c>
+      <c r="AEX2">
+        <v>-1.3161824819990888</v>
+      </c>
+      <c r="AEY2">
+        <v>-1.3151410979612363</v>
+      </c>
+      <c r="AEZ2">
+        <v>-1.314108391136839</v>
+      </c>
+      <c r="AFA2">
+        <v>-1.3130842892240058</v>
+      </c>
+      <c r="AFB2">
+        <v>-1.3120687205232955</v>
+      </c>
+      <c r="AFC2">
+        <v>-1.311061613932694</v>
+      </c>
+      <c r="AFD2">
+        <v>-1.3100628989426366</v>
+      </c>
+      <c r="AFE2">
+        <v>-1.3090725056310688</v>
+      </c>
+      <c r="AFF2">
+        <v>-1.3080903646585582</v>
+      </c>
+      <c r="AFG2">
+        <v>-1.3071164072634307</v>
+      </c>
+      <c r="AFH2">
+        <v>-1.3061505652569658</v>
+      </c>
+      <c r="AFI2">
+        <v>-1.305192771018614</v>
+      </c>
+      <c r="AFJ2">
+        <v>-1.3042429574912666</v>
+      </c>
+      <c r="AFK2">
+        <v>-1.3033010581765612</v>
+      </c>
+      <c r="AFL2">
+        <v>-1.3023670071302276</v>
+      </c>
+      <c r="AFM2">
+        <v>-1.3014407389574651</v>
+      </c>
+      <c r="AFN2">
+        <v>-1.3005221888083696</v>
+      </c>
+      <c r="AFO2">
+        <v>-1.2996112923733913</v>
+      </c>
+      <c r="AFP2">
+        <v>-1.298707985878832</v>
+      </c>
+      <c r="AFQ2">
+        <v>-1.2978122060823816</v>
+      </c>
+      <c r="AFR2">
+        <v>-1.296923890268689</v>
+      </c>
+      <c r="AFS2">
+        <v>-1.2960429762449697</v>
+      </c>
+      <c r="AFT2">
+        <v>-1.1279396555940797</v>
+      </c>
+      <c r="AFU2">
+        <v>-0.65942877212445106</v>
+      </c>
+      <c r="AFV2">
+        <v>-1.0409148141946208E-2</v>
+      </c>
+      <c r="AFW2">
+        <v>0.64220957875678242</v>
+      </c>
+      <c r="AFX2">
+        <v>1.2893904347151262</v>
+      </c>
+      <c r="AFY2">
+        <v>1.9311787301706524</v>
+      </c>
+      <c r="AFZ2">
+        <v>2.5616123935635593</v>
+      </c>
+      <c r="AGA2">
+        <v>3.0427479805717539</v>
+      </c>
+      <c r="AGB2">
+        <v>3.3674076304957876</v>
+      </c>
+      <c r="AGC2">
+        <v>3.5812045480634223</v>
+      </c>
+      <c r="AGD2">
+        <v>3.7336622445031091</v>
+      </c>
+      <c r="AGE2">
+        <v>3.8343438307464224</v>
+      </c>
+      <c r="AGF2">
+        <v>3.899068783600574</v>
+      </c>
+      <c r="AGG2">
+        <v>3.9405363865796272</v>
+      </c>
+      <c r="AGH2">
+        <v>3.9676590092638513</v>
+      </c>
+      <c r="AGI2">
+        <v>3.9846035657615482</v>
+      </c>
+      <c r="AGJ2">
+        <v>3.9959841048970977</v>
+      </c>
+      <c r="AGK2">
+        <v>4.0003976122605343</v>
+      </c>
+      <c r="AGL2">
+        <v>4.0030764391053273</v>
+      </c>
+      <c r="AGM2">
+        <v>4.0057329449316574</v>
+      </c>
+      <c r="AGN2">
+        <v>4.0083673157268596</v>
+      </c>
+      <c r="AGO2">
+        <v>4.0109797359285446</v>
+      </c>
+      <c r="AGP2">
+        <v>4.0134600108718184</v>
+      </c>
+      <c r="AGQ2">
+        <v>4.0101047437622013</v>
+      </c>
+      <c r="AGR2">
+        <v>4.0067774340322302</v>
+      </c>
+      <c r="AGS2">
+        <v>4.0034778487302409</v>
+      </c>
+      <c r="AGT2">
+        <v>4.0002057568455953</v>
+      </c>
+      <c r="AGU2">
+        <v>3.9969609292925465</v>
+      </c>
+      <c r="AGV2">
+        <v>3.9937431388941675</v>
+      </c>
+      <c r="AGW2">
+        <v>3.9905521603664558</v>
+      </c>
+      <c r="AGX2">
+        <v>3.9873877703025653</v>
+      </c>
+      <c r="AGY2">
+        <v>3.9842497471571585</v>
+      </c>
+      <c r="AGZ2">
+        <v>3.9811378712309016</v>
+      </c>
+      <c r="AHA2">
+        <v>3.9780519246550776</v>
+      </c>
+      <c r="AHB2">
+        <v>3.9749916913763461</v>
+      </c>
+      <c r="AHC2">
+        <v>3.971956957141594</v>
+      </c>
+      <c r="AHD2">
+        <v>3.9689475094829456</v>
+      </c>
+      <c r="AHE2">
+        <v>3.965963137702901</v>
+      </c>
+      <c r="AHF2">
+        <v>3.9630036328595706</v>
+      </c>
+      <c r="AHG2">
+        <v>3.9600687877520429</v>
+      </c>
+      <c r="AHH2">
+        <v>3.9571583969058883</v>
+      </c>
+      <c r="AHI2">
+        <v>3.9542722565587707</v>
+      </c>
+      <c r="AHJ2">
+        <v>3.9514101646461812</v>
+      </c>
+      <c r="AHK2">
+        <v>3.9485719207872894</v>
+      </c>
+      <c r="AHL2">
+        <v>3.9457573262709067</v>
+      </c>
+      <c r="AHM2">
+        <v>3.9429661840415946</v>
+      </c>
+      <c r="AHN2">
+        <v>3.9401982986858508</v>
+      </c>
+      <c r="AHO2">
+        <v>3.9374534764184319</v>
+      </c>
+      <c r="AHP2">
+        <v>3.9347315250687949</v>
+      </c>
+      <c r="AHQ2">
+        <v>3.9320322540676345</v>
+      </c>
+      <c r="AHR2">
+        <v>3.9293554744335384</v>
+      </c>
+      <c r="AHS2">
+        <v>3.9267009987597552</v>
+      </c>
+      <c r="AHT2">
+        <v>3.9240686412010888</v>
+      </c>
+      <c r="AHU2">
+        <v>3.9214582174608732</v>
+      </c>
+      <c r="AHV2">
+        <v>3.9188695447780759</v>
+      </c>
+      <c r="AHW2">
+        <v>3.9163024419144956</v>
+      </c>
+      <c r="AHX2">
+        <v>3.9137567291420781</v>
+      </c>
+      <c r="AHY2">
+        <v>3.9112322282303356</v>
+      </c>
+      <c r="AHZ2">
+        <v>3.9087287624338645</v>
+      </c>
+      <c r="AIA2">
+        <v>3.9062461564799684</v>
+      </c>
+      <c r="AIB2">
+        <v>3.9037842365563939</v>
+      </c>
+      <c r="AIC2">
+        <v>3.9013428302991642</v>
+      </c>
+      <c r="AID2">
+        <v>3.898921766780493</v>
+      </c>
+      <c r="AIE2">
+        <v>3.896520876496834</v>
+      </c>
+      <c r="AIF2">
+        <v>3.8941399913570192</v>
+      </c>
+      <c r="AIG2">
+        <v>3.8917789446704689</v>
+      </c>
+      <c r="AIH2">
+        <v>3.8894375711355433</v>
+      </c>
+      <c r="AII2">
+        <v>3.8871157068279554</v>
+      </c>
+      <c r="AIJ2">
+        <v>3.8848131891892961</v>
+      </c>
+      <c r="AIK2">
+        <v>3.8825298570156588</v>
+      </c>
+      <c r="AIL2">
+        <v>3.8802655504463508</v>
+      </c>
+      <c r="AIM2">
+        <v>3.8780201109526962</v>
+      </c>
+      <c r="AIN2">
+        <v>3.8757933813269454</v>
+      </c>
+      <c r="AIO2">
+        <v>3.8735852056712625</v>
+      </c>
+      <c r="AIP2">
+        <v>3.8713954293868107</v>
+      </c>
+      <c r="AIQ2">
+        <v>3.8692238991629337</v>
+      </c>
+      <c r="AIR2">
+        <v>3.8670704629664203</v>
+      </c>
+      <c r="AIS2">
+        <v>3.8649349700308524</v>
+      </c>
+      <c r="AIT2">
+        <v>3.862817270846064</v>
+      </c>
+      <c r="AIU2">
+        <v>3.8607172171476556</v>
+      </c>
+      <c r="AIV2">
+        <v>3.8586346619066298</v>
+      </c>
+      <c r="AIW2">
+        <v>3.8565694593190916</v>
+      </c>
+      <c r="AIX2">
+        <v>3.855016987417843</v>
+      </c>
+      <c r="AIY2">
+        <v>3.8535562380468411</v>
+      </c>
+      <c r="AIZ2">
+        <v>3.8521076602029956</v>
+      </c>
+      <c r="AJA2">
+        <v>3.8506711524684456</v>
+      </c>
+      <c r="AJB2">
+        <v>3.8492466142703874</v>
+      </c>
+      <c r="AJC2">
+        <v>3.8478339458740232</v>
+      </c>
+      <c r="AJD2">
+        <v>3.8464330483755886</v>
+      </c>
+      <c r="AJE2">
+        <v>3.8450438236954234</v>
+      </c>
+      <c r="AJF2">
+        <v>3.8436661745711005</v>
+      </c>
+      <c r="AJG2">
+        <v>3.8423000045506281</v>
+      </c>
+      <c r="AJH2">
+        <v>3.8409452179856807</v>
+      </c>
+      <c r="AJI2">
+        <v>3.8396017200249202</v>
+      </c>
+      <c r="AJJ2">
+        <v>3.8382694166073423</v>
+      </c>
+      <c r="AJK2">
+        <v>3.836948214455695</v>
+      </c>
+      <c r="AJL2">
+        <v>3.8356380210699497</v>
+      </c>
+      <c r="AJM2">
+        <v>3.8343387447208208</v>
+      </c>
+      <c r="AJN2">
+        <v>3.833050294443352</v>
+      </c>
+      <c r="AJO2">
+        <v>3.8317725800305373</v>
+      </c>
+      <c r="AJP2">
+        <v>3.8305055120270097</v>
+      </c>
+      <c r="AJQ2">
+        <v>3.8292490017227818</v>
+      </c>
+      <c r="AJR2">
+        <v>3.8280029611470305</v>
+      </c>
+      <c r="AJS2">
+        <v>3.8267673030619438</v>
+      </c>
+      <c r="AJT2">
+        <v>3.8255419409566018</v>
+      </c>
+      <c r="AJU2">
+        <v>3.8243267890409296</v>
+      </c>
+      <c r="AJV2">
+        <v>3.8231217622396922</v>
+      </c>
+      <c r="AJW2">
+        <v>3.8219267761865288</v>
+      </c>
+      <c r="AJX2">
+        <v>3.8207417472180536</v>
+      </c>
+      <c r="AJY2">
+        <v>3.8195665923679969</v>
+      </c>
+      <c r="AJZ2">
+        <v>3.8184012293613949</v>
+      </c>
+      <c r="AKA2">
+        <v>3.8172455766088325</v>
+      </c>
+      <c r="AKB2">
+        <v>3.8160995532007265</v>
+      </c>
+      <c r="AKC2">
+        <v>3.8149630789016653</v>
+      </c>
+      <c r="AKD2">
+        <v>3.813836074144791</v>
+      </c>
+      <c r="AKE2">
+        <v>3.8127184600262258</v>
+      </c>
+      <c r="AKF2">
+        <v>3.8116101582995476</v>
+      </c>
+      <c r="AKG2">
+        <v>3.8105110913703153</v>
+      </c>
+      <c r="AKH2">
+        <v>3.8094211822906363</v>
+      </c>
+      <c r="AKI2">
+        <v>3.8083403547537769</v>
+      </c>
+      <c r="AKJ2">
+        <v>3.8072685330888194</v>
+      </c>
+      <c r="AKK2">
+        <v>3.8062056422553625</v>
+      </c>
+      <c r="AKL2">
+        <v>3.8051516078382766</v>
+      </c>
+      <c r="AKM2">
+        <v>3.8041063560424835</v>
+      </c>
+      <c r="AKN2">
+        <v>3.8030698136877938</v>
+      </c>
+      <c r="AKO2">
+        <v>3.8020419082037891</v>
+      </c>
+      <c r="AKP2">
+        <v>3.8010225676247282</v>
+      </c>
+      <c r="AKQ2">
+        <v>3.8000117205845236</v>
+      </c>
+      <c r="AKR2">
+        <v>3.7990092963117292</v>
+      </c>
+      <c r="AKS2">
+        <v>3.7980152246246006</v>
+      </c>
+      <c r="AKT2">
+        <v>3.7970294359261718</v>
+      </c>
+      <c r="AKU2">
+        <v>3.7960518611993876</v>
+      </c>
+      <c r="AKV2">
+        <v>3.7950824320022667</v>
+      </c>
+      <c r="AKW2">
+        <v>3.7941210804631145</v>
+      </c>
+      <c r="AKX2">
+        <v>3.7931677392757681</v>
+      </c>
+      <c r="AKY2">
+        <v>3.7922223416948873</v>
+      </c>
+      <c r="AKZ2">
+        <v>3.7912848215312844</v>
+      </c>
+      <c r="ALA2">
+        <v>3.7903551131472741</v>
+      </c>
+      <c r="ALB2">
+        <v>3.7894331514520978</v>
+      </c>
+      <c r="ALC2">
+        <v>3.7885188718973577</v>
+      </c>
+      <c r="ALD2">
+        <v>3.7876122104724979</v>
+      </c>
+      <c r="ALE2">
+        <v>3.7867131037003183</v>
+      </c>
+      <c r="ALF2">
+        <v>3.7858214886325392</v>
+      </c>
+      <c r="ALG2">
+        <v>3.7849373028453899</v>
+      </c>
+      <c r="ALH2">
+        <v>3.7840604844352406</v>
+      </c>
+      <c r="ALI2">
+        <v>3.7831909720142649</v>
+      </c>
+      <c r="ALJ2">
+        <v>3.782328704706142</v>
+      </c>
+      <c r="ALK2">
+        <v>3.7814736221417995</v>
+      </c>
+      <c r="ALL2">
+        <v>3.7806256644551786</v>
+      </c>
+      <c r="ALM2">
+        <v>3.7797847722790512</v>
+      </c>
+      <c r="ALN2">
+        <v>3.7789508867408581</v>
+      </c>
+      <c r="ALO2">
+        <v>3.7781239494585899</v>
+      </c>
+      <c r="ALP2">
+        <v>3.777303902536699</v>
+      </c>
+      <c r="ALQ2">
+        <v>3.7764906885620446</v>
+      </c>
+      <c r="ALR2">
+        <v>3.7756842505998738</v>
+      </c>
+      <c r="ALS2">
+        <v>3.7748845321898408</v>
+      </c>
+      <c r="ALT2">
+        <v>3.7740914773420418</v>
+      </c>
+      <c r="ALU2">
+        <v>3.7733050305331086</v>
+      </c>
+      <c r="ALV2">
+        <v>3.7725251367023094</v>
+      </c>
+      <c r="ALW2">
+        <v>3.7717517412477073</v>
+      </c>
+      <c r="ALX2">
+        <v>3.7709847900223226</v>
+      </c>
+      <c r="ALY2">
+        <v>3.7702242293303523</v>
+      </c>
+      <c r="ALZ2">
+        <v>3.7694700059234072</v>
+      </c>
+      <c r="AMA2">
+        <v>3.7687220669967862</v>
+      </c>
+      <c r="AMB2">
+        <v>3.7679803601857715</v>
+      </c>
+      <c r="AMC2">
+        <v>3.7672448335619761</v>
+      </c>
+      <c r="AMD2">
+        <v>3.7665154356296968</v>
+      </c>
+      <c r="AME2">
+        <v>3.7657921153223097</v>
+      </c>
+      <c r="AMF2">
+        <v>3.7650748219987005</v>
+      </c>
+      <c r="AMG2">
+        <v>3.7643635054397167</v>
+      </c>
+      <c r="AMH2">
+        <v>3.7636581158446489</v>
+      </c>
+      <c r="AMI2">
+        <v>3.7629586038277494</v>
+      </c>
+      <c r="AMJ2">
+        <v>3.7622649204147671</v>
+      </c>
+      <c r="AMK2">
+        <v>3.7615770170395306</v>
+      </c>
+      <c r="AML2">
+        <v>3.7608948455405331</v>
+      </c>
+      <c r="AMM2">
+        <v>3.7602183581575717</v>
+      </c>
+      <c r="AMN2">
+        <v>3.7595475075283988</v>
+      </c>
+      <c r="AMO2">
+        <v>3.7588822466854093</v>
+      </c>
+      <c r="AMP2">
+        <v>3.7582225290523463</v>
+      </c>
+      <c r="AMQ2">
+        <v>3.7575683084410478</v>
+      </c>
+      <c r="AMR2">
+        <v>3.7569195390482082</v>
+      </c>
+      <c r="AMS2">
+        <v>3.756276175452173</v>
+      </c>
+      <c r="AMT2">
+        <v>3.7556381726097596</v>
+      </c>
+      <c r="AMU2">
+        <v>3.7550054858531001</v>
+      </c>
+      <c r="AMV2">
+        <v>3.7543780708865171</v>
+      </c>
+      <c r="AMW2">
+        <v>3.7537558837834237</v>
+      </c>
+      <c r="AMX2">
+        <v>3.7531388809832453</v>
+      </c>
+      <c r="AMY2">
+        <v>3.7525270192883662</v>
+      </c>
+      <c r="AMZ2">
+        <v>3.7519202558611204</v>
+      </c>
+      <c r="ANA2">
+        <v>3.7513185482207723</v>
+      </c>
+      <c r="ANB2">
+        <v>3.7507218542405547</v>
+      </c>
+      <c r="ANC2">
+        <v>3.7501301321447178</v>
+      </c>
+      <c r="AND2">
+        <v>3.7495433405056047</v>
+      </c>
+      <c r="ANE2">
+        <v>3.7489614382407499</v>
+      </c>
+      <c r="ANF2">
+        <v>3.748384384609996</v>
+      </c>
+      <c r="ANG2">
+        <v>3.7478121392126598</v>
+      </c>
+      <c r="ANH2">
+        <v>3.7472446619846855</v>
+      </c>
+      <c r="ANI2">
+        <v>3.7466819131958444</v>
+      </c>
+      <c r="ANJ2">
+        <v>3.7461238534469574</v>
+      </c>
+      <c r="ANK2">
+        <v>3.7455704436671335</v>
+      </c>
+      <c r="ANL2">
+        <v>3.5486321546950044</v>
+      </c>
+      <c r="ANM2">
+        <v>2.9618493986385777</v>
+      </c>
+      <c r="ANN2">
+        <v>2.1816086689821015</v>
+      </c>
+      <c r="ANO2">
+        <v>1.4058562381929012</v>
+      </c>
+      <c r="ANP2">
+        <v>0.63681348791766523</v>
+      </c>
+      <c r="ANQ2">
+        <v>-2.8237177082654264E-2</v>
+      </c>
+      <c r="ANR2">
+        <v>-0.48891664120767558</v>
+      </c>
+      <c r="ANS2">
+        <v>-0.81008143376735398</v>
+      </c>
+      <c r="ANT2">
+        <v>-1.0379318534383097</v>
+      </c>
+      <c r="ANU2">
+        <v>-1.2019011316440029</v>
+      </c>
+      <c r="ANV2">
+        <v>-1.3173352225305521</v>
+      </c>
+      <c r="ANW2">
+        <v>-1.4002826698112161</v>
+      </c>
+      <c r="ANX2">
+        <v>-1.4551249668780879</v>
+      </c>
+      <c r="ANY2">
+        <v>-1.491785161791124</v>
+      </c>
+      <c r="ANZ2">
+        <v>-1.5264957191436122</v>
+      </c>
+      <c r="AOA2">
+        <v>-1.5524912719436401</v>
+      </c>
+      <c r="AOB2">
+        <v>-1.5697432727195313</v>
+      </c>
+      <c r="AOC2">
+        <v>-1.5818203618852609</v>
+      </c>
+      <c r="AOD2">
+        <v>-1.5899962954700479</v>
+      </c>
+      <c r="AOE2">
+        <v>-1.5947819381949211</v>
+      </c>
+      <c r="AOF2">
+        <v>-1.5952127537527496</v>
+      </c>
+      <c r="AOG2">
+        <v>-1.5956399795891887</v>
+      </c>
+      <c r="AOH2">
+        <v>-1.5960636456151829</v>
+      </c>
+      <c r="AOI2">
+        <v>-1.5964837814924455</v>
+      </c>
+      <c r="AOJ2">
+        <v>-1.5969004166355356</v>
+      </c>
+      <c r="AOK2">
+        <v>-1.5973135802139216</v>
+      </c>
+      <c r="AOL2">
+        <v>-1.5977233011540206</v>
+      </c>
+      <c r="AOM2">
+        <v>-1.5981296081412213</v>
+      </c>
+      <c r="AON2">
+        <v>-1.5985325296218962</v>
+      </c>
+      <c r="AOO2">
+        <v>-1.5989320938053917</v>
+      </c>
+      <c r="AOP2">
+        <v>-1.5993283286660027</v>
+      </c>
+      <c r="AOQ2">
+        <v>-1.5997212619449321</v>
+      </c>
+      <c r="AOR2">
+        <v>-1.600110921152232</v>
+      </c>
+      <c r="AOS2">
+        <v>-1.6004973335687267</v>
+      </c>
+      <c r="AOT2">
+        <v>-1.600880526247932</v>
+      </c>
+      <c r="AOU2">
+        <v>-1.6012605260179418</v>
+      </c>
+      <c r="AOV2">
+        <v>-1.601637359483306</v>
+      </c>
+      <c r="AOW2">
+        <v>-1.6020110530268958</v>
+      </c>
+      <c r="AOX2">
+        <v>-1.6023816328117515</v>
+      </c>
+      <c r="AOY2">
+        <v>-1.6027491247829115</v>
+      </c>
+      <c r="AOZ2">
+        <v>-1.6031135546692292</v>
+      </c>
+      <c r="APA2">
+        <v>-1.6034749479851766</v>
+      </c>
+      <c r="APB2">
+        <v>-1.6038333300326317</v>
+      </c>
+      <c r="APC2">
+        <v>-1.6041887259026431</v>
+      </c>
+      <c r="APD2">
+        <v>-1.6045411604771922</v>
+      </c>
+      <c r="APE2">
+        <v>-1.6048906584309353</v>
+      </c>
+      <c r="APF2">
+        <v>-1.605237244232931</v>
+      </c>
+      <c r="APG2">
+        <v>-1.6055809421483491</v>
+      </c>
+      <c r="APH2">
+        <v>-1.6059217762401767</v>
+      </c>
+      <c r="API2">
+        <v>-1.6062597703708936</v>
+      </c>
+      <c r="APJ2">
+        <v>-1.6065949482041524</v>
+      </c>
+      <c r="APK2">
+        <v>-1.6069273332064311</v>
+      </c>
+      <c r="APL2">
+        <v>-1.607256948648673</v>
+      </c>
+      <c r="APM2">
+        <v>-1.6075838176079211</v>
+      </c>
+      <c r="APN2">
+        <v>-1.6079079629689295</v>
+      </c>
+      <c r="APO2">
+        <v>-1.6082294074257715</v>
+      </c>
+      <c r="APP2">
+        <v>-1.6085481734834208</v>
+      </c>
+      <c r="APQ2">
+        <v>-1.6088642834593339</v>
+      </c>
+      <c r="APR2">
+        <v>-1.6091777594850074</v>
+      </c>
+      <c r="APS2">
+        <v>-1.6094886235075303</v>
+      </c>
+      <c r="APT2">
+        <v>-1.609796897291121</v>
+      </c>
+      <c r="APU2">
+        <v>-1.6098327113183921</v>
+      </c>
+      <c r="APV2">
+        <v>-1.6074854248966364</v>
+      </c>
+      <c r="APW2">
+        <v>-1.6051576969706685</v>
+      </c>
+      <c r="APX2">
+        <v>-1.6028493645715618</v>
+      </c>
+      <c r="APY2">
+        <v>-1.6005602660883023</v>
+      </c>
+      <c r="APZ2">
+        <v>-1.5982902412564868</v>
+      </c>
+      <c r="AQA2">
+        <v>-1.5960391311470972</v>
+      </c>
+      <c r="AQB2">
+        <v>-1.5938067781553666</v>
+      </c>
+      <c r="AQC2">
+        <v>-1.5915930259897559</v>
+      </c>
+      <c r="AQD2">
+        <v>-1.5893977196610107</v>
+      </c>
+      <c r="AQE2">
+        <v>-1.5872207054713023</v>
+      </c>
+      <c r="AQF2">
+        <v>-1.5850618310034743</v>
+      </c>
+      <c r="AQG2">
+        <v>-1.5829209451103663</v>
+      </c>
+      <c r="AQH2">
+        <v>-1.5807978979042374</v>
+      </c>
+      <c r="AQI2">
+        <v>-1.5786925407462671</v>
+      </c>
+      <c r="AQJ2">
+        <v>-1.5766047262361529</v>
+      </c>
+      <c r="AQK2">
+        <v>-1.5745343082017826</v>
+      </c>
+      <c r="AQL2">
+        <v>-1.5724811416890145</v>
+      </c>
+      <c r="AQM2">
+        <v>-1.570445082951516</v>
+      </c>
+      <c r="AQN2">
+        <v>-1.568425989440704</v>
+      </c>
+      <c r="AQO2">
+        <v>-1.566423719795766</v>
+      </c>
+      <c r="AQP2">
+        <v>-1.5644381338337661</v>
+      </c>
+      <c r="AQQ2">
+        <v>-1.5621689618931431</v>
+      </c>
+      <c r="AQR2">
+        <v>-1.5589192255672299</v>
+      </c>
+      <c r="AQS2">
+        <v>-1.5556965672977765</v>
+      </c>
+      <c r="AQT2">
+        <v>-1.552500761459966</v>
+      </c>
+      <c r="AQU2">
+        <v>-1.5493315843089861</v>
+      </c>
+      <c r="AQV2">
+        <v>-1.546188813964348</v>
+      </c>
+      <c r="AQW2">
+        <v>-1.5430722303943538</v>
+      </c>
+      <c r="AQX2">
+        <v>-1.5399816154006989</v>
+      </c>
+      <c r="AQY2">
+        <v>-1.5369167526031891</v>
+      </c>
+      <c r="AQZ2">
+        <v>-1.5338774274245928</v>
+      </c>
+      <c r="ARA2">
+        <v>-1.5308634270756212</v>
+      </c>
+      <c r="ARB2">
+        <v>-1.5278745405400247</v>
+      </c>
+      <c r="ARC2">
+        <v>-1.5249105585598235</v>
+      </c>
+      <c r="ARD2">
+        <v>-1.5219712736206601</v>
+      </c>
+      <c r="ARE2">
+        <v>-1.5190564799372608</v>
+      </c>
+      <c r="ARF2">
+        <v>-1.5161659734390367</v>
+      </c>
+      <c r="ARG2">
+        <v>-1.5132995517557921</v>
+      </c>
+      <c r="ARH2">
+        <v>-1.5104570142035618</v>
+      </c>
+      <c r="ARI2">
+        <v>-1.5076381617705505</v>
+      </c>
+      <c r="ARJ2">
+        <v>-1.5048427971032152</v>
+      </c>
+      <c r="ARK2">
+        <v>-1.5020707244924343</v>
+      </c>
+      <c r="ARL2">
+        <v>-1.4993217498598055</v>
+      </c>
+      <c r="ARM2">
+        <v>-1.4965956807440646</v>
+      </c>
+      <c r="ARN2">
+        <v>-1.4938923262876129</v>
+      </c>
+      <c r="ARO2">
+        <v>-1.4912114972231438</v>
+      </c>
+      <c r="ARP2">
+        <v>-1.4885530058604082</v>
+      </c>
+      <c r="ARQ2">
+        <v>-1.4859166660730567</v>
+      </c>
+      <c r="ARR2">
+        <v>-1.4833022932856246</v>
+      </c>
+      <c r="ARS2">
+        <v>-1.4807097044605944</v>
+      </c>
+      <c r="ART2">
+        <v>-1.4781387180855894</v>
+      </c>
+      <c r="ARU2">
+        <v>-1.4755891541606612</v>
+      </c>
+      <c r="ARV2">
+        <v>-1.4730608341856943</v>
+      </c>
+      <c r="ARW2">
+        <v>-1.4705535811479054</v>
+      </c>
+      <c r="ARX2">
+        <v>-1.4680672195094506</v>
+      </c>
+      <c r="ARY2">
+        <v>-1.465601575195133</v>
+      </c>
+      <c r="ARZ2">
+        <v>-1.4631564755802131</v>
+      </c>
+      <c r="ASA2">
+        <v>-1.4607317494783334</v>
+      </c>
+      <c r="ASB2">
+        <v>-1.4583272271295262</v>
+      </c>
+      <c r="ASC2">
+        <v>-1.455942740188326</v>
+      </c>
+      <c r="ASD2">
+        <v>-1.4535781217119912</v>
+      </c>
+      <c r="ASE2">
+        <v>-1.4512332061488111</v>
+      </c>
+      <c r="ASF2">
+        <v>-1.4489078293265125</v>
+      </c>
+      <c r="ASG2">
+        <v>-1.4466018284407722</v>
+      </c>
+      <c r="ASH2">
+        <v>-1.4443150420438118</v>
+      </c>
+      <c r="ASI2">
+        <v>-1.4420473100330977</v>
+      </c>
+      <c r="ASJ2">
+        <v>-1.4397984736401352</v>
+      </c>
+      <c r="ASK2">
+        <v>-1.4375683754193542</v>
+      </c>
+      <c r="ASL2">
+        <v>-1.4353568592370769</v>
+      </c>
+      <c r="ASM2">
+        <v>-1.4331637702605886</v>
+      </c>
+      <c r="ASN2">
+        <v>-1.4309889549473038</v>
+      </c>
+      <c r="ASO2">
+        <v>-1.4288322610340116</v>
+      </c>
+      <c r="ASP2">
+        <v>-1.4266935375262164</v>
+      </c>
+      <c r="ASQ2">
+        <v>-1.424572634687572</v>
+      </c>
+      <c r="ASR2">
+        <v>-1.4224694040293882</v>
+      </c>
+      <c r="ASS2">
+        <v>-1.4203836983002431</v>
+      </c>
+      <c r="AST2">
+        <v>-1.4183153714756658</v>
+      </c>
+      <c r="ASU2">
+        <v>-1.4162642787479236</v>
+      </c>
+      <c r="ASV2">
+        <v>-1.4142302765158767</v>
+      </c>
+      <c r="ASW2">
+        <v>-1.4122132223749198</v>
+      </c>
+      <c r="ASX2">
+        <v>-1.4102129751070205</v>
+      </c>
+      <c r="ASY2">
+        <v>-1.4082293946708333</v>
+      </c>
+      <c r="ASZ2">
+        <v>-1.4062623421918876</v>
+      </c>
+      <c r="ATA2">
+        <v>-1.4043116799528654</v>
+      </c>
+      <c r="ATB2">
+        <v>-1.4023772713839706</v>
+      </c>
+      <c r="ATC2">
+        <v>-1.4004589810533508</v>
+      </c>
+      <c r="ATD2">
+        <v>-1.3985566746576326</v>
+      </c>
+      <c r="ATE2">
+        <v>-1.3966702190125004</v>
       </c>
     </row>
   </sheetData>
